--- a/01_基本設計書/20191231リリース/SC-M22_採番マスタ.xlsx
+++ b/01_基本設計書/20191231リリース/SC-M22_採番マスタ.xlsx
@@ -9,7 +9,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6826FC12-F6D0-4C50-9173-C25CD9138EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C26EA9F2-7CB3-41FB-9D04-1D3377A3DA42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="703" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2696,6 +2696,33 @@
     <xf numFmtId="0" fontId="20" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="58" fontId="11" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2705,6 +2732,91 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2731,91 +2843,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="7" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="28" fillId="0" borderId="8" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -2880,14 +2907,32 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="11" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="12" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2912,51 +2957,6 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="16">
@@ -3680,6 +3680,166 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>114301</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD627B65-AE1B-4AB7-A7A3-519A9922822E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3686175" y="1076325"/>
+          <a:ext cx="2124076" cy="247650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Numbering Master Maintenance</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A927B1D1-2248-43CA-9356-9E0B967083ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447674" y="1428749"/>
+          <a:ext cx="4448175" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="38100">
+          <a:solidFill>
+            <a:srgbClr val="0070C0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Numbering Master Maintenance</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4402,108 +4562,108 @@
       <c r="AG31" s="3"/>
     </row>
     <row r="32" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="131" t="s">
+      <c r="A32" s="140" t="s">
         <v>153</v>
       </c>
-      <c r="B32" s="131"/>
-      <c r="C32" s="131"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="131"/>
-      <c r="F32" s="131"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="131"/>
-      <c r="J32" s="131"/>
-      <c r="K32" s="131"/>
-      <c r="L32" s="131"/>
-      <c r="M32" s="131"/>
-      <c r="N32" s="131"/>
-      <c r="O32" s="131"/>
-      <c r="P32" s="131"/>
-      <c r="Q32" s="131"/>
-      <c r="R32" s="131"/>
-      <c r="S32" s="131"/>
-      <c r="T32" s="131"/>
-      <c r="U32" s="131"/>
-      <c r="V32" s="131"/>
-      <c r="W32" s="131"/>
-      <c r="X32" s="131"/>
-      <c r="Y32" s="131"/>
-      <c r="Z32" s="131"/>
-      <c r="AA32" s="131"/>
-      <c r="AB32" s="131"/>
-      <c r="AC32" s="131"/>
-      <c r="AD32" s="131"/>
-      <c r="AE32" s="131"/>
-      <c r="AF32" s="131"/>
-      <c r="AG32" s="131"/>
-      <c r="AH32" s="131"/>
-      <c r="AI32" s="131"/>
-      <c r="AJ32" s="131"/>
-      <c r="AK32" s="131"/>
-      <c r="AL32" s="131"/>
-      <c r="AM32" s="131"/>
-      <c r="AN32" s="131"/>
-      <c r="AO32" s="131"/>
-      <c r="AP32" s="131"/>
-      <c r="AQ32" s="131"/>
-      <c r="AR32" s="131"/>
-      <c r="AS32" s="131"/>
-      <c r="AT32" s="131"/>
-      <c r="AU32" s="131"/>
-      <c r="AV32" s="131"/>
-      <c r="AW32" s="131"/>
+      <c r="B32" s="140"/>
+      <c r="C32" s="140"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="140"/>
+      <c r="F32" s="140"/>
+      <c r="G32" s="140"/>
+      <c r="H32" s="140"/>
+      <c r="I32" s="140"/>
+      <c r="J32" s="140"/>
+      <c r="K32" s="140"/>
+      <c r="L32" s="140"/>
+      <c r="M32" s="140"/>
+      <c r="N32" s="140"/>
+      <c r="O32" s="140"/>
+      <c r="P32" s="140"/>
+      <c r="Q32" s="140"/>
+      <c r="R32" s="140"/>
+      <c r="S32" s="140"/>
+      <c r="T32" s="140"/>
+      <c r="U32" s="140"/>
+      <c r="V32" s="140"/>
+      <c r="W32" s="140"/>
+      <c r="X32" s="140"/>
+      <c r="Y32" s="140"/>
+      <c r="Z32" s="140"/>
+      <c r="AA32" s="140"/>
+      <c r="AB32" s="140"/>
+      <c r="AC32" s="140"/>
+      <c r="AD32" s="140"/>
+      <c r="AE32" s="140"/>
+      <c r="AF32" s="140"/>
+      <c r="AG32" s="140"/>
+      <c r="AH32" s="140"/>
+      <c r="AI32" s="140"/>
+      <c r="AJ32" s="140"/>
+      <c r="AK32" s="140"/>
+      <c r="AL32" s="140"/>
+      <c r="AM32" s="140"/>
+      <c r="AN32" s="140"/>
+      <c r="AO32" s="140"/>
+      <c r="AP32" s="140"/>
+      <c r="AQ32" s="140"/>
+      <c r="AR32" s="140"/>
+      <c r="AS32" s="140"/>
+      <c r="AT32" s="140"/>
+      <c r="AU32" s="140"/>
+      <c r="AV32" s="140"/>
+      <c r="AW32" s="140"/>
     </row>
     <row r="33" spans="1:49" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="A33" s="132"/>
-      <c r="B33" s="132"/>
-      <c r="C33" s="132"/>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="132"/>
-      <c r="L33" s="132"/>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="132"/>
-      <c r="P33" s="132"/>
-      <c r="Q33" s="132"/>
-      <c r="R33" s="132"/>
-      <c r="S33" s="132"/>
-      <c r="T33" s="132"/>
-      <c r="U33" s="132"/>
-      <c r="V33" s="132"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="132"/>
-      <c r="Z33" s="132"/>
-      <c r="AA33" s="132"/>
-      <c r="AB33" s="132"/>
-      <c r="AC33" s="132"/>
-      <c r="AD33" s="132"/>
-      <c r="AE33" s="132"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="132"/>
-      <c r="AH33" s="132"/>
-      <c r="AI33" s="132"/>
-      <c r="AJ33" s="132"/>
-      <c r="AK33" s="132"/>
-      <c r="AL33" s="132"/>
-      <c r="AM33" s="132"/>
-      <c r="AN33" s="132"/>
-      <c r="AO33" s="132"/>
-      <c r="AP33" s="132"/>
-      <c r="AQ33" s="132"/>
-      <c r="AR33" s="132"/>
-      <c r="AS33" s="132"/>
-      <c r="AT33" s="132"/>
-      <c r="AU33" s="132"/>
-      <c r="AV33" s="132"/>
-      <c r="AW33" s="132"/>
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="141"/>
+      <c r="D33" s="141"/>
+      <c r="E33" s="141"/>
+      <c r="F33" s="141"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="141"/>
+      <c r="I33" s="141"/>
+      <c r="J33" s="141"/>
+      <c r="K33" s="141"/>
+      <c r="L33" s="141"/>
+      <c r="M33" s="141"/>
+      <c r="N33" s="141"/>
+      <c r="O33" s="141"/>
+      <c r="P33" s="141"/>
+      <c r="Q33" s="141"/>
+      <c r="R33" s="141"/>
+      <c r="S33" s="141"/>
+      <c r="T33" s="141"/>
+      <c r="U33" s="141"/>
+      <c r="V33" s="141"/>
+      <c r="W33" s="141"/>
+      <c r="X33" s="141"/>
+      <c r="Y33" s="141"/>
+      <c r="Z33" s="141"/>
+      <c r="AA33" s="141"/>
+      <c r="AB33" s="141"/>
+      <c r="AC33" s="141"/>
+      <c r="AD33" s="141"/>
+      <c r="AE33" s="141"/>
+      <c r="AF33" s="141"/>
+      <c r="AG33" s="141"/>
+      <c r="AH33" s="141"/>
+      <c r="AI33" s="141"/>
+      <c r="AJ33" s="141"/>
+      <c r="AK33" s="141"/>
+      <c r="AL33" s="141"/>
+      <c r="AM33" s="141"/>
+      <c r="AN33" s="141"/>
+      <c r="AO33" s="141"/>
+      <c r="AP33" s="141"/>
+      <c r="AQ33" s="141"/>
+      <c r="AR33" s="141"/>
+      <c r="AS33" s="141"/>
+      <c r="AT33" s="141"/>
+      <c r="AU33" s="141"/>
+      <c r="AV33" s="141"/>
+      <c r="AW33" s="141"/>
     </row>
     <row r="34" spans="1:49" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
@@ -4541,55 +4701,55 @@
       <c r="AG34" s="4"/>
     </row>
     <row r="35" spans="1:49" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="133"/>
-      <c r="B35" s="133"/>
-      <c r="C35" s="133"/>
-      <c r="D35" s="133"/>
-      <c r="E35" s="133"/>
-      <c r="F35" s="133"/>
-      <c r="G35" s="133"/>
-      <c r="H35" s="133"/>
-      <c r="I35" s="133"/>
-      <c r="J35" s="133"/>
-      <c r="K35" s="133"/>
-      <c r="L35" s="133"/>
-      <c r="M35" s="133"/>
-      <c r="N35" s="133"/>
-      <c r="O35" s="133"/>
-      <c r="P35" s="133"/>
-      <c r="Q35" s="133"/>
-      <c r="R35" s="133"/>
-      <c r="S35" s="133"/>
-      <c r="T35" s="133"/>
-      <c r="U35" s="133"/>
-      <c r="V35" s="133"/>
-      <c r="W35" s="133"/>
-      <c r="X35" s="133"/>
-      <c r="Y35" s="133"/>
-      <c r="Z35" s="133"/>
-      <c r="AA35" s="133"/>
-      <c r="AB35" s="133"/>
-      <c r="AC35" s="133"/>
-      <c r="AD35" s="133"/>
-      <c r="AE35" s="133"/>
-      <c r="AF35" s="133"/>
-      <c r="AG35" s="133"/>
-      <c r="AH35" s="133"/>
-      <c r="AI35" s="133"/>
-      <c r="AJ35" s="133"/>
-      <c r="AK35" s="133"/>
-      <c r="AL35" s="133"/>
-      <c r="AM35" s="133"/>
-      <c r="AN35" s="133"/>
-      <c r="AO35" s="133"/>
-      <c r="AP35" s="133"/>
-      <c r="AQ35" s="133"/>
-      <c r="AR35" s="133"/>
-      <c r="AS35" s="133"/>
-      <c r="AT35" s="133"/>
-      <c r="AU35" s="133"/>
-      <c r="AV35" s="133"/>
-      <c r="AW35" s="133"/>
+      <c r="A35" s="142"/>
+      <c r="B35" s="142"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="142"/>
+      <c r="I35" s="142"/>
+      <c r="J35" s="142"/>
+      <c r="K35" s="142"/>
+      <c r="L35" s="142"/>
+      <c r="M35" s="142"/>
+      <c r="N35" s="142"/>
+      <c r="O35" s="142"/>
+      <c r="P35" s="142"/>
+      <c r="Q35" s="142"/>
+      <c r="R35" s="142"/>
+      <c r="S35" s="142"/>
+      <c r="T35" s="142"/>
+      <c r="U35" s="142"/>
+      <c r="V35" s="142"/>
+      <c r="W35" s="142"/>
+      <c r="X35" s="142"/>
+      <c r="Y35" s="142"/>
+      <c r="Z35" s="142"/>
+      <c r="AA35" s="142"/>
+      <c r="AB35" s="142"/>
+      <c r="AC35" s="142"/>
+      <c r="AD35" s="142"/>
+      <c r="AE35" s="142"/>
+      <c r="AF35" s="142"/>
+      <c r="AG35" s="142"/>
+      <c r="AH35" s="142"/>
+      <c r="AI35" s="142"/>
+      <c r="AJ35" s="142"/>
+      <c r="AK35" s="142"/>
+      <c r="AL35" s="142"/>
+      <c r="AM35" s="142"/>
+      <c r="AN35" s="142"/>
+      <c r="AO35" s="142"/>
+      <c r="AP35" s="142"/>
+      <c r="AQ35" s="142"/>
+      <c r="AR35" s="142"/>
+      <c r="AS35" s="142"/>
+      <c r="AT35" s="142"/>
+      <c r="AU35" s="142"/>
+      <c r="AV35" s="142"/>
+      <c r="AW35" s="142"/>
     </row>
     <row r="42" spans="1:49" x14ac:dyDescent="0.15">
       <c r="P42" s="3" t="s">
@@ -4624,1770 +4784,2003 @@
   <sheetData>
     <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="60"/>
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="134"/>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
-      <c r="I1" s="134"/>
-      <c r="J1" s="134"/>
-      <c r="K1" s="134"/>
-      <c r="L1" s="134"/>
-      <c r="M1" s="134"/>
-      <c r="N1" s="134"/>
-      <c r="O1" s="134"/>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="134"/>
-      <c r="T1" s="134"/>
-      <c r="U1" s="134"/>
-      <c r="V1" s="134"/>
-      <c r="W1" s="134"/>
-      <c r="X1" s="134"/>
-      <c r="Y1" s="134"/>
-      <c r="Z1" s="134"/>
-      <c r="AA1" s="134"/>
-      <c r="AB1" s="134"/>
-      <c r="AC1" s="134"/>
-      <c r="AD1" s="134"/>
-      <c r="AE1" s="134"/>
-      <c r="AF1" s="134"/>
-      <c r="AG1" s="134"/>
-      <c r="AH1" s="134"/>
-      <c r="AI1" s="134"/>
-      <c r="AJ1" s="134"/>
-      <c r="AK1" s="134"/>
-      <c r="AL1" s="134"/>
-      <c r="AM1" s="134"/>
-      <c r="AN1" s="134"/>
-      <c r="AO1" s="134"/>
-      <c r="AP1" s="134"/>
-      <c r="AQ1" s="134"/>
-      <c r="AR1" s="134"/>
-      <c r="AS1" s="134"/>
-      <c r="AT1" s="134"/>
-      <c r="AU1" s="134"/>
-      <c r="AV1" s="134"/>
-      <c r="AW1" s="134"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
+      <c r="I1" s="174"/>
+      <c r="J1" s="174"/>
+      <c r="K1" s="174"/>
+      <c r="L1" s="174"/>
+      <c r="M1" s="174"/>
+      <c r="N1" s="174"/>
+      <c r="O1" s="174"/>
+      <c r="P1" s="174"/>
+      <c r="Q1" s="174"/>
+      <c r="R1" s="174"/>
+      <c r="S1" s="174"/>
+      <c r="T1" s="174"/>
+      <c r="U1" s="174"/>
+      <c r="V1" s="174"/>
+      <c r="W1" s="174"/>
+      <c r="X1" s="174"/>
+      <c r="Y1" s="174"/>
+      <c r="Z1" s="174"/>
+      <c r="AA1" s="174"/>
+      <c r="AB1" s="174"/>
+      <c r="AC1" s="174"/>
+      <c r="AD1" s="174"/>
+      <c r="AE1" s="174"/>
+      <c r="AF1" s="174"/>
+      <c r="AG1" s="174"/>
+      <c r="AH1" s="174"/>
+      <c r="AI1" s="174"/>
+      <c r="AJ1" s="174"/>
+      <c r="AK1" s="174"/>
+      <c r="AL1" s="174"/>
+      <c r="AM1" s="174"/>
+      <c r="AN1" s="174"/>
+      <c r="AO1" s="174"/>
+      <c r="AP1" s="174"/>
+      <c r="AQ1" s="174"/>
+      <c r="AR1" s="174"/>
+      <c r="AS1" s="174"/>
+      <c r="AT1" s="174"/>
+      <c r="AU1" s="174"/>
+      <c r="AV1" s="174"/>
+      <c r="AW1" s="174"/>
     </row>
     <row r="2" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="135"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="135"/>
-      <c r="I2" s="135"/>
-      <c r="J2" s="135"/>
-      <c r="K2" s="135"/>
-      <c r="L2" s="135"/>
-      <c r="M2" s="135"/>
-      <c r="N2" s="135"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="135"/>
-      <c r="Q2" s="135"/>
-      <c r="R2" s="135"/>
-      <c r="S2" s="135"/>
-      <c r="T2" s="135"/>
-      <c r="U2" s="135"/>
-      <c r="V2" s="135"/>
-      <c r="W2" s="135"/>
-      <c r="X2" s="135"/>
-      <c r="Y2" s="135"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="135"/>
-      <c r="AB2" s="135"/>
-      <c r="AC2" s="135"/>
-      <c r="AD2" s="135"/>
-      <c r="AE2" s="135"/>
-      <c r="AF2" s="135"/>
-      <c r="AG2" s="135"/>
-      <c r="AH2" s="135"/>
-      <c r="AI2" s="135"/>
-      <c r="AJ2" s="135"/>
-      <c r="AK2" s="135"/>
-      <c r="AL2" s="135"/>
-      <c r="AM2" s="135"/>
-      <c r="AN2" s="135"/>
-      <c r="AO2" s="135"/>
-      <c r="AP2" s="135"/>
-      <c r="AQ2" s="135"/>
-      <c r="AR2" s="135"/>
-      <c r="AS2" s="135"/>
-      <c r="AT2" s="135"/>
-      <c r="AU2" s="135"/>
-      <c r="AV2" s="135"/>
-      <c r="AW2" s="135"/>
+      <c r="B2" s="175"/>
+      <c r="C2" s="175"/>
+      <c r="D2" s="175"/>
+      <c r="E2" s="175"/>
+      <c r="F2" s="175"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+      <c r="M2" s="175"/>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+      <c r="R2" s="175"/>
+      <c r="S2" s="175"/>
+      <c r="T2" s="175"/>
+      <c r="U2" s="175"/>
+      <c r="V2" s="175"/>
+      <c r="W2" s="175"/>
+      <c r="X2" s="175"/>
+      <c r="Y2" s="175"/>
+      <c r="Z2" s="175"/>
+      <c r="AA2" s="175"/>
+      <c r="AB2" s="175"/>
+      <c r="AC2" s="175"/>
+      <c r="AD2" s="175"/>
+      <c r="AE2" s="175"/>
+      <c r="AF2" s="175"/>
+      <c r="AG2" s="175"/>
+      <c r="AH2" s="175"/>
+      <c r="AI2" s="175"/>
+      <c r="AJ2" s="175"/>
+      <c r="AK2" s="175"/>
+      <c r="AL2" s="175"/>
+      <c r="AM2" s="175"/>
+      <c r="AN2" s="175"/>
+      <c r="AO2" s="175"/>
+      <c r="AP2" s="175"/>
+      <c r="AQ2" s="175"/>
+      <c r="AR2" s="175"/>
+      <c r="AS2" s="175"/>
+      <c r="AT2" s="175"/>
+      <c r="AU2" s="175"/>
+      <c r="AV2" s="175"/>
+      <c r="AW2" s="175"/>
     </row>
     <row r="3" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="60"/>
-      <c r="B3" s="136" t="s">
+      <c r="B3" s="176" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="136"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="136" t="s">
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="136"/>
-      <c r="G3" s="136"/>
-      <c r="H3" s="136"/>
-      <c r="I3" s="136"/>
-      <c r="J3" s="137" t="s">
+      <c r="F3" s="176"/>
+      <c r="G3" s="176"/>
+      <c r="H3" s="176"/>
+      <c r="I3" s="176"/>
+      <c r="J3" s="177" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="138"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="137" t="s">
+      <c r="K3" s="178"/>
+      <c r="L3" s="179"/>
+      <c r="M3" s="177" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="138"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="138"/>
-      <c r="Q3" s="138"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="136" t="s">
+      <c r="N3" s="178"/>
+      <c r="O3" s="178"/>
+      <c r="P3" s="178"/>
+      <c r="Q3" s="178"/>
+      <c r="R3" s="179"/>
+      <c r="S3" s="176" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136" t="s">
+      <c r="T3" s="176"/>
+      <c r="U3" s="176"/>
+      <c r="V3" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="136"/>
-      <c r="AA3" s="136"/>
-      <c r="AB3" s="136"/>
-      <c r="AC3" s="136"/>
-      <c r="AD3" s="136"/>
-      <c r="AE3" s="136"/>
-      <c r="AF3" s="136"/>
-      <c r="AG3" s="136"/>
-      <c r="AH3" s="136"/>
-      <c r="AI3" s="136"/>
-      <c r="AJ3" s="136"/>
-      <c r="AK3" s="136"/>
-      <c r="AL3" s="136"/>
-      <c r="AM3" s="136"/>
-      <c r="AN3" s="136" t="s">
+      <c r="W3" s="176"/>
+      <c r="X3" s="176"/>
+      <c r="Y3" s="176"/>
+      <c r="Z3" s="176"/>
+      <c r="AA3" s="176"/>
+      <c r="AB3" s="176"/>
+      <c r="AC3" s="176"/>
+      <c r="AD3" s="176"/>
+      <c r="AE3" s="176"/>
+      <c r="AF3" s="176"/>
+      <c r="AG3" s="176"/>
+      <c r="AH3" s="176"/>
+      <c r="AI3" s="176"/>
+      <c r="AJ3" s="176"/>
+      <c r="AK3" s="176"/>
+      <c r="AL3" s="176"/>
+      <c r="AM3" s="176"/>
+      <c r="AN3" s="176" t="s">
         <v>13</v>
       </c>
-      <c r="AO3" s="136"/>
-      <c r="AP3" s="136"/>
-      <c r="AQ3" s="136"/>
-      <c r="AR3" s="136"/>
-      <c r="AS3" s="136" t="s">
+      <c r="AO3" s="176"/>
+      <c r="AP3" s="176"/>
+      <c r="AQ3" s="176"/>
+      <c r="AR3" s="176"/>
+      <c r="AS3" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="AT3" s="136"/>
-      <c r="AU3" s="136"/>
-      <c r="AV3" s="136"/>
-      <c r="AW3" s="136"/>
+      <c r="AT3" s="176"/>
+      <c r="AU3" s="176"/>
+      <c r="AV3" s="176"/>
+      <c r="AW3" s="176"/>
     </row>
     <row r="4" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="136"/>
-      <c r="C4" s="136"/>
-      <c r="D4" s="136"/>
-      <c r="E4" s="136"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="141"/>
-      <c r="L4" s="142"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="141"/>
-      <c r="O4" s="141"/>
-      <c r="P4" s="141"/>
-      <c r="Q4" s="141"/>
-      <c r="R4" s="142"/>
-      <c r="S4" s="136"/>
-      <c r="T4" s="136"/>
-      <c r="U4" s="136"/>
-      <c r="V4" s="136"/>
-      <c r="W4" s="136"/>
-      <c r="X4" s="136"/>
-      <c r="Y4" s="136"/>
-      <c r="Z4" s="136"/>
-      <c r="AA4" s="136"/>
-      <c r="AB4" s="136"/>
-      <c r="AC4" s="136"/>
-      <c r="AD4" s="136"/>
-      <c r="AE4" s="136"/>
-      <c r="AF4" s="136"/>
-      <c r="AG4" s="136"/>
-      <c r="AH4" s="136"/>
-      <c r="AI4" s="136"/>
-      <c r="AJ4" s="136"/>
-      <c r="AK4" s="136"/>
-      <c r="AL4" s="136"/>
-      <c r="AM4" s="136"/>
-      <c r="AN4" s="136"/>
-      <c r="AO4" s="136"/>
-      <c r="AP4" s="136"/>
-      <c r="AQ4" s="136"/>
-      <c r="AR4" s="136"/>
-      <c r="AS4" s="136"/>
-      <c r="AT4" s="136"/>
-      <c r="AU4" s="136"/>
-      <c r="AV4" s="136"/>
-      <c r="AW4" s="136"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="176"/>
+      <c r="E4" s="176"/>
+      <c r="F4" s="176"/>
+      <c r="G4" s="176"/>
+      <c r="H4" s="176"/>
+      <c r="I4" s="176"/>
+      <c r="J4" s="180"/>
+      <c r="K4" s="181"/>
+      <c r="L4" s="182"/>
+      <c r="M4" s="180"/>
+      <c r="N4" s="181"/>
+      <c r="O4" s="181"/>
+      <c r="P4" s="181"/>
+      <c r="Q4" s="181"/>
+      <c r="R4" s="182"/>
+      <c r="S4" s="176"/>
+      <c r="T4" s="176"/>
+      <c r="U4" s="176"/>
+      <c r="V4" s="176"/>
+      <c r="W4" s="176"/>
+      <c r="X4" s="176"/>
+      <c r="Y4" s="176"/>
+      <c r="Z4" s="176"/>
+      <c r="AA4" s="176"/>
+      <c r="AB4" s="176"/>
+      <c r="AC4" s="176"/>
+      <c r="AD4" s="176"/>
+      <c r="AE4" s="176"/>
+      <c r="AF4" s="176"/>
+      <c r="AG4" s="176"/>
+      <c r="AH4" s="176"/>
+      <c r="AI4" s="176"/>
+      <c r="AJ4" s="176"/>
+      <c r="AK4" s="176"/>
+      <c r="AL4" s="176"/>
+      <c r="AM4" s="176"/>
+      <c r="AN4" s="176"/>
+      <c r="AO4" s="176"/>
+      <c r="AP4" s="176"/>
+      <c r="AQ4" s="176"/>
+      <c r="AR4" s="176"/>
+      <c r="AS4" s="176"/>
+      <c r="AT4" s="176"/>
+      <c r="AU4" s="176"/>
+      <c r="AV4" s="176"/>
+      <c r="AW4" s="176"/>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A5" s="62"/>
-      <c r="B5" s="144">
+      <c r="B5" s="168">
         <v>1</v>
       </c>
-      <c r="C5" s="144"/>
-      <c r="D5" s="144"/>
-      <c r="E5" s="145">
+      <c r="C5" s="168"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="149">
         <v>43707</v>
       </c>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="145"/>
-      <c r="I5" s="145"/>
-      <c r="J5" s="146" t="s">
+      <c r="F5" s="149"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="149"/>
+      <c r="I5" s="149"/>
+      <c r="J5" s="150" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="147"/>
-      <c r="L5" s="148"/>
-      <c r="M5" s="146" t="s">
+      <c r="K5" s="151"/>
+      <c r="L5" s="152"/>
+      <c r="M5" s="150" t="s">
         <v>16</v>
       </c>
-      <c r="N5" s="147"/>
-      <c r="O5" s="147"/>
-      <c r="P5" s="147"/>
-      <c r="Q5" s="147"/>
-      <c r="R5" s="148"/>
-      <c r="S5" s="143" t="s">
+      <c r="N5" s="151"/>
+      <c r="O5" s="151"/>
+      <c r="P5" s="151"/>
+      <c r="Q5" s="151"/>
+      <c r="R5" s="152"/>
+      <c r="S5" s="156" t="s">
         <v>17</v>
       </c>
-      <c r="T5" s="143"/>
-      <c r="U5" s="143"/>
-      <c r="V5" s="152" t="s">
+      <c r="T5" s="156"/>
+      <c r="U5" s="156"/>
+      <c r="V5" s="167" t="s">
         <v>18</v>
       </c>
-      <c r="W5" s="152"/>
-      <c r="X5" s="152"/>
-      <c r="Y5" s="152"/>
-      <c r="Z5" s="152"/>
-      <c r="AA5" s="152"/>
-      <c r="AB5" s="152"/>
-      <c r="AC5" s="152"/>
-      <c r="AD5" s="152"/>
-      <c r="AE5" s="152"/>
-      <c r="AF5" s="152"/>
-      <c r="AG5" s="152"/>
-      <c r="AH5" s="152"/>
-      <c r="AI5" s="152"/>
-      <c r="AJ5" s="152"/>
-      <c r="AK5" s="152"/>
-      <c r="AL5" s="152"/>
-      <c r="AM5" s="152"/>
-      <c r="AN5" s="143" t="s">
+      <c r="W5" s="167"/>
+      <c r="X5" s="167"/>
+      <c r="Y5" s="167"/>
+      <c r="Z5" s="167"/>
+      <c r="AA5" s="167"/>
+      <c r="AB5" s="167"/>
+      <c r="AC5" s="167"/>
+      <c r="AD5" s="167"/>
+      <c r="AE5" s="167"/>
+      <c r="AF5" s="167"/>
+      <c r="AG5" s="167"/>
+      <c r="AH5" s="167"/>
+      <c r="AI5" s="167"/>
+      <c r="AJ5" s="167"/>
+      <c r="AK5" s="167"/>
+      <c r="AL5" s="167"/>
+      <c r="AM5" s="167"/>
+      <c r="AN5" s="156" t="s">
         <v>149</v>
       </c>
-      <c r="AO5" s="143"/>
-      <c r="AP5" s="143"/>
-      <c r="AQ5" s="143"/>
-      <c r="AR5" s="143"/>
-      <c r="AS5" s="143"/>
-      <c r="AT5" s="143"/>
-      <c r="AU5" s="143"/>
-      <c r="AV5" s="143"/>
-      <c r="AW5" s="143"/>
+      <c r="AO5" s="156"/>
+      <c r="AP5" s="156"/>
+      <c r="AQ5" s="156"/>
+      <c r="AR5" s="156"/>
+      <c r="AS5" s="156"/>
+      <c r="AT5" s="156"/>
+      <c r="AU5" s="156"/>
+      <c r="AV5" s="156"/>
+      <c r="AW5" s="156"/>
     </row>
     <row r="6" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A6" s="62"/>
-      <c r="B6" s="144"/>
-      <c r="C6" s="144"/>
-      <c r="D6" s="144"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="147"/>
-      <c r="L6" s="148"/>
-      <c r="M6" s="149"/>
-      <c r="N6" s="150"/>
-      <c r="O6" s="150"/>
-      <c r="P6" s="150"/>
-      <c r="Q6" s="150"/>
-      <c r="R6" s="151"/>
-      <c r="S6" s="143"/>
-      <c r="T6" s="143"/>
-      <c r="U6" s="143"/>
-      <c r="V6" s="152"/>
-      <c r="W6" s="152"/>
-      <c r="X6" s="152"/>
-      <c r="Y6" s="152"/>
-      <c r="Z6" s="152"/>
-      <c r="AA6" s="152"/>
-      <c r="AB6" s="152"/>
-      <c r="AC6" s="152"/>
-      <c r="AD6" s="152"/>
-      <c r="AE6" s="152"/>
-      <c r="AF6" s="152"/>
-      <c r="AG6" s="152"/>
-      <c r="AH6" s="152"/>
-      <c r="AI6" s="152"/>
-      <c r="AJ6" s="152"/>
-      <c r="AK6" s="152"/>
-      <c r="AL6" s="152"/>
-      <c r="AM6" s="152"/>
-      <c r="AN6" s="143"/>
-      <c r="AO6" s="143"/>
-      <c r="AP6" s="143"/>
-      <c r="AQ6" s="143"/>
-      <c r="AR6" s="143"/>
-      <c r="AS6" s="143"/>
-      <c r="AT6" s="143"/>
-      <c r="AU6" s="143"/>
-      <c r="AV6" s="143"/>
-      <c r="AW6" s="143"/>
+      <c r="B6" s="168"/>
+      <c r="C6" s="168"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="149"/>
+      <c r="F6" s="149"/>
+      <c r="G6" s="149"/>
+      <c r="H6" s="149"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="150"/>
+      <c r="K6" s="151"/>
+      <c r="L6" s="152"/>
+      <c r="M6" s="171"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="172"/>
+      <c r="P6" s="172"/>
+      <c r="Q6" s="172"/>
+      <c r="R6" s="173"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="167"/>
+      <c r="AE6" s="167"/>
+      <c r="AF6" s="167"/>
+      <c r="AG6" s="167"/>
+      <c r="AH6" s="167"/>
+      <c r="AI6" s="167"/>
+      <c r="AJ6" s="167"/>
+      <c r="AK6" s="167"/>
+      <c r="AL6" s="167"/>
+      <c r="AM6" s="167"/>
+      <c r="AN6" s="156"/>
+      <c r="AO6" s="156"/>
+      <c r="AP6" s="156"/>
+      <c r="AQ6" s="156"/>
+      <c r="AR6" s="156"/>
+      <c r="AS6" s="156"/>
+      <c r="AT6" s="156"/>
+      <c r="AU6" s="156"/>
+      <c r="AV6" s="156"/>
+      <c r="AW6" s="156"/>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A7" s="62"/>
-      <c r="B7" s="144"/>
-      <c r="C7" s="144"/>
-      <c r="D7" s="144"/>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="147"/>
-      <c r="L7" s="148"/>
-      <c r="M7" s="149"/>
-      <c r="N7" s="150"/>
-      <c r="O7" s="150"/>
-      <c r="P7" s="150"/>
-      <c r="Q7" s="150"/>
-      <c r="R7" s="151"/>
-      <c r="S7" s="143"/>
-      <c r="T7" s="143"/>
-      <c r="U7" s="143"/>
-      <c r="V7" s="152"/>
-      <c r="W7" s="152"/>
-      <c r="X7" s="152"/>
-      <c r="Y7" s="152"/>
-      <c r="Z7" s="152"/>
-      <c r="AA7" s="152"/>
-      <c r="AB7" s="152"/>
-      <c r="AC7" s="152"/>
-      <c r="AD7" s="152"/>
-      <c r="AE7" s="152"/>
-      <c r="AF7" s="152"/>
-      <c r="AG7" s="152"/>
-      <c r="AH7" s="152"/>
-      <c r="AI7" s="152"/>
-      <c r="AJ7" s="152"/>
-      <c r="AK7" s="152"/>
-      <c r="AL7" s="152"/>
-      <c r="AM7" s="152"/>
-      <c r="AN7" s="143"/>
-      <c r="AO7" s="143"/>
-      <c r="AP7" s="143"/>
-      <c r="AQ7" s="143"/>
-      <c r="AR7" s="143"/>
-      <c r="AS7" s="143"/>
-      <c r="AT7" s="143"/>
-      <c r="AU7" s="143"/>
-      <c r="AV7" s="143"/>
-      <c r="AW7" s="143"/>
+      <c r="B7" s="168"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="149"/>
+      <c r="F7" s="149"/>
+      <c r="G7" s="149"/>
+      <c r="H7" s="149"/>
+      <c r="I7" s="149"/>
+      <c r="J7" s="150"/>
+      <c r="K7" s="151"/>
+      <c r="L7" s="152"/>
+      <c r="M7" s="171"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="156"/>
+      <c r="T7" s="156"/>
+      <c r="U7" s="156"/>
+      <c r="V7" s="167"/>
+      <c r="W7" s="167"/>
+      <c r="X7" s="167"/>
+      <c r="Y7" s="167"/>
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="167"/>
+      <c r="AB7" s="167"/>
+      <c r="AC7" s="167"/>
+      <c r="AD7" s="167"/>
+      <c r="AE7" s="167"/>
+      <c r="AF7" s="167"/>
+      <c r="AG7" s="167"/>
+      <c r="AH7" s="167"/>
+      <c r="AI7" s="167"/>
+      <c r="AJ7" s="167"/>
+      <c r="AK7" s="167"/>
+      <c r="AL7" s="167"/>
+      <c r="AM7" s="167"/>
+      <c r="AN7" s="156"/>
+      <c r="AO7" s="156"/>
+      <c r="AP7" s="156"/>
+      <c r="AQ7" s="156"/>
+      <c r="AR7" s="156"/>
+      <c r="AS7" s="156"/>
+      <c r="AT7" s="156"/>
+      <c r="AU7" s="156"/>
+      <c r="AV7" s="156"/>
+      <c r="AW7" s="156"/>
     </row>
     <row r="8" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A8" s="62"/>
-      <c r="B8" s="144"/>
-      <c r="C8" s="144"/>
-      <c r="D8" s="144"/>
-      <c r="E8" s="145"/>
-      <c r="F8" s="145"/>
-      <c r="G8" s="145"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="147"/>
-      <c r="L8" s="148"/>
-      <c r="M8" s="149"/>
-      <c r="N8" s="150"/>
-      <c r="O8" s="150"/>
-      <c r="P8" s="150"/>
-      <c r="Q8" s="150"/>
-      <c r="R8" s="151"/>
-      <c r="S8" s="143"/>
-      <c r="T8" s="143"/>
-      <c r="U8" s="143"/>
-      <c r="V8" s="152"/>
-      <c r="W8" s="152"/>
-      <c r="X8" s="152"/>
-      <c r="Y8" s="152"/>
-      <c r="Z8" s="152"/>
-      <c r="AA8" s="152"/>
-      <c r="AB8" s="152"/>
-      <c r="AC8" s="152"/>
-      <c r="AD8" s="152"/>
-      <c r="AE8" s="152"/>
-      <c r="AF8" s="152"/>
-      <c r="AG8" s="152"/>
-      <c r="AH8" s="152"/>
-      <c r="AI8" s="152"/>
-      <c r="AJ8" s="152"/>
-      <c r="AK8" s="152"/>
-      <c r="AL8" s="152"/>
-      <c r="AM8" s="152"/>
-      <c r="AN8" s="143"/>
-      <c r="AO8" s="143"/>
-      <c r="AP8" s="143"/>
-      <c r="AQ8" s="143"/>
-      <c r="AR8" s="143"/>
-      <c r="AS8" s="143"/>
-      <c r="AT8" s="143"/>
-      <c r="AU8" s="143"/>
-      <c r="AV8" s="143"/>
-      <c r="AW8" s="143"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="168"/>
+      <c r="D8" s="168"/>
+      <c r="E8" s="149"/>
+      <c r="F8" s="149"/>
+      <c r="G8" s="149"/>
+      <c r="H8" s="149"/>
+      <c r="I8" s="149"/>
+      <c r="J8" s="150"/>
+      <c r="K8" s="151"/>
+      <c r="L8" s="152"/>
+      <c r="M8" s="171"/>
+      <c r="N8" s="172"/>
+      <c r="O8" s="172"/>
+      <c r="P8" s="172"/>
+      <c r="Q8" s="172"/>
+      <c r="R8" s="173"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="167"/>
+      <c r="W8" s="167"/>
+      <c r="X8" s="167"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="167"/>
+      <c r="AB8" s="167"/>
+      <c r="AC8" s="167"/>
+      <c r="AD8" s="167"/>
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="167"/>
+      <c r="AK8" s="167"/>
+      <c r="AL8" s="167"/>
+      <c r="AM8" s="167"/>
+      <c r="AN8" s="156"/>
+      <c r="AO8" s="156"/>
+      <c r="AP8" s="156"/>
+      <c r="AQ8" s="156"/>
+      <c r="AR8" s="156"/>
+      <c r="AS8" s="156"/>
+      <c r="AT8" s="156"/>
+      <c r="AU8" s="156"/>
+      <c r="AV8" s="156"/>
+      <c r="AW8" s="156"/>
     </row>
     <row r="9" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A9" s="62"/>
-      <c r="B9" s="144"/>
-      <c r="C9" s="144"/>
-      <c r="D9" s="144"/>
-      <c r="E9" s="145"/>
-      <c r="F9" s="145"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="147"/>
-      <c r="L9" s="148"/>
-      <c r="M9" s="149"/>
-      <c r="N9" s="150"/>
-      <c r="O9" s="150"/>
-      <c r="P9" s="150"/>
-      <c r="Q9" s="150"/>
-      <c r="R9" s="151"/>
-      <c r="S9" s="143"/>
-      <c r="T9" s="143"/>
-      <c r="U9" s="143"/>
-      <c r="V9" s="152"/>
-      <c r="W9" s="152"/>
-      <c r="X9" s="152"/>
-      <c r="Y9" s="152"/>
-      <c r="Z9" s="152"/>
-      <c r="AA9" s="152"/>
-      <c r="AB9" s="152"/>
-      <c r="AC9" s="152"/>
-      <c r="AD9" s="152"/>
-      <c r="AE9" s="152"/>
-      <c r="AF9" s="152"/>
-      <c r="AG9" s="152"/>
-      <c r="AH9" s="152"/>
-      <c r="AI9" s="152"/>
-      <c r="AJ9" s="152"/>
-      <c r="AK9" s="152"/>
-      <c r="AL9" s="152"/>
-      <c r="AM9" s="152"/>
-      <c r="AN9" s="143"/>
-      <c r="AO9" s="143"/>
-      <c r="AP9" s="143"/>
-      <c r="AQ9" s="143"/>
-      <c r="AR9" s="143"/>
-      <c r="AS9" s="143"/>
-      <c r="AT9" s="143"/>
-      <c r="AU9" s="143"/>
-      <c r="AV9" s="143"/>
-      <c r="AW9" s="143"/>
+      <c r="B9" s="168"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="168"/>
+      <c r="E9" s="149"/>
+      <c r="F9" s="149"/>
+      <c r="G9" s="149"/>
+      <c r="H9" s="149"/>
+      <c r="I9" s="149"/>
+      <c r="J9" s="150"/>
+      <c r="K9" s="151"/>
+      <c r="L9" s="152"/>
+      <c r="M9" s="171"/>
+      <c r="N9" s="172"/>
+      <c r="O9" s="172"/>
+      <c r="P9" s="172"/>
+      <c r="Q9" s="172"/>
+      <c r="R9" s="173"/>
+      <c r="S9" s="156"/>
+      <c r="T9" s="156"/>
+      <c r="U9" s="156"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="167"/>
+      <c r="X9" s="167"/>
+      <c r="Y9" s="167"/>
+      <c r="Z9" s="167"/>
+      <c r="AA9" s="167"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="167"/>
+      <c r="AD9" s="167"/>
+      <c r="AE9" s="167"/>
+      <c r="AF9" s="167"/>
+      <c r="AG9" s="167"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="167"/>
+      <c r="AJ9" s="167"/>
+      <c r="AK9" s="167"/>
+      <c r="AL9" s="167"/>
+      <c r="AM9" s="167"/>
+      <c r="AN9" s="156"/>
+      <c r="AO9" s="156"/>
+      <c r="AP9" s="156"/>
+      <c r="AQ9" s="156"/>
+      <c r="AR9" s="156"/>
+      <c r="AS9" s="156"/>
+      <c r="AT9" s="156"/>
+      <c r="AU9" s="156"/>
+      <c r="AV9" s="156"/>
+      <c r="AW9" s="156"/>
     </row>
     <row r="10" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A10" s="62"/>
-      <c r="B10" s="144"/>
-      <c r="C10" s="144"/>
-      <c r="D10" s="144"/>
-      <c r="E10" s="145"/>
-      <c r="F10" s="145"/>
-      <c r="G10" s="145"/>
-      <c r="H10" s="145"/>
-      <c r="I10" s="145"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="147"/>
-      <c r="L10" s="148"/>
-      <c r="M10" s="149"/>
-      <c r="N10" s="150"/>
-      <c r="O10" s="150"/>
-      <c r="P10" s="150"/>
-      <c r="Q10" s="150"/>
-      <c r="R10" s="151"/>
-      <c r="S10" s="143"/>
-      <c r="T10" s="143"/>
-      <c r="U10" s="143"/>
-      <c r="V10" s="152"/>
-      <c r="W10" s="152"/>
-      <c r="X10" s="152"/>
-      <c r="Y10" s="152"/>
-      <c r="Z10" s="152"/>
-      <c r="AA10" s="152"/>
-      <c r="AB10" s="152"/>
-      <c r="AC10" s="152"/>
-      <c r="AD10" s="152"/>
-      <c r="AE10" s="152"/>
-      <c r="AF10" s="152"/>
-      <c r="AG10" s="152"/>
-      <c r="AH10" s="152"/>
-      <c r="AI10" s="152"/>
-      <c r="AJ10" s="152"/>
-      <c r="AK10" s="152"/>
-      <c r="AL10" s="152"/>
-      <c r="AM10" s="152"/>
-      <c r="AN10" s="143"/>
-      <c r="AO10" s="143"/>
-      <c r="AP10" s="143"/>
-      <c r="AQ10" s="143"/>
-      <c r="AR10" s="143"/>
-      <c r="AS10" s="143"/>
-      <c r="AT10" s="143"/>
-      <c r="AU10" s="143"/>
-      <c r="AV10" s="143"/>
-      <c r="AW10" s="143"/>
+      <c r="B10" s="168"/>
+      <c r="C10" s="168"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+      <c r="I10" s="149"/>
+      <c r="J10" s="150"/>
+      <c r="K10" s="151"/>
+      <c r="L10" s="152"/>
+      <c r="M10" s="171"/>
+      <c r="N10" s="172"/>
+      <c r="O10" s="172"/>
+      <c r="P10" s="172"/>
+      <c r="Q10" s="172"/>
+      <c r="R10" s="173"/>
+      <c r="S10" s="156"/>
+      <c r="T10" s="156"/>
+      <c r="U10" s="156"/>
+      <c r="V10" s="167"/>
+      <c r="W10" s="167"/>
+      <c r="X10" s="167"/>
+      <c r="Y10" s="167"/>
+      <c r="Z10" s="167"/>
+      <c r="AA10" s="167"/>
+      <c r="AB10" s="167"/>
+      <c r="AC10" s="167"/>
+      <c r="AD10" s="167"/>
+      <c r="AE10" s="167"/>
+      <c r="AF10" s="167"/>
+      <c r="AG10" s="167"/>
+      <c r="AH10" s="167"/>
+      <c r="AI10" s="167"/>
+      <c r="AJ10" s="167"/>
+      <c r="AK10" s="167"/>
+      <c r="AL10" s="167"/>
+      <c r="AM10" s="167"/>
+      <c r="AN10" s="156"/>
+      <c r="AO10" s="156"/>
+      <c r="AP10" s="156"/>
+      <c r="AQ10" s="156"/>
+      <c r="AR10" s="156"/>
+      <c r="AS10" s="156"/>
+      <c r="AT10" s="156"/>
+      <c r="AU10" s="156"/>
+      <c r="AV10" s="156"/>
+      <c r="AW10" s="156"/>
     </row>
     <row r="11" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A11" s="62"/>
-      <c r="B11" s="144"/>
-      <c r="C11" s="144"/>
-      <c r="D11" s="144"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="146"/>
-      <c r="K11" s="147"/>
-      <c r="L11" s="148"/>
-      <c r="M11" s="156"/>
-      <c r="N11" s="157"/>
-      <c r="O11" s="157"/>
-      <c r="P11" s="157"/>
-      <c r="Q11" s="157"/>
-      <c r="R11" s="158"/>
-      <c r="S11" s="143"/>
-      <c r="T11" s="143"/>
-      <c r="U11" s="143"/>
-      <c r="V11" s="159"/>
-      <c r="W11" s="165"/>
-      <c r="X11" s="165"/>
-      <c r="Y11" s="165"/>
-      <c r="Z11" s="165"/>
-      <c r="AA11" s="165"/>
-      <c r="AB11" s="165"/>
-      <c r="AC11" s="165"/>
-      <c r="AD11" s="165"/>
-      <c r="AE11" s="165"/>
-      <c r="AF11" s="165"/>
-      <c r="AG11" s="165"/>
-      <c r="AH11" s="165"/>
-      <c r="AI11" s="165"/>
-      <c r="AJ11" s="165"/>
-      <c r="AK11" s="165"/>
-      <c r="AL11" s="165"/>
-      <c r="AM11" s="166"/>
-      <c r="AN11" s="143"/>
-      <c r="AO11" s="143"/>
-      <c r="AP11" s="143"/>
-      <c r="AQ11" s="143"/>
-      <c r="AR11" s="143"/>
-      <c r="AS11" s="143"/>
-      <c r="AT11" s="143"/>
-      <c r="AU11" s="143"/>
-      <c r="AV11" s="143"/>
-      <c r="AW11" s="143"/>
+      <c r="B11" s="168"/>
+      <c r="C11" s="168"/>
+      <c r="D11" s="168"/>
+      <c r="E11" s="149"/>
+      <c r="F11" s="149"/>
+      <c r="G11" s="149"/>
+      <c r="H11" s="149"/>
+      <c r="I11" s="149"/>
+      <c r="J11" s="150"/>
+      <c r="K11" s="151"/>
+      <c r="L11" s="152"/>
+      <c r="M11" s="163"/>
+      <c r="N11" s="161"/>
+      <c r="O11" s="161"/>
+      <c r="P11" s="161"/>
+      <c r="Q11" s="161"/>
+      <c r="R11" s="162"/>
+      <c r="S11" s="156"/>
+      <c r="T11" s="156"/>
+      <c r="U11" s="156"/>
+      <c r="V11" s="157"/>
+      <c r="W11" s="169"/>
+      <c r="X11" s="169"/>
+      <c r="Y11" s="169"/>
+      <c r="Z11" s="169"/>
+      <c r="AA11" s="169"/>
+      <c r="AB11" s="169"/>
+      <c r="AC11" s="169"/>
+      <c r="AD11" s="169"/>
+      <c r="AE11" s="169"/>
+      <c r="AF11" s="169"/>
+      <c r="AG11" s="169"/>
+      <c r="AH11" s="169"/>
+      <c r="AI11" s="169"/>
+      <c r="AJ11" s="169"/>
+      <c r="AK11" s="169"/>
+      <c r="AL11" s="169"/>
+      <c r="AM11" s="170"/>
+      <c r="AN11" s="156"/>
+      <c r="AO11" s="156"/>
+      <c r="AP11" s="156"/>
+      <c r="AQ11" s="156"/>
+      <c r="AR11" s="156"/>
+      <c r="AS11" s="156"/>
+      <c r="AT11" s="156"/>
+      <c r="AU11" s="156"/>
+      <c r="AV11" s="156"/>
+      <c r="AW11" s="156"/>
     </row>
     <row r="12" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A12" s="62"/>
-      <c r="B12" s="153"/>
-      <c r="C12" s="154"/>
-      <c r="D12" s="155"/>
-      <c r="E12" s="145"/>
-      <c r="F12" s="145"/>
-      <c r="G12" s="145"/>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
-      <c r="K12" s="147"/>
-      <c r="L12" s="148"/>
-      <c r="M12" s="156"/>
-      <c r="N12" s="157"/>
-      <c r="O12" s="157"/>
-      <c r="P12" s="157"/>
-      <c r="Q12" s="157"/>
-      <c r="R12" s="158"/>
-      <c r="S12" s="143"/>
-      <c r="T12" s="143"/>
-      <c r="U12" s="143"/>
-      <c r="V12" s="159"/>
-      <c r="W12" s="160"/>
-      <c r="X12" s="160"/>
-      <c r="Y12" s="160"/>
-      <c r="Z12" s="160"/>
-      <c r="AA12" s="160"/>
-      <c r="AB12" s="160"/>
-      <c r="AC12" s="160"/>
-      <c r="AD12" s="160"/>
-      <c r="AE12" s="160"/>
-      <c r="AF12" s="160"/>
-      <c r="AG12" s="160"/>
-      <c r="AH12" s="160"/>
-      <c r="AI12" s="160"/>
-      <c r="AJ12" s="160"/>
-      <c r="AK12" s="160"/>
-      <c r="AL12" s="160"/>
-      <c r="AM12" s="161"/>
-      <c r="AN12" s="162"/>
-      <c r="AO12" s="163"/>
-      <c r="AP12" s="163"/>
-      <c r="AQ12" s="163"/>
-      <c r="AR12" s="164"/>
-      <c r="AS12" s="162"/>
-      <c r="AT12" s="163"/>
-      <c r="AU12" s="163"/>
-      <c r="AV12" s="163"/>
-      <c r="AW12" s="164"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
+      <c r="F12" s="149"/>
+      <c r="G12" s="149"/>
+      <c r="H12" s="149"/>
+      <c r="I12" s="149"/>
+      <c r="J12" s="150"/>
+      <c r="K12" s="151"/>
+      <c r="L12" s="152"/>
+      <c r="M12" s="163"/>
+      <c r="N12" s="161"/>
+      <c r="O12" s="161"/>
+      <c r="P12" s="161"/>
+      <c r="Q12" s="161"/>
+      <c r="R12" s="162"/>
+      <c r="S12" s="156"/>
+      <c r="T12" s="156"/>
+      <c r="U12" s="156"/>
+      <c r="V12" s="157"/>
+      <c r="W12" s="158"/>
+      <c r="X12" s="158"/>
+      <c r="Y12" s="158"/>
+      <c r="Z12" s="158"/>
+      <c r="AA12" s="158"/>
+      <c r="AB12" s="158"/>
+      <c r="AC12" s="158"/>
+      <c r="AD12" s="158"/>
+      <c r="AE12" s="158"/>
+      <c r="AF12" s="158"/>
+      <c r="AG12" s="158"/>
+      <c r="AH12" s="158"/>
+      <c r="AI12" s="158"/>
+      <c r="AJ12" s="158"/>
+      <c r="AK12" s="158"/>
+      <c r="AL12" s="158"/>
+      <c r="AM12" s="159"/>
+      <c r="AN12" s="143"/>
+      <c r="AO12" s="144"/>
+      <c r="AP12" s="144"/>
+      <c r="AQ12" s="144"/>
+      <c r="AR12" s="145"/>
+      <c r="AS12" s="143"/>
+      <c r="AT12" s="144"/>
+      <c r="AU12" s="144"/>
+      <c r="AV12" s="144"/>
+      <c r="AW12" s="145"/>
     </row>
     <row r="13" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A13" s="62"/>
-      <c r="B13" s="153"/>
-      <c r="C13" s="154"/>
-      <c r="D13" s="155"/>
-      <c r="E13" s="145"/>
-      <c r="F13" s="145"/>
-      <c r="G13" s="145"/>
-      <c r="H13" s="145"/>
-      <c r="I13" s="145"/>
-      <c r="J13" s="146"/>
-      <c r="K13" s="147"/>
-      <c r="L13" s="148"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="157"/>
-      <c r="O13" s="157"/>
-      <c r="P13" s="157"/>
-      <c r="Q13" s="157"/>
-      <c r="R13" s="158"/>
-      <c r="S13" s="143"/>
-      <c r="T13" s="143"/>
-      <c r="U13" s="143"/>
-      <c r="V13" s="159"/>
-      <c r="W13" s="160"/>
-      <c r="X13" s="160"/>
-      <c r="Y13" s="160"/>
-      <c r="Z13" s="160"/>
-      <c r="AA13" s="160"/>
-      <c r="AB13" s="160"/>
-      <c r="AC13" s="160"/>
-      <c r="AD13" s="160"/>
-      <c r="AE13" s="160"/>
-      <c r="AF13" s="160"/>
-      <c r="AG13" s="160"/>
-      <c r="AH13" s="160"/>
-      <c r="AI13" s="160"/>
-      <c r="AJ13" s="160"/>
-      <c r="AK13" s="160"/>
-      <c r="AL13" s="160"/>
-      <c r="AM13" s="161"/>
-      <c r="AN13" s="162"/>
-      <c r="AO13" s="163"/>
-      <c r="AP13" s="163"/>
-      <c r="AQ13" s="163"/>
-      <c r="AR13" s="164"/>
-      <c r="AS13" s="162"/>
-      <c r="AT13" s="163"/>
-      <c r="AU13" s="163"/>
-      <c r="AV13" s="163"/>
-      <c r="AW13" s="164"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="147"/>
+      <c r="D13" s="148"/>
+      <c r="E13" s="149"/>
+      <c r="F13" s="149"/>
+      <c r="G13" s="149"/>
+      <c r="H13" s="149"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
+      <c r="K13" s="151"/>
+      <c r="L13" s="152"/>
+      <c r="M13" s="160"/>
+      <c r="N13" s="161"/>
+      <c r="O13" s="161"/>
+      <c r="P13" s="161"/>
+      <c r="Q13" s="161"/>
+      <c r="R13" s="162"/>
+      <c r="S13" s="156"/>
+      <c r="T13" s="156"/>
+      <c r="U13" s="156"/>
+      <c r="V13" s="157"/>
+      <c r="W13" s="158"/>
+      <c r="X13" s="158"/>
+      <c r="Y13" s="158"/>
+      <c r="Z13" s="158"/>
+      <c r="AA13" s="158"/>
+      <c r="AB13" s="158"/>
+      <c r="AC13" s="158"/>
+      <c r="AD13" s="158"/>
+      <c r="AE13" s="158"/>
+      <c r="AF13" s="158"/>
+      <c r="AG13" s="158"/>
+      <c r="AH13" s="158"/>
+      <c r="AI13" s="158"/>
+      <c r="AJ13" s="158"/>
+      <c r="AK13" s="158"/>
+      <c r="AL13" s="158"/>
+      <c r="AM13" s="159"/>
+      <c r="AN13" s="143"/>
+      <c r="AO13" s="144"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="144"/>
+      <c r="AR13" s="145"/>
+      <c r="AS13" s="143"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="144"/>
+      <c r="AV13" s="144"/>
+      <c r="AW13" s="145"/>
     </row>
     <row r="14" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A14" s="62"/>
-      <c r="B14" s="153"/>
-      <c r="C14" s="154"/>
-      <c r="D14" s="155"/>
-      <c r="E14" s="145"/>
-      <c r="F14" s="145"/>
-      <c r="G14" s="145"/>
-      <c r="H14" s="145"/>
-      <c r="I14" s="145"/>
-      <c r="J14" s="146"/>
-      <c r="K14" s="147"/>
-      <c r="L14" s="148"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="157"/>
-      <c r="O14" s="157"/>
-      <c r="P14" s="157"/>
-      <c r="Q14" s="157"/>
-      <c r="R14" s="158"/>
-      <c r="S14" s="143"/>
-      <c r="T14" s="143"/>
-      <c r="U14" s="143"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="152"/>
-      <c r="X14" s="152"/>
-      <c r="Y14" s="152"/>
-      <c r="Z14" s="152"/>
-      <c r="AA14" s="152"/>
-      <c r="AB14" s="152"/>
-      <c r="AC14" s="152"/>
-      <c r="AD14" s="152"/>
-      <c r="AE14" s="152"/>
-      <c r="AF14" s="152"/>
-      <c r="AG14" s="152"/>
-      <c r="AH14" s="152"/>
-      <c r="AI14" s="152"/>
-      <c r="AJ14" s="152"/>
-      <c r="AK14" s="152"/>
-      <c r="AL14" s="152"/>
-      <c r="AM14" s="152"/>
-      <c r="AN14" s="143"/>
-      <c r="AO14" s="143"/>
-      <c r="AP14" s="143"/>
-      <c r="AQ14" s="143"/>
-      <c r="AR14" s="143"/>
-      <c r="AS14" s="162"/>
-      <c r="AT14" s="163"/>
-      <c r="AU14" s="163"/>
-      <c r="AV14" s="163"/>
-      <c r="AW14" s="164"/>
+      <c r="B14" s="146"/>
+      <c r="C14" s="147"/>
+      <c r="D14" s="148"/>
+      <c r="E14" s="149"/>
+      <c r="F14" s="149"/>
+      <c r="G14" s="149"/>
+      <c r="H14" s="149"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
+      <c r="K14" s="151"/>
+      <c r="L14" s="152"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="161"/>
+      <c r="O14" s="161"/>
+      <c r="P14" s="161"/>
+      <c r="Q14" s="161"/>
+      <c r="R14" s="162"/>
+      <c r="S14" s="156"/>
+      <c r="T14" s="156"/>
+      <c r="U14" s="156"/>
+      <c r="V14" s="166"/>
+      <c r="W14" s="167"/>
+      <c r="X14" s="167"/>
+      <c r="Y14" s="167"/>
+      <c r="Z14" s="167"/>
+      <c r="AA14" s="167"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="167"/>
+      <c r="AD14" s="167"/>
+      <c r="AE14" s="167"/>
+      <c r="AF14" s="167"/>
+      <c r="AG14" s="167"/>
+      <c r="AH14" s="167"/>
+      <c r="AI14" s="167"/>
+      <c r="AJ14" s="167"/>
+      <c r="AK14" s="167"/>
+      <c r="AL14" s="167"/>
+      <c r="AM14" s="167"/>
+      <c r="AN14" s="156"/>
+      <c r="AO14" s="156"/>
+      <c r="AP14" s="156"/>
+      <c r="AQ14" s="156"/>
+      <c r="AR14" s="156"/>
+      <c r="AS14" s="143"/>
+      <c r="AT14" s="144"/>
+      <c r="AU14" s="144"/>
+      <c r="AV14" s="144"/>
+      <c r="AW14" s="145"/>
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A15" s="62"/>
-      <c r="B15" s="153"/>
-      <c r="C15" s="154"/>
-      <c r="D15" s="155"/>
-      <c r="E15" s="145"/>
-      <c r="F15" s="145"/>
-      <c r="G15" s="145"/>
-      <c r="H15" s="145"/>
-      <c r="I15" s="145"/>
-      <c r="J15" s="146"/>
-      <c r="K15" s="147"/>
-      <c r="L15" s="148"/>
-      <c r="M15" s="156"/>
-      <c r="N15" s="157"/>
-      <c r="O15" s="157"/>
-      <c r="P15" s="157"/>
-      <c r="Q15" s="157"/>
-      <c r="R15" s="158"/>
-      <c r="S15" s="143"/>
-      <c r="T15" s="143"/>
-      <c r="U15" s="143"/>
-      <c r="V15" s="159"/>
-      <c r="W15" s="160"/>
-      <c r="X15" s="160"/>
-      <c r="Y15" s="160"/>
-      <c r="Z15" s="160"/>
-      <c r="AA15" s="160"/>
-      <c r="AB15" s="160"/>
-      <c r="AC15" s="160"/>
-      <c r="AD15" s="160"/>
-      <c r="AE15" s="160"/>
-      <c r="AF15" s="160"/>
-      <c r="AG15" s="160"/>
-      <c r="AH15" s="160"/>
-      <c r="AI15" s="160"/>
-      <c r="AJ15" s="160"/>
-      <c r="AK15" s="160"/>
-      <c r="AL15" s="160"/>
-      <c r="AM15" s="161"/>
-      <c r="AN15" s="162"/>
-      <c r="AO15" s="163"/>
-      <c r="AP15" s="163"/>
-      <c r="AQ15" s="163"/>
-      <c r="AR15" s="164"/>
-      <c r="AS15" s="162"/>
-      <c r="AT15" s="163"/>
-      <c r="AU15" s="163"/>
-      <c r="AV15" s="163"/>
-      <c r="AW15" s="164"/>
+      <c r="B15" s="146"/>
+      <c r="C15" s="147"/>
+      <c r="D15" s="148"/>
+      <c r="E15" s="149"/>
+      <c r="F15" s="149"/>
+      <c r="G15" s="149"/>
+      <c r="H15" s="149"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150"/>
+      <c r="K15" s="151"/>
+      <c r="L15" s="152"/>
+      <c r="M15" s="163"/>
+      <c r="N15" s="161"/>
+      <c r="O15" s="161"/>
+      <c r="P15" s="161"/>
+      <c r="Q15" s="161"/>
+      <c r="R15" s="162"/>
+      <c r="S15" s="156"/>
+      <c r="T15" s="156"/>
+      <c r="U15" s="156"/>
+      <c r="V15" s="157"/>
+      <c r="W15" s="158"/>
+      <c r="X15" s="158"/>
+      <c r="Y15" s="158"/>
+      <c r="Z15" s="158"/>
+      <c r="AA15" s="158"/>
+      <c r="AB15" s="158"/>
+      <c r="AC15" s="158"/>
+      <c r="AD15" s="158"/>
+      <c r="AE15" s="158"/>
+      <c r="AF15" s="158"/>
+      <c r="AG15" s="158"/>
+      <c r="AH15" s="158"/>
+      <c r="AI15" s="158"/>
+      <c r="AJ15" s="158"/>
+      <c r="AK15" s="158"/>
+      <c r="AL15" s="158"/>
+      <c r="AM15" s="159"/>
+      <c r="AN15" s="143"/>
+      <c r="AO15" s="144"/>
+      <c r="AP15" s="144"/>
+      <c r="AQ15" s="144"/>
+      <c r="AR15" s="145"/>
+      <c r="AS15" s="143"/>
+      <c r="AT15" s="144"/>
+      <c r="AU15" s="144"/>
+      <c r="AV15" s="144"/>
+      <c r="AW15" s="145"/>
     </row>
     <row r="16" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A16" s="62"/>
-      <c r="B16" s="153"/>
-      <c r="C16" s="154"/>
-      <c r="D16" s="155"/>
-      <c r="E16" s="145"/>
-      <c r="F16" s="145"/>
-      <c r="G16" s="145"/>
-      <c r="H16" s="145"/>
-      <c r="I16" s="145"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="147"/>
-      <c r="L16" s="148"/>
-      <c r="M16" s="156"/>
-      <c r="N16" s="157"/>
-      <c r="O16" s="157"/>
-      <c r="P16" s="157"/>
-      <c r="Q16" s="157"/>
-      <c r="R16" s="158"/>
-      <c r="S16" s="143"/>
-      <c r="T16" s="143"/>
-      <c r="U16" s="143"/>
-      <c r="V16" s="159"/>
-      <c r="W16" s="160"/>
-      <c r="X16" s="160"/>
-      <c r="Y16" s="160"/>
-      <c r="Z16" s="160"/>
-      <c r="AA16" s="160"/>
-      <c r="AB16" s="160"/>
-      <c r="AC16" s="160"/>
-      <c r="AD16" s="160"/>
-      <c r="AE16" s="160"/>
-      <c r="AF16" s="160"/>
-      <c r="AG16" s="160"/>
-      <c r="AH16" s="160"/>
-      <c r="AI16" s="160"/>
-      <c r="AJ16" s="160"/>
-      <c r="AK16" s="160"/>
-      <c r="AL16" s="160"/>
-      <c r="AM16" s="161"/>
-      <c r="AN16" s="162"/>
-      <c r="AO16" s="163"/>
-      <c r="AP16" s="163"/>
-      <c r="AQ16" s="163"/>
-      <c r="AR16" s="164"/>
-      <c r="AS16" s="162"/>
-      <c r="AT16" s="163"/>
-      <c r="AU16" s="163"/>
-      <c r="AV16" s="163"/>
-      <c r="AW16" s="164"/>
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="148"/>
+      <c r="E16" s="149"/>
+      <c r="F16" s="149"/>
+      <c r="G16" s="149"/>
+      <c r="H16" s="149"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
+      <c r="K16" s="151"/>
+      <c r="L16" s="152"/>
+      <c r="M16" s="163"/>
+      <c r="N16" s="161"/>
+      <c r="O16" s="161"/>
+      <c r="P16" s="161"/>
+      <c r="Q16" s="161"/>
+      <c r="R16" s="162"/>
+      <c r="S16" s="156"/>
+      <c r="T16" s="156"/>
+      <c r="U16" s="156"/>
+      <c r="V16" s="157"/>
+      <c r="W16" s="158"/>
+      <c r="X16" s="158"/>
+      <c r="Y16" s="158"/>
+      <c r="Z16" s="158"/>
+      <c r="AA16" s="158"/>
+      <c r="AB16" s="158"/>
+      <c r="AC16" s="158"/>
+      <c r="AD16" s="158"/>
+      <c r="AE16" s="158"/>
+      <c r="AF16" s="158"/>
+      <c r="AG16" s="158"/>
+      <c r="AH16" s="158"/>
+      <c r="AI16" s="158"/>
+      <c r="AJ16" s="158"/>
+      <c r="AK16" s="158"/>
+      <c r="AL16" s="158"/>
+      <c r="AM16" s="159"/>
+      <c r="AN16" s="143"/>
+      <c r="AO16" s="144"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="144"/>
+      <c r="AR16" s="145"/>
+      <c r="AS16" s="143"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="144"/>
+      <c r="AV16" s="144"/>
+      <c r="AW16" s="145"/>
     </row>
     <row r="17" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A17" s="62"/>
-      <c r="B17" s="153"/>
-      <c r="C17" s="154"/>
-      <c r="D17" s="155"/>
-      <c r="E17" s="145"/>
-      <c r="F17" s="145"/>
-      <c r="G17" s="145"/>
-      <c r="H17" s="145"/>
-      <c r="I17" s="145"/>
-      <c r="J17" s="146"/>
-      <c r="K17" s="147"/>
-      <c r="L17" s="148"/>
-      <c r="M17" s="156"/>
-      <c r="N17" s="157"/>
-      <c r="O17" s="157"/>
-      <c r="P17" s="157"/>
-      <c r="Q17" s="157"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="170"/>
-      <c r="U17" s="170"/>
-      <c r="V17" s="159"/>
-      <c r="W17" s="160"/>
-      <c r="X17" s="160"/>
-      <c r="Y17" s="160"/>
-      <c r="Z17" s="160"/>
-      <c r="AA17" s="160"/>
-      <c r="AB17" s="160"/>
-      <c r="AC17" s="160"/>
-      <c r="AD17" s="160"/>
-      <c r="AE17" s="160"/>
-      <c r="AF17" s="160"/>
-      <c r="AG17" s="160"/>
-      <c r="AH17" s="160"/>
-      <c r="AI17" s="160"/>
-      <c r="AJ17" s="160"/>
-      <c r="AK17" s="160"/>
-      <c r="AL17" s="160"/>
-      <c r="AM17" s="161"/>
-      <c r="AN17" s="162"/>
-      <c r="AO17" s="163"/>
-      <c r="AP17" s="163"/>
-      <c r="AQ17" s="163"/>
-      <c r="AR17" s="164"/>
-      <c r="AS17" s="162"/>
-      <c r="AT17" s="163"/>
-      <c r="AU17" s="163"/>
-      <c r="AV17" s="163"/>
-      <c r="AW17" s="164"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="148"/>
+      <c r="E17" s="149"/>
+      <c r="F17" s="149"/>
+      <c r="G17" s="149"/>
+      <c r="H17" s="149"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
+      <c r="K17" s="151"/>
+      <c r="L17" s="152"/>
+      <c r="M17" s="163"/>
+      <c r="N17" s="161"/>
+      <c r="O17" s="161"/>
+      <c r="P17" s="161"/>
+      <c r="Q17" s="161"/>
+      <c r="R17" s="164"/>
+      <c r="S17" s="165"/>
+      <c r="T17" s="165"/>
+      <c r="U17" s="165"/>
+      <c r="V17" s="157"/>
+      <c r="W17" s="158"/>
+      <c r="X17" s="158"/>
+      <c r="Y17" s="158"/>
+      <c r="Z17" s="158"/>
+      <c r="AA17" s="158"/>
+      <c r="AB17" s="158"/>
+      <c r="AC17" s="158"/>
+      <c r="AD17" s="158"/>
+      <c r="AE17" s="158"/>
+      <c r="AF17" s="158"/>
+      <c r="AG17" s="158"/>
+      <c r="AH17" s="158"/>
+      <c r="AI17" s="158"/>
+      <c r="AJ17" s="158"/>
+      <c r="AK17" s="158"/>
+      <c r="AL17" s="158"/>
+      <c r="AM17" s="159"/>
+      <c r="AN17" s="143"/>
+      <c r="AO17" s="144"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="144"/>
+      <c r="AR17" s="145"/>
+      <c r="AS17" s="143"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="144"/>
+      <c r="AV17" s="144"/>
+      <c r="AW17" s="145"/>
     </row>
     <row r="18" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A18" s="62"/>
-      <c r="B18" s="153"/>
-      <c r="C18" s="154"/>
-      <c r="D18" s="155"/>
-      <c r="E18" s="145"/>
-      <c r="F18" s="145"/>
-      <c r="G18" s="145"/>
-      <c r="H18" s="145"/>
-      <c r="I18" s="145"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="147"/>
-      <c r="L18" s="148"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="157"/>
-      <c r="O18" s="157"/>
-      <c r="P18" s="157"/>
-      <c r="Q18" s="157"/>
-      <c r="R18" s="158"/>
-      <c r="S18" s="143"/>
-      <c r="T18" s="143"/>
-      <c r="U18" s="143"/>
-      <c r="V18" s="159"/>
-      <c r="W18" s="160"/>
-      <c r="X18" s="160"/>
-      <c r="Y18" s="160"/>
-      <c r="Z18" s="160"/>
-      <c r="AA18" s="160"/>
-      <c r="AB18" s="160"/>
-      <c r="AC18" s="160"/>
-      <c r="AD18" s="160"/>
-      <c r="AE18" s="160"/>
-      <c r="AF18" s="160"/>
-      <c r="AG18" s="160"/>
-      <c r="AH18" s="160"/>
-      <c r="AI18" s="160"/>
-      <c r="AJ18" s="160"/>
-      <c r="AK18" s="160"/>
-      <c r="AL18" s="160"/>
-      <c r="AM18" s="161"/>
-      <c r="AN18" s="162"/>
-      <c r="AO18" s="163"/>
-      <c r="AP18" s="163"/>
-      <c r="AQ18" s="163"/>
-      <c r="AR18" s="164"/>
-      <c r="AS18" s="162"/>
-      <c r="AT18" s="163"/>
-      <c r="AU18" s="163"/>
-      <c r="AV18" s="163"/>
-      <c r="AW18" s="164"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="148"/>
+      <c r="E18" s="149"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="149"/>
+      <c r="H18" s="149"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
+      <c r="K18" s="151"/>
+      <c r="L18" s="152"/>
+      <c r="M18" s="160"/>
+      <c r="N18" s="161"/>
+      <c r="O18" s="161"/>
+      <c r="P18" s="161"/>
+      <c r="Q18" s="161"/>
+      <c r="R18" s="162"/>
+      <c r="S18" s="156"/>
+      <c r="T18" s="156"/>
+      <c r="U18" s="156"/>
+      <c r="V18" s="157"/>
+      <c r="W18" s="158"/>
+      <c r="X18" s="158"/>
+      <c r="Y18" s="158"/>
+      <c r="Z18" s="158"/>
+      <c r="AA18" s="158"/>
+      <c r="AB18" s="158"/>
+      <c r="AC18" s="158"/>
+      <c r="AD18" s="158"/>
+      <c r="AE18" s="158"/>
+      <c r="AF18" s="158"/>
+      <c r="AG18" s="158"/>
+      <c r="AH18" s="158"/>
+      <c r="AI18" s="158"/>
+      <c r="AJ18" s="158"/>
+      <c r="AK18" s="158"/>
+      <c r="AL18" s="158"/>
+      <c r="AM18" s="159"/>
+      <c r="AN18" s="143"/>
+      <c r="AO18" s="144"/>
+      <c r="AP18" s="144"/>
+      <c r="AQ18" s="144"/>
+      <c r="AR18" s="145"/>
+      <c r="AS18" s="143"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="144"/>
+      <c r="AV18" s="144"/>
+      <c r="AW18" s="145"/>
     </row>
     <row r="19" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A19" s="62"/>
-      <c r="B19" s="153"/>
-      <c r="C19" s="154"/>
-      <c r="D19" s="155"/>
-      <c r="E19" s="145"/>
-      <c r="F19" s="145"/>
-      <c r="G19" s="145"/>
-      <c r="H19" s="145"/>
-      <c r="I19" s="145"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="147"/>
-      <c r="L19" s="148"/>
-      <c r="M19" s="156"/>
-      <c r="N19" s="157"/>
-      <c r="O19" s="157"/>
-      <c r="P19" s="157"/>
-      <c r="Q19" s="157"/>
-      <c r="R19" s="158"/>
-      <c r="S19" s="143"/>
-      <c r="T19" s="143"/>
-      <c r="U19" s="143"/>
-      <c r="V19" s="159"/>
-      <c r="W19" s="160"/>
-      <c r="X19" s="160"/>
-      <c r="Y19" s="160"/>
-      <c r="Z19" s="160"/>
-      <c r="AA19" s="160"/>
-      <c r="AB19" s="160"/>
-      <c r="AC19" s="160"/>
-      <c r="AD19" s="160"/>
-      <c r="AE19" s="160"/>
-      <c r="AF19" s="160"/>
-      <c r="AG19" s="160"/>
-      <c r="AH19" s="160"/>
-      <c r="AI19" s="160"/>
-      <c r="AJ19" s="160"/>
-      <c r="AK19" s="160"/>
-      <c r="AL19" s="160"/>
-      <c r="AM19" s="161"/>
-      <c r="AN19" s="143"/>
-      <c r="AO19" s="143"/>
-      <c r="AP19" s="143"/>
-      <c r="AQ19" s="143"/>
-      <c r="AR19" s="143"/>
-      <c r="AS19" s="162"/>
-      <c r="AT19" s="163"/>
-      <c r="AU19" s="163"/>
-      <c r="AV19" s="163"/>
-      <c r="AW19" s="164"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="148"/>
+      <c r="E19" s="149"/>
+      <c r="F19" s="149"/>
+      <c r="G19" s="149"/>
+      <c r="H19" s="149"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
+      <c r="K19" s="151"/>
+      <c r="L19" s="152"/>
+      <c r="M19" s="163"/>
+      <c r="N19" s="161"/>
+      <c r="O19" s="161"/>
+      <c r="P19" s="161"/>
+      <c r="Q19" s="161"/>
+      <c r="R19" s="162"/>
+      <c r="S19" s="156"/>
+      <c r="T19" s="156"/>
+      <c r="U19" s="156"/>
+      <c r="V19" s="157"/>
+      <c r="W19" s="158"/>
+      <c r="X19" s="158"/>
+      <c r="Y19" s="158"/>
+      <c r="Z19" s="158"/>
+      <c r="AA19" s="158"/>
+      <c r="AB19" s="158"/>
+      <c r="AC19" s="158"/>
+      <c r="AD19" s="158"/>
+      <c r="AE19" s="158"/>
+      <c r="AF19" s="158"/>
+      <c r="AG19" s="158"/>
+      <c r="AH19" s="158"/>
+      <c r="AI19" s="158"/>
+      <c r="AJ19" s="158"/>
+      <c r="AK19" s="158"/>
+      <c r="AL19" s="158"/>
+      <c r="AM19" s="159"/>
+      <c r="AN19" s="156"/>
+      <c r="AO19" s="156"/>
+      <c r="AP19" s="156"/>
+      <c r="AQ19" s="156"/>
+      <c r="AR19" s="156"/>
+      <c r="AS19" s="143"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="144"/>
+      <c r="AV19" s="144"/>
+      <c r="AW19" s="145"/>
     </row>
     <row r="20" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A20" s="62"/>
-      <c r="B20" s="153"/>
-      <c r="C20" s="154"/>
-      <c r="D20" s="155"/>
-      <c r="E20" s="145"/>
-      <c r="F20" s="145"/>
-      <c r="G20" s="145"/>
-      <c r="H20" s="145"/>
-      <c r="I20" s="145"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="147"/>
-      <c r="L20" s="148"/>
-      <c r="M20" s="156"/>
-      <c r="N20" s="157"/>
-      <c r="O20" s="157"/>
-      <c r="P20" s="157"/>
-      <c r="Q20" s="157"/>
-      <c r="R20" s="158"/>
-      <c r="S20" s="162"/>
-      <c r="T20" s="163"/>
-      <c r="U20" s="164"/>
-      <c r="V20" s="159"/>
-      <c r="W20" s="160"/>
-      <c r="X20" s="160"/>
-      <c r="Y20" s="160"/>
-      <c r="Z20" s="160"/>
-      <c r="AA20" s="160"/>
-      <c r="AB20" s="160"/>
-      <c r="AC20" s="160"/>
-      <c r="AD20" s="160"/>
-      <c r="AE20" s="160"/>
-      <c r="AF20" s="160"/>
-      <c r="AG20" s="160"/>
-      <c r="AH20" s="160"/>
-      <c r="AI20" s="160"/>
-      <c r="AJ20" s="160"/>
-      <c r="AK20" s="160"/>
-      <c r="AL20" s="160"/>
-      <c r="AM20" s="161"/>
-      <c r="AN20" s="162"/>
-      <c r="AO20" s="163"/>
-      <c r="AP20" s="163"/>
-      <c r="AQ20" s="163"/>
-      <c r="AR20" s="164"/>
-      <c r="AS20" s="162"/>
-      <c r="AT20" s="163"/>
-      <c r="AU20" s="163"/>
-      <c r="AV20" s="163"/>
-      <c r="AW20" s="164"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="148"/>
+      <c r="E20" s="149"/>
+      <c r="F20" s="149"/>
+      <c r="G20" s="149"/>
+      <c r="H20" s="149"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
+      <c r="K20" s="151"/>
+      <c r="L20" s="152"/>
+      <c r="M20" s="163"/>
+      <c r="N20" s="161"/>
+      <c r="O20" s="161"/>
+      <c r="P20" s="161"/>
+      <c r="Q20" s="161"/>
+      <c r="R20" s="162"/>
+      <c r="S20" s="143"/>
+      <c r="T20" s="144"/>
+      <c r="U20" s="145"/>
+      <c r="V20" s="157"/>
+      <c r="W20" s="158"/>
+      <c r="X20" s="158"/>
+      <c r="Y20" s="158"/>
+      <c r="Z20" s="158"/>
+      <c r="AA20" s="158"/>
+      <c r="AB20" s="158"/>
+      <c r="AC20" s="158"/>
+      <c r="AD20" s="158"/>
+      <c r="AE20" s="158"/>
+      <c r="AF20" s="158"/>
+      <c r="AG20" s="158"/>
+      <c r="AH20" s="158"/>
+      <c r="AI20" s="158"/>
+      <c r="AJ20" s="158"/>
+      <c r="AK20" s="158"/>
+      <c r="AL20" s="158"/>
+      <c r="AM20" s="159"/>
+      <c r="AN20" s="143"/>
+      <c r="AO20" s="144"/>
+      <c r="AP20" s="144"/>
+      <c r="AQ20" s="144"/>
+      <c r="AR20" s="145"/>
+      <c r="AS20" s="143"/>
+      <c r="AT20" s="144"/>
+      <c r="AU20" s="144"/>
+      <c r="AV20" s="144"/>
+      <c r="AW20" s="145"/>
     </row>
     <row r="21" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A21" s="62"/>
-      <c r="B21" s="153"/>
-      <c r="C21" s="154"/>
-      <c r="D21" s="155"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="145"/>
-      <c r="H21" s="145"/>
-      <c r="I21" s="145"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="147"/>
-      <c r="L21" s="148"/>
-      <c r="M21" s="156"/>
-      <c r="N21" s="157"/>
-      <c r="O21" s="157"/>
-      <c r="P21" s="157"/>
-      <c r="Q21" s="157"/>
-      <c r="R21" s="158"/>
-      <c r="S21" s="143"/>
-      <c r="T21" s="143"/>
-      <c r="U21" s="143"/>
-      <c r="V21" s="159"/>
-      <c r="W21" s="160"/>
-      <c r="X21" s="160"/>
-      <c r="Y21" s="160"/>
-      <c r="Z21" s="160"/>
-      <c r="AA21" s="160"/>
-      <c r="AB21" s="160"/>
-      <c r="AC21" s="160"/>
-      <c r="AD21" s="160"/>
-      <c r="AE21" s="160"/>
-      <c r="AF21" s="160"/>
-      <c r="AG21" s="160"/>
-      <c r="AH21" s="160"/>
-      <c r="AI21" s="160"/>
-      <c r="AJ21" s="160"/>
-      <c r="AK21" s="160"/>
-      <c r="AL21" s="160"/>
-      <c r="AM21" s="161"/>
-      <c r="AN21" s="162"/>
-      <c r="AO21" s="163"/>
-      <c r="AP21" s="163"/>
-      <c r="AQ21" s="163"/>
-      <c r="AR21" s="164"/>
-      <c r="AS21" s="162"/>
-      <c r="AT21" s="163"/>
-      <c r="AU21" s="163"/>
-      <c r="AV21" s="163"/>
-      <c r="AW21" s="164"/>
+      <c r="B21" s="146"/>
+      <c r="C21" s="147"/>
+      <c r="D21" s="148"/>
+      <c r="E21" s="149"/>
+      <c r="F21" s="149"/>
+      <c r="G21" s="149"/>
+      <c r="H21" s="149"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
+      <c r="K21" s="151"/>
+      <c r="L21" s="152"/>
+      <c r="M21" s="163"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="161"/>
+      <c r="P21" s="161"/>
+      <c r="Q21" s="161"/>
+      <c r="R21" s="162"/>
+      <c r="S21" s="156"/>
+      <c r="T21" s="156"/>
+      <c r="U21" s="156"/>
+      <c r="V21" s="157"/>
+      <c r="W21" s="158"/>
+      <c r="X21" s="158"/>
+      <c r="Y21" s="158"/>
+      <c r="Z21" s="158"/>
+      <c r="AA21" s="158"/>
+      <c r="AB21" s="158"/>
+      <c r="AC21" s="158"/>
+      <c r="AD21" s="158"/>
+      <c r="AE21" s="158"/>
+      <c r="AF21" s="158"/>
+      <c r="AG21" s="158"/>
+      <c r="AH21" s="158"/>
+      <c r="AI21" s="158"/>
+      <c r="AJ21" s="158"/>
+      <c r="AK21" s="158"/>
+      <c r="AL21" s="158"/>
+      <c r="AM21" s="159"/>
+      <c r="AN21" s="143"/>
+      <c r="AO21" s="144"/>
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="144"/>
+      <c r="AR21" s="145"/>
+      <c r="AS21" s="143"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="144"/>
+      <c r="AV21" s="144"/>
+      <c r="AW21" s="145"/>
     </row>
     <row r="22" spans="1:49" x14ac:dyDescent="0.25">
       <c r="A22" s="62"/>
-      <c r="B22" s="153"/>
-      <c r="C22" s="154"/>
-      <c r="D22" s="155"/>
-      <c r="E22" s="145"/>
-      <c r="F22" s="145"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="145"/>
-      <c r="I22" s="145"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="147"/>
-      <c r="L22" s="148"/>
-      <c r="M22" s="156"/>
-      <c r="N22" s="157"/>
-      <c r="O22" s="157"/>
-      <c r="P22" s="157"/>
-      <c r="Q22" s="157"/>
-      <c r="R22" s="158"/>
-      <c r="S22" s="143"/>
-      <c r="T22" s="143"/>
-      <c r="U22" s="143"/>
-      <c r="V22" s="159"/>
-      <c r="W22" s="160"/>
-      <c r="X22" s="160"/>
-      <c r="Y22" s="160"/>
-      <c r="Z22" s="160"/>
-      <c r="AA22" s="160"/>
-      <c r="AB22" s="160"/>
-      <c r="AC22" s="160"/>
-      <c r="AD22" s="160"/>
-      <c r="AE22" s="160"/>
-      <c r="AF22" s="160"/>
-      <c r="AG22" s="160"/>
-      <c r="AH22" s="160"/>
-      <c r="AI22" s="160"/>
-      <c r="AJ22" s="160"/>
-      <c r="AK22" s="160"/>
-      <c r="AL22" s="160"/>
-      <c r="AM22" s="161"/>
-      <c r="AN22" s="162"/>
-      <c r="AO22" s="163"/>
-      <c r="AP22" s="163"/>
-      <c r="AQ22" s="163"/>
-      <c r="AR22" s="164"/>
-      <c r="AS22" s="162"/>
-      <c r="AT22" s="163"/>
-      <c r="AU22" s="163"/>
-      <c r="AV22" s="163"/>
-      <c r="AW22" s="164"/>
+      <c r="B22" s="146"/>
+      <c r="C22" s="147"/>
+      <c r="D22" s="148"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="149"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="149"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="152"/>
+      <c r="M22" s="163"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="161"/>
+      <c r="P22" s="161"/>
+      <c r="Q22" s="161"/>
+      <c r="R22" s="162"/>
+      <c r="S22" s="156"/>
+      <c r="T22" s="156"/>
+      <c r="U22" s="156"/>
+      <c r="V22" s="157"/>
+      <c r="W22" s="158"/>
+      <c r="X22" s="158"/>
+      <c r="Y22" s="158"/>
+      <c r="Z22" s="158"/>
+      <c r="AA22" s="158"/>
+      <c r="AB22" s="158"/>
+      <c r="AC22" s="158"/>
+      <c r="AD22" s="158"/>
+      <c r="AE22" s="158"/>
+      <c r="AF22" s="158"/>
+      <c r="AG22" s="158"/>
+      <c r="AH22" s="158"/>
+      <c r="AI22" s="158"/>
+      <c r="AJ22" s="158"/>
+      <c r="AK22" s="158"/>
+      <c r="AL22" s="158"/>
+      <c r="AM22" s="159"/>
+      <c r="AN22" s="143"/>
+      <c r="AO22" s="144"/>
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="144"/>
+      <c r="AR22" s="145"/>
+      <c r="AS22" s="143"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="144"/>
+      <c r="AV22" s="144"/>
+      <c r="AW22" s="145"/>
     </row>
     <row r="23" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="60"/>
-      <c r="B23" s="153"/>
-      <c r="C23" s="154"/>
-      <c r="D23" s="155"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="147"/>
-      <c r="L23" s="148"/>
-      <c r="M23" s="156"/>
-      <c r="N23" s="157"/>
-      <c r="O23" s="157"/>
-      <c r="P23" s="157"/>
-      <c r="Q23" s="157"/>
-      <c r="R23" s="158"/>
-      <c r="S23" s="143"/>
-      <c r="T23" s="143"/>
-      <c r="U23" s="143"/>
-      <c r="V23" s="159"/>
-      <c r="W23" s="160"/>
-      <c r="X23" s="160"/>
-      <c r="Y23" s="160"/>
-      <c r="Z23" s="160"/>
-      <c r="AA23" s="160"/>
-      <c r="AB23" s="160"/>
-      <c r="AC23" s="160"/>
-      <c r="AD23" s="160"/>
-      <c r="AE23" s="160"/>
-      <c r="AF23" s="160"/>
-      <c r="AG23" s="160"/>
-      <c r="AH23" s="160"/>
-      <c r="AI23" s="160"/>
-      <c r="AJ23" s="160"/>
-      <c r="AK23" s="160"/>
-      <c r="AL23" s="160"/>
-      <c r="AM23" s="161"/>
-      <c r="AN23" s="162"/>
-      <c r="AO23" s="163"/>
-      <c r="AP23" s="163"/>
-      <c r="AQ23" s="163"/>
-      <c r="AR23" s="164"/>
-      <c r="AS23" s="162"/>
-      <c r="AT23" s="163"/>
-      <c r="AU23" s="163"/>
-      <c r="AV23" s="163"/>
-      <c r="AW23" s="164"/>
+      <c r="B23" s="146"/>
+      <c r="C23" s="147"/>
+      <c r="D23" s="148"/>
+      <c r="E23" s="149"/>
+      <c r="F23" s="149"/>
+      <c r="G23" s="149"/>
+      <c r="H23" s="149"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
+      <c r="K23" s="151"/>
+      <c r="L23" s="152"/>
+      <c r="M23" s="163"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="161"/>
+      <c r="P23" s="161"/>
+      <c r="Q23" s="161"/>
+      <c r="R23" s="162"/>
+      <c r="S23" s="156"/>
+      <c r="T23" s="156"/>
+      <c r="U23" s="156"/>
+      <c r="V23" s="157"/>
+      <c r="W23" s="158"/>
+      <c r="X23" s="158"/>
+      <c r="Y23" s="158"/>
+      <c r="Z23" s="158"/>
+      <c r="AA23" s="158"/>
+      <c r="AB23" s="158"/>
+      <c r="AC23" s="158"/>
+      <c r="AD23" s="158"/>
+      <c r="AE23" s="158"/>
+      <c r="AF23" s="158"/>
+      <c r="AG23" s="158"/>
+      <c r="AH23" s="158"/>
+      <c r="AI23" s="158"/>
+      <c r="AJ23" s="158"/>
+      <c r="AK23" s="158"/>
+      <c r="AL23" s="158"/>
+      <c r="AM23" s="159"/>
+      <c r="AN23" s="143"/>
+      <c r="AO23" s="144"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="144"/>
+      <c r="AR23" s="145"/>
+      <c r="AS23" s="143"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="144"/>
+      <c r="AV23" s="144"/>
+      <c r="AW23" s="145"/>
     </row>
     <row r="24" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="60"/>
-      <c r="B24" s="153"/>
-      <c r="C24" s="154"/>
-      <c r="D24" s="155"/>
-      <c r="E24" s="145"/>
-      <c r="F24" s="145"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="145"/>
-      <c r="I24" s="145"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="147"/>
-      <c r="L24" s="148"/>
-      <c r="M24" s="156"/>
-      <c r="N24" s="157"/>
-      <c r="O24" s="157"/>
-      <c r="P24" s="157"/>
-      <c r="Q24" s="157"/>
-      <c r="R24" s="158"/>
-      <c r="S24" s="143"/>
-      <c r="T24" s="143"/>
-      <c r="U24" s="143"/>
-      <c r="V24" s="159"/>
-      <c r="W24" s="160"/>
-      <c r="X24" s="160"/>
-      <c r="Y24" s="160"/>
-      <c r="Z24" s="160"/>
-      <c r="AA24" s="160"/>
-      <c r="AB24" s="160"/>
-      <c r="AC24" s="160"/>
-      <c r="AD24" s="160"/>
-      <c r="AE24" s="160"/>
-      <c r="AF24" s="160"/>
-      <c r="AG24" s="160"/>
-      <c r="AH24" s="160"/>
-      <c r="AI24" s="160"/>
-      <c r="AJ24" s="160"/>
-      <c r="AK24" s="160"/>
-      <c r="AL24" s="160"/>
-      <c r="AM24" s="161"/>
-      <c r="AN24" s="162"/>
-      <c r="AO24" s="163"/>
-      <c r="AP24" s="163"/>
-      <c r="AQ24" s="163"/>
-      <c r="AR24" s="164"/>
-      <c r="AS24" s="162"/>
-      <c r="AT24" s="163"/>
-      <c r="AU24" s="163"/>
-      <c r="AV24" s="163"/>
-      <c r="AW24" s="164"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="148"/>
+      <c r="E24" s="149"/>
+      <c r="F24" s="149"/>
+      <c r="G24" s="149"/>
+      <c r="H24" s="149"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
+      <c r="K24" s="151"/>
+      <c r="L24" s="152"/>
+      <c r="M24" s="163"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="161"/>
+      <c r="P24" s="161"/>
+      <c r="Q24" s="161"/>
+      <c r="R24" s="162"/>
+      <c r="S24" s="156"/>
+      <c r="T24" s="156"/>
+      <c r="U24" s="156"/>
+      <c r="V24" s="157"/>
+      <c r="W24" s="158"/>
+      <c r="X24" s="158"/>
+      <c r="Y24" s="158"/>
+      <c r="Z24" s="158"/>
+      <c r="AA24" s="158"/>
+      <c r="AB24" s="158"/>
+      <c r="AC24" s="158"/>
+      <c r="AD24" s="158"/>
+      <c r="AE24" s="158"/>
+      <c r="AF24" s="158"/>
+      <c r="AG24" s="158"/>
+      <c r="AH24" s="158"/>
+      <c r="AI24" s="158"/>
+      <c r="AJ24" s="158"/>
+      <c r="AK24" s="158"/>
+      <c r="AL24" s="158"/>
+      <c r="AM24" s="159"/>
+      <c r="AN24" s="143"/>
+      <c r="AO24" s="144"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="144"/>
+      <c r="AR24" s="145"/>
+      <c r="AS24" s="143"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="144"/>
+      <c r="AV24" s="144"/>
+      <c r="AW24" s="145"/>
     </row>
     <row r="25" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="60"/>
-      <c r="B25" s="153"/>
-      <c r="C25" s="154"/>
-      <c r="D25" s="155"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="147"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="167"/>
-      <c r="N25" s="157"/>
-      <c r="O25" s="157"/>
-      <c r="P25" s="157"/>
-      <c r="Q25" s="157"/>
-      <c r="R25" s="158"/>
-      <c r="S25" s="143"/>
-      <c r="T25" s="143"/>
-      <c r="U25" s="143"/>
-      <c r="V25" s="159"/>
-      <c r="W25" s="160"/>
-      <c r="X25" s="160"/>
-      <c r="Y25" s="160"/>
-      <c r="Z25" s="160"/>
-      <c r="AA25" s="160"/>
-      <c r="AB25" s="160"/>
-      <c r="AC25" s="160"/>
-      <c r="AD25" s="160"/>
-      <c r="AE25" s="160"/>
-      <c r="AF25" s="160"/>
-      <c r="AG25" s="160"/>
-      <c r="AH25" s="160"/>
-      <c r="AI25" s="160"/>
-      <c r="AJ25" s="160"/>
-      <c r="AK25" s="160"/>
-      <c r="AL25" s="160"/>
-      <c r="AM25" s="161"/>
-      <c r="AN25" s="162"/>
-      <c r="AO25" s="163"/>
-      <c r="AP25" s="163"/>
-      <c r="AQ25" s="163"/>
-      <c r="AR25" s="164"/>
-      <c r="AS25" s="162"/>
-      <c r="AT25" s="163"/>
-      <c r="AU25" s="163"/>
-      <c r="AV25" s="163"/>
-      <c r="AW25" s="164"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="148"/>
+      <c r="E25" s="149"/>
+      <c r="F25" s="149"/>
+      <c r="G25" s="149"/>
+      <c r="H25" s="149"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
+      <c r="K25" s="151"/>
+      <c r="L25" s="152"/>
+      <c r="M25" s="160"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="161"/>
+      <c r="P25" s="161"/>
+      <c r="Q25" s="161"/>
+      <c r="R25" s="162"/>
+      <c r="S25" s="156"/>
+      <c r="T25" s="156"/>
+      <c r="U25" s="156"/>
+      <c r="V25" s="157"/>
+      <c r="W25" s="158"/>
+      <c r="X25" s="158"/>
+      <c r="Y25" s="158"/>
+      <c r="Z25" s="158"/>
+      <c r="AA25" s="158"/>
+      <c r="AB25" s="158"/>
+      <c r="AC25" s="158"/>
+      <c r="AD25" s="158"/>
+      <c r="AE25" s="158"/>
+      <c r="AF25" s="158"/>
+      <c r="AG25" s="158"/>
+      <c r="AH25" s="158"/>
+      <c r="AI25" s="158"/>
+      <c r="AJ25" s="158"/>
+      <c r="AK25" s="158"/>
+      <c r="AL25" s="158"/>
+      <c r="AM25" s="159"/>
+      <c r="AN25" s="143"/>
+      <c r="AO25" s="144"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="144"/>
+      <c r="AR25" s="145"/>
+      <c r="AS25" s="143"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="144"/>
+      <c r="AV25" s="144"/>
+      <c r="AW25" s="145"/>
     </row>
     <row r="26" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="60"/>
-      <c r="B26" s="153"/>
-      <c r="C26" s="154"/>
-      <c r="D26" s="155"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="147"/>
-      <c r="L26" s="148"/>
-      <c r="M26" s="167"/>
-      <c r="N26" s="157"/>
-      <c r="O26" s="157"/>
-      <c r="P26" s="157"/>
-      <c r="Q26" s="157"/>
-      <c r="R26" s="158"/>
-      <c r="S26" s="143"/>
-      <c r="T26" s="143"/>
-      <c r="U26" s="143"/>
-      <c r="V26" s="159"/>
-      <c r="W26" s="160"/>
-      <c r="X26" s="160"/>
-      <c r="Y26" s="160"/>
-      <c r="Z26" s="160"/>
-      <c r="AA26" s="160"/>
-      <c r="AB26" s="160"/>
-      <c r="AC26" s="160"/>
-      <c r="AD26" s="160"/>
-      <c r="AE26" s="160"/>
-      <c r="AF26" s="160"/>
-      <c r="AG26" s="160"/>
-      <c r="AH26" s="160"/>
-      <c r="AI26" s="160"/>
-      <c r="AJ26" s="160"/>
-      <c r="AK26" s="160"/>
-      <c r="AL26" s="160"/>
-      <c r="AM26" s="161"/>
-      <c r="AN26" s="162"/>
-      <c r="AO26" s="163"/>
-      <c r="AP26" s="163"/>
-      <c r="AQ26" s="163"/>
-      <c r="AR26" s="164"/>
-      <c r="AS26" s="162"/>
-      <c r="AT26" s="163"/>
-      <c r="AU26" s="163"/>
-      <c r="AV26" s="163"/>
-      <c r="AW26" s="164"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="148"/>
+      <c r="E26" s="149"/>
+      <c r="F26" s="149"/>
+      <c r="G26" s="149"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
+      <c r="K26" s="151"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="160"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="161"/>
+      <c r="P26" s="161"/>
+      <c r="Q26" s="161"/>
+      <c r="R26" s="162"/>
+      <c r="S26" s="156"/>
+      <c r="T26" s="156"/>
+      <c r="U26" s="156"/>
+      <c r="V26" s="157"/>
+      <c r="W26" s="158"/>
+      <c r="X26" s="158"/>
+      <c r="Y26" s="158"/>
+      <c r="Z26" s="158"/>
+      <c r="AA26" s="158"/>
+      <c r="AB26" s="158"/>
+      <c r="AC26" s="158"/>
+      <c r="AD26" s="158"/>
+      <c r="AE26" s="158"/>
+      <c r="AF26" s="158"/>
+      <c r="AG26" s="158"/>
+      <c r="AH26" s="158"/>
+      <c r="AI26" s="158"/>
+      <c r="AJ26" s="158"/>
+      <c r="AK26" s="158"/>
+      <c r="AL26" s="158"/>
+      <c r="AM26" s="159"/>
+      <c r="AN26" s="143"/>
+      <c r="AO26" s="144"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="144"/>
+      <c r="AR26" s="145"/>
+      <c r="AS26" s="143"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="144"/>
+      <c r="AV26" s="144"/>
+      <c r="AW26" s="145"/>
     </row>
     <row r="27" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="60"/>
-      <c r="B27" s="153"/>
-      <c r="C27" s="154"/>
-      <c r="D27" s="155"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="146"/>
-      <c r="K27" s="147"/>
-      <c r="L27" s="148"/>
-      <c r="M27" s="167"/>
-      <c r="N27" s="157"/>
-      <c r="O27" s="157"/>
-      <c r="P27" s="157"/>
-      <c r="Q27" s="157"/>
-      <c r="R27" s="158"/>
-      <c r="S27" s="143"/>
-      <c r="T27" s="143"/>
-      <c r="U27" s="143"/>
-      <c r="V27" s="159"/>
-      <c r="W27" s="160"/>
-      <c r="X27" s="160"/>
-      <c r="Y27" s="160"/>
-      <c r="Z27" s="160"/>
-      <c r="AA27" s="160"/>
-      <c r="AB27" s="160"/>
-      <c r="AC27" s="160"/>
-      <c r="AD27" s="160"/>
-      <c r="AE27" s="160"/>
-      <c r="AF27" s="160"/>
-      <c r="AG27" s="160"/>
-      <c r="AH27" s="160"/>
-      <c r="AI27" s="160"/>
-      <c r="AJ27" s="160"/>
-      <c r="AK27" s="160"/>
-      <c r="AL27" s="160"/>
-      <c r="AM27" s="161"/>
-      <c r="AN27" s="162"/>
-      <c r="AO27" s="163"/>
-      <c r="AP27" s="163"/>
-      <c r="AQ27" s="163"/>
-      <c r="AR27" s="164"/>
-      <c r="AS27" s="162"/>
-      <c r="AT27" s="163"/>
-      <c r="AU27" s="163"/>
-      <c r="AV27" s="163"/>
-      <c r="AW27" s="164"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="148"/>
+      <c r="E27" s="149"/>
+      <c r="F27" s="149"/>
+      <c r="G27" s="149"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="152"/>
+      <c r="M27" s="160"/>
+      <c r="N27" s="161"/>
+      <c r="O27" s="161"/>
+      <c r="P27" s="161"/>
+      <c r="Q27" s="161"/>
+      <c r="R27" s="162"/>
+      <c r="S27" s="156"/>
+      <c r="T27" s="156"/>
+      <c r="U27" s="156"/>
+      <c r="V27" s="157"/>
+      <c r="W27" s="158"/>
+      <c r="X27" s="158"/>
+      <c r="Y27" s="158"/>
+      <c r="Z27" s="158"/>
+      <c r="AA27" s="158"/>
+      <c r="AB27" s="158"/>
+      <c r="AC27" s="158"/>
+      <c r="AD27" s="158"/>
+      <c r="AE27" s="158"/>
+      <c r="AF27" s="158"/>
+      <c r="AG27" s="158"/>
+      <c r="AH27" s="158"/>
+      <c r="AI27" s="158"/>
+      <c r="AJ27" s="158"/>
+      <c r="AK27" s="158"/>
+      <c r="AL27" s="158"/>
+      <c r="AM27" s="159"/>
+      <c r="AN27" s="143"/>
+      <c r="AO27" s="144"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="144"/>
+      <c r="AR27" s="145"/>
+      <c r="AS27" s="143"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="144"/>
+      <c r="AV27" s="144"/>
+      <c r="AW27" s="145"/>
     </row>
     <row r="28" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60"/>
-      <c r="B28" s="153"/>
-      <c r="C28" s="154"/>
-      <c r="D28" s="155"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="146"/>
-      <c r="K28" s="147"/>
-      <c r="L28" s="148"/>
-      <c r="M28" s="156"/>
-      <c r="N28" s="157"/>
-      <c r="O28" s="157"/>
-      <c r="P28" s="157"/>
-      <c r="Q28" s="157"/>
-      <c r="R28" s="158"/>
-      <c r="S28" s="143"/>
-      <c r="T28" s="143"/>
-      <c r="U28" s="143"/>
-      <c r="V28" s="159"/>
-      <c r="W28" s="160"/>
-      <c r="X28" s="160"/>
-      <c r="Y28" s="160"/>
-      <c r="Z28" s="160"/>
-      <c r="AA28" s="160"/>
-      <c r="AB28" s="160"/>
-      <c r="AC28" s="160"/>
-      <c r="AD28" s="160"/>
-      <c r="AE28" s="160"/>
-      <c r="AF28" s="160"/>
-      <c r="AG28" s="160"/>
-      <c r="AH28" s="160"/>
-      <c r="AI28" s="160"/>
-      <c r="AJ28" s="160"/>
-      <c r="AK28" s="160"/>
-      <c r="AL28" s="160"/>
-      <c r="AM28" s="161"/>
-      <c r="AN28" s="162"/>
-      <c r="AO28" s="163"/>
-      <c r="AP28" s="163"/>
-      <c r="AQ28" s="163"/>
-      <c r="AR28" s="164"/>
-      <c r="AS28" s="162"/>
-      <c r="AT28" s="163"/>
-      <c r="AU28" s="163"/>
-      <c r="AV28" s="163"/>
-      <c r="AW28" s="164"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="152"/>
+      <c r="M28" s="163"/>
+      <c r="N28" s="161"/>
+      <c r="O28" s="161"/>
+      <c r="P28" s="161"/>
+      <c r="Q28" s="161"/>
+      <c r="R28" s="162"/>
+      <c r="S28" s="156"/>
+      <c r="T28" s="156"/>
+      <c r="U28" s="156"/>
+      <c r="V28" s="157"/>
+      <c r="W28" s="158"/>
+      <c r="X28" s="158"/>
+      <c r="Y28" s="158"/>
+      <c r="Z28" s="158"/>
+      <c r="AA28" s="158"/>
+      <c r="AB28" s="158"/>
+      <c r="AC28" s="158"/>
+      <c r="AD28" s="158"/>
+      <c r="AE28" s="158"/>
+      <c r="AF28" s="158"/>
+      <c r="AG28" s="158"/>
+      <c r="AH28" s="158"/>
+      <c r="AI28" s="158"/>
+      <c r="AJ28" s="158"/>
+      <c r="AK28" s="158"/>
+      <c r="AL28" s="158"/>
+      <c r="AM28" s="159"/>
+      <c r="AN28" s="143"/>
+      <c r="AO28" s="144"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="144"/>
+      <c r="AR28" s="145"/>
+      <c r="AS28" s="143"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="144"/>
+      <c r="AV28" s="144"/>
+      <c r="AW28" s="145"/>
     </row>
     <row r="29" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="60"/>
-      <c r="B29" s="153"/>
-      <c r="C29" s="154"/>
-      <c r="D29" s="155"/>
-      <c r="E29" s="145"/>
-      <c r="F29" s="145"/>
-      <c r="G29" s="145"/>
-      <c r="H29" s="145"/>
-      <c r="I29" s="145"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="147"/>
-      <c r="L29" s="148"/>
-      <c r="M29" s="156"/>
-      <c r="N29" s="157"/>
-      <c r="O29" s="157"/>
-      <c r="P29" s="157"/>
-      <c r="Q29" s="157"/>
-      <c r="R29" s="158"/>
-      <c r="S29" s="143"/>
-      <c r="T29" s="143"/>
-      <c r="U29" s="143"/>
-      <c r="V29" s="159"/>
-      <c r="W29" s="160"/>
-      <c r="X29" s="160"/>
-      <c r="Y29" s="160"/>
-      <c r="Z29" s="160"/>
-      <c r="AA29" s="160"/>
-      <c r="AB29" s="160"/>
-      <c r="AC29" s="160"/>
-      <c r="AD29" s="160"/>
-      <c r="AE29" s="160"/>
-      <c r="AF29" s="160"/>
-      <c r="AG29" s="160"/>
-      <c r="AH29" s="160"/>
-      <c r="AI29" s="160"/>
-      <c r="AJ29" s="160"/>
-      <c r="AK29" s="160"/>
-      <c r="AL29" s="160"/>
-      <c r="AM29" s="161"/>
-      <c r="AN29" s="162"/>
-      <c r="AO29" s="163"/>
-      <c r="AP29" s="163"/>
-      <c r="AQ29" s="163"/>
-      <c r="AR29" s="164"/>
-      <c r="AS29" s="162"/>
-      <c r="AT29" s="163"/>
-      <c r="AU29" s="163"/>
-      <c r="AV29" s="163"/>
-      <c r="AW29" s="164"/>
+      <c r="B29" s="146"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="148"/>
+      <c r="E29" s="149"/>
+      <c r="F29" s="149"/>
+      <c r="G29" s="149"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="150"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="152"/>
+      <c r="M29" s="163"/>
+      <c r="N29" s="161"/>
+      <c r="O29" s="161"/>
+      <c r="P29" s="161"/>
+      <c r="Q29" s="161"/>
+      <c r="R29" s="162"/>
+      <c r="S29" s="156"/>
+      <c r="T29" s="156"/>
+      <c r="U29" s="156"/>
+      <c r="V29" s="157"/>
+      <c r="W29" s="158"/>
+      <c r="X29" s="158"/>
+      <c r="Y29" s="158"/>
+      <c r="Z29" s="158"/>
+      <c r="AA29" s="158"/>
+      <c r="AB29" s="158"/>
+      <c r="AC29" s="158"/>
+      <c r="AD29" s="158"/>
+      <c r="AE29" s="158"/>
+      <c r="AF29" s="158"/>
+      <c r="AG29" s="158"/>
+      <c r="AH29" s="158"/>
+      <c r="AI29" s="158"/>
+      <c r="AJ29" s="158"/>
+      <c r="AK29" s="158"/>
+      <c r="AL29" s="158"/>
+      <c r="AM29" s="159"/>
+      <c r="AN29" s="143"/>
+      <c r="AO29" s="144"/>
+      <c r="AP29" s="144"/>
+      <c r="AQ29" s="144"/>
+      <c r="AR29" s="145"/>
+      <c r="AS29" s="143"/>
+      <c r="AT29" s="144"/>
+      <c r="AU29" s="144"/>
+      <c r="AV29" s="144"/>
+      <c r="AW29" s="145"/>
     </row>
     <row r="30" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="60"/>
-      <c r="B30" s="153"/>
-      <c r="C30" s="154"/>
-      <c r="D30" s="155"/>
-      <c r="E30" s="145"/>
-      <c r="F30" s="145"/>
-      <c r="G30" s="145"/>
-      <c r="H30" s="145"/>
-      <c r="I30" s="145"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="147"/>
-      <c r="L30" s="148"/>
-      <c r="M30" s="167"/>
-      <c r="N30" s="157"/>
-      <c r="O30" s="157"/>
-      <c r="P30" s="157"/>
-      <c r="Q30" s="157"/>
-      <c r="R30" s="158"/>
-      <c r="S30" s="143"/>
-      <c r="T30" s="143"/>
-      <c r="U30" s="143"/>
-      <c r="V30" s="159"/>
-      <c r="W30" s="160"/>
-      <c r="X30" s="160"/>
-      <c r="Y30" s="160"/>
-      <c r="Z30" s="160"/>
-      <c r="AA30" s="160"/>
-      <c r="AB30" s="160"/>
-      <c r="AC30" s="160"/>
-      <c r="AD30" s="160"/>
-      <c r="AE30" s="160"/>
-      <c r="AF30" s="160"/>
-      <c r="AG30" s="160"/>
-      <c r="AH30" s="160"/>
-      <c r="AI30" s="160"/>
-      <c r="AJ30" s="160"/>
-      <c r="AK30" s="160"/>
-      <c r="AL30" s="160"/>
-      <c r="AM30" s="161"/>
-      <c r="AN30" s="162"/>
-      <c r="AO30" s="163"/>
-      <c r="AP30" s="163"/>
-      <c r="AQ30" s="163"/>
-      <c r="AR30" s="164"/>
-      <c r="AS30" s="162"/>
-      <c r="AT30" s="163"/>
-      <c r="AU30" s="163"/>
-      <c r="AV30" s="163"/>
-      <c r="AW30" s="164"/>
+      <c r="B30" s="146"/>
+      <c r="C30" s="147"/>
+      <c r="D30" s="148"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="150"/>
+      <c r="K30" s="151"/>
+      <c r="L30" s="152"/>
+      <c r="M30" s="160"/>
+      <c r="N30" s="161"/>
+      <c r="O30" s="161"/>
+      <c r="P30" s="161"/>
+      <c r="Q30" s="161"/>
+      <c r="R30" s="162"/>
+      <c r="S30" s="156"/>
+      <c r="T30" s="156"/>
+      <c r="U30" s="156"/>
+      <c r="V30" s="157"/>
+      <c r="W30" s="158"/>
+      <c r="X30" s="158"/>
+      <c r="Y30" s="158"/>
+      <c r="Z30" s="158"/>
+      <c r="AA30" s="158"/>
+      <c r="AB30" s="158"/>
+      <c r="AC30" s="158"/>
+      <c r="AD30" s="158"/>
+      <c r="AE30" s="158"/>
+      <c r="AF30" s="158"/>
+      <c r="AG30" s="158"/>
+      <c r="AH30" s="158"/>
+      <c r="AI30" s="158"/>
+      <c r="AJ30" s="158"/>
+      <c r="AK30" s="158"/>
+      <c r="AL30" s="158"/>
+      <c r="AM30" s="159"/>
+      <c r="AN30" s="143"/>
+      <c r="AO30" s="144"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="144"/>
+      <c r="AR30" s="145"/>
+      <c r="AS30" s="143"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="144"/>
+      <c r="AV30" s="144"/>
+      <c r="AW30" s="145"/>
     </row>
     <row r="31" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="60"/>
-      <c r="B31" s="153"/>
-      <c r="C31" s="154"/>
-      <c r="D31" s="155"/>
-      <c r="E31" s="145"/>
-      <c r="F31" s="145"/>
-      <c r="G31" s="145"/>
-      <c r="H31" s="145"/>
-      <c r="I31" s="145"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="147"/>
-      <c r="L31" s="148"/>
-      <c r="M31" s="167"/>
-      <c r="N31" s="157"/>
-      <c r="O31" s="157"/>
-      <c r="P31" s="157"/>
-      <c r="Q31" s="157"/>
-      <c r="R31" s="158"/>
-      <c r="S31" s="143"/>
-      <c r="T31" s="143"/>
-      <c r="U31" s="143"/>
-      <c r="V31" s="159"/>
-      <c r="W31" s="160"/>
-      <c r="X31" s="160"/>
-      <c r="Y31" s="160"/>
-      <c r="Z31" s="160"/>
-      <c r="AA31" s="160"/>
-      <c r="AB31" s="160"/>
-      <c r="AC31" s="160"/>
-      <c r="AD31" s="160"/>
-      <c r="AE31" s="160"/>
-      <c r="AF31" s="160"/>
-      <c r="AG31" s="160"/>
-      <c r="AH31" s="160"/>
-      <c r="AI31" s="160"/>
-      <c r="AJ31" s="160"/>
-      <c r="AK31" s="160"/>
-      <c r="AL31" s="160"/>
-      <c r="AM31" s="161"/>
-      <c r="AN31" s="162"/>
-      <c r="AO31" s="163"/>
-      <c r="AP31" s="163"/>
-      <c r="AQ31" s="163"/>
-      <c r="AR31" s="164"/>
-      <c r="AS31" s="162"/>
-      <c r="AT31" s="163"/>
-      <c r="AU31" s="163"/>
-      <c r="AV31" s="163"/>
-      <c r="AW31" s="164"/>
+      <c r="B31" s="146"/>
+      <c r="C31" s="147"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150"/>
+      <c r="K31" s="151"/>
+      <c r="L31" s="152"/>
+      <c r="M31" s="160"/>
+      <c r="N31" s="161"/>
+      <c r="O31" s="161"/>
+      <c r="P31" s="161"/>
+      <c r="Q31" s="161"/>
+      <c r="R31" s="162"/>
+      <c r="S31" s="156"/>
+      <c r="T31" s="156"/>
+      <c r="U31" s="156"/>
+      <c r="V31" s="157"/>
+      <c r="W31" s="158"/>
+      <c r="X31" s="158"/>
+      <c r="Y31" s="158"/>
+      <c r="Z31" s="158"/>
+      <c r="AA31" s="158"/>
+      <c r="AB31" s="158"/>
+      <c r="AC31" s="158"/>
+      <c r="AD31" s="158"/>
+      <c r="AE31" s="158"/>
+      <c r="AF31" s="158"/>
+      <c r="AG31" s="158"/>
+      <c r="AH31" s="158"/>
+      <c r="AI31" s="158"/>
+      <c r="AJ31" s="158"/>
+      <c r="AK31" s="158"/>
+      <c r="AL31" s="158"/>
+      <c r="AM31" s="159"/>
+      <c r="AN31" s="143"/>
+      <c r="AO31" s="144"/>
+      <c r="AP31" s="144"/>
+      <c r="AQ31" s="144"/>
+      <c r="AR31" s="145"/>
+      <c r="AS31" s="143"/>
+      <c r="AT31" s="144"/>
+      <c r="AU31" s="144"/>
+      <c r="AV31" s="144"/>
+      <c r="AW31" s="145"/>
     </row>
     <row r="32" spans="1:49" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="60"/>
-      <c r="B32" s="153"/>
-      <c r="C32" s="154"/>
-      <c r="D32" s="155"/>
-      <c r="E32" s="145"/>
-      <c r="F32" s="145"/>
-      <c r="G32" s="145"/>
-      <c r="H32" s="145"/>
-      <c r="I32" s="145"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="147"/>
-      <c r="L32" s="148"/>
-      <c r="M32" s="167"/>
-      <c r="N32" s="157"/>
-      <c r="O32" s="157"/>
-      <c r="P32" s="157"/>
-      <c r="Q32" s="157"/>
-      <c r="R32" s="158"/>
-      <c r="S32" s="143"/>
-      <c r="T32" s="143"/>
-      <c r="U32" s="143"/>
-      <c r="V32" s="159"/>
-      <c r="W32" s="160"/>
-      <c r="X32" s="160"/>
-      <c r="Y32" s="160"/>
-      <c r="Z32" s="160"/>
-      <c r="AA32" s="160"/>
-      <c r="AB32" s="160"/>
-      <c r="AC32" s="160"/>
-      <c r="AD32" s="160"/>
-      <c r="AE32" s="160"/>
-      <c r="AF32" s="160"/>
-      <c r="AG32" s="160"/>
-      <c r="AH32" s="160"/>
-      <c r="AI32" s="160"/>
-      <c r="AJ32" s="160"/>
-      <c r="AK32" s="160"/>
-      <c r="AL32" s="160"/>
-      <c r="AM32" s="161"/>
-      <c r="AN32" s="162"/>
-      <c r="AO32" s="163"/>
-      <c r="AP32" s="163"/>
-      <c r="AQ32" s="163"/>
-      <c r="AR32" s="164"/>
-      <c r="AS32" s="162"/>
-      <c r="AT32" s="163"/>
-      <c r="AU32" s="163"/>
-      <c r="AV32" s="163"/>
-      <c r="AW32" s="164"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="150"/>
+      <c r="K32" s="151"/>
+      <c r="L32" s="152"/>
+      <c r="M32" s="160"/>
+      <c r="N32" s="161"/>
+      <c r="O32" s="161"/>
+      <c r="P32" s="161"/>
+      <c r="Q32" s="161"/>
+      <c r="R32" s="162"/>
+      <c r="S32" s="156"/>
+      <c r="T32" s="156"/>
+      <c r="U32" s="156"/>
+      <c r="V32" s="157"/>
+      <c r="W32" s="158"/>
+      <c r="X32" s="158"/>
+      <c r="Y32" s="158"/>
+      <c r="Z32" s="158"/>
+      <c r="AA32" s="158"/>
+      <c r="AB32" s="158"/>
+      <c r="AC32" s="158"/>
+      <c r="AD32" s="158"/>
+      <c r="AE32" s="158"/>
+      <c r="AF32" s="158"/>
+      <c r="AG32" s="158"/>
+      <c r="AH32" s="158"/>
+      <c r="AI32" s="158"/>
+      <c r="AJ32" s="158"/>
+      <c r="AK32" s="158"/>
+      <c r="AL32" s="158"/>
+      <c r="AM32" s="159"/>
+      <c r="AN32" s="143"/>
+      <c r="AO32" s="144"/>
+      <c r="AP32" s="144"/>
+      <c r="AQ32" s="144"/>
+      <c r="AR32" s="145"/>
+      <c r="AS32" s="143"/>
+      <c r="AT32" s="144"/>
+      <c r="AU32" s="144"/>
+      <c r="AV32" s="144"/>
+      <c r="AW32" s="145"/>
     </row>
     <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="153"/>
-      <c r="C33" s="154"/>
-      <c r="D33" s="155"/>
-      <c r="E33" s="145"/>
-      <c r="F33" s="145"/>
-      <c r="G33" s="145"/>
-      <c r="H33" s="145"/>
-      <c r="I33" s="145"/>
-      <c r="J33" s="146"/>
-      <c r="K33" s="147"/>
-      <c r="L33" s="148"/>
-      <c r="M33" s="167"/>
-      <c r="N33" s="157"/>
-      <c r="O33" s="157"/>
-      <c r="P33" s="157"/>
-      <c r="Q33" s="157"/>
-      <c r="R33" s="158"/>
-      <c r="S33" s="143"/>
-      <c r="T33" s="143"/>
-      <c r="U33" s="143"/>
-      <c r="V33" s="159"/>
-      <c r="W33" s="160"/>
-      <c r="X33" s="160"/>
-      <c r="Y33" s="160"/>
-      <c r="Z33" s="160"/>
-      <c r="AA33" s="160"/>
-      <c r="AB33" s="160"/>
-      <c r="AC33" s="160"/>
-      <c r="AD33" s="160"/>
-      <c r="AE33" s="160"/>
-      <c r="AF33" s="160"/>
-      <c r="AG33" s="160"/>
-      <c r="AH33" s="160"/>
-      <c r="AI33" s="160"/>
-      <c r="AJ33" s="160"/>
-      <c r="AK33" s="160"/>
-      <c r="AL33" s="160"/>
-      <c r="AM33" s="161"/>
-      <c r="AN33" s="162"/>
-      <c r="AO33" s="163"/>
-      <c r="AP33" s="163"/>
-      <c r="AQ33" s="163"/>
-      <c r="AR33" s="164"/>
-      <c r="AS33" s="162"/>
-      <c r="AT33" s="163"/>
-      <c r="AU33" s="163"/>
-      <c r="AV33" s="163"/>
-      <c r="AW33" s="164"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
+      <c r="K33" s="151"/>
+      <c r="L33" s="152"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="161"/>
+      <c r="O33" s="161"/>
+      <c r="P33" s="161"/>
+      <c r="Q33" s="161"/>
+      <c r="R33" s="162"/>
+      <c r="S33" s="156"/>
+      <c r="T33" s="156"/>
+      <c r="U33" s="156"/>
+      <c r="V33" s="157"/>
+      <c r="W33" s="158"/>
+      <c r="X33" s="158"/>
+      <c r="Y33" s="158"/>
+      <c r="Z33" s="158"/>
+      <c r="AA33" s="158"/>
+      <c r="AB33" s="158"/>
+      <c r="AC33" s="158"/>
+      <c r="AD33" s="158"/>
+      <c r="AE33" s="158"/>
+      <c r="AF33" s="158"/>
+      <c r="AG33" s="158"/>
+      <c r="AH33" s="158"/>
+      <c r="AI33" s="158"/>
+      <c r="AJ33" s="158"/>
+      <c r="AK33" s="158"/>
+      <c r="AL33" s="158"/>
+      <c r="AM33" s="159"/>
+      <c r="AN33" s="143"/>
+      <c r="AO33" s="144"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="144"/>
+      <c r="AR33" s="145"/>
+      <c r="AS33" s="143"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="144"/>
+      <c r="AV33" s="144"/>
+      <c r="AW33" s="145"/>
     </row>
     <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="153"/>
-      <c r="C34" s="154"/>
-      <c r="D34" s="155"/>
-      <c r="E34" s="145"/>
-      <c r="F34" s="145"/>
-      <c r="G34" s="145"/>
-      <c r="H34" s="145"/>
-      <c r="I34" s="145"/>
-      <c r="J34" s="146"/>
-      <c r="K34" s="147"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="171"/>
-      <c r="N34" s="172"/>
-      <c r="O34" s="172"/>
-      <c r="P34" s="172"/>
-      <c r="Q34" s="172"/>
-      <c r="R34" s="173"/>
-      <c r="S34" s="143"/>
-      <c r="T34" s="143"/>
-      <c r="U34" s="143"/>
-      <c r="V34" s="159"/>
-      <c r="W34" s="160"/>
-      <c r="X34" s="160"/>
-      <c r="Y34" s="160"/>
-      <c r="Z34" s="160"/>
-      <c r="AA34" s="160"/>
-      <c r="AB34" s="160"/>
-      <c r="AC34" s="160"/>
-      <c r="AD34" s="160"/>
-      <c r="AE34" s="160"/>
-      <c r="AF34" s="160"/>
-      <c r="AG34" s="160"/>
-      <c r="AH34" s="160"/>
-      <c r="AI34" s="160"/>
-      <c r="AJ34" s="160"/>
-      <c r="AK34" s="160"/>
-      <c r="AL34" s="160"/>
-      <c r="AM34" s="161"/>
-      <c r="AN34" s="162"/>
-      <c r="AO34" s="163"/>
-      <c r="AP34" s="163"/>
-      <c r="AQ34" s="163"/>
-      <c r="AR34" s="164"/>
-      <c r="AS34" s="162"/>
-      <c r="AT34" s="163"/>
-      <c r="AU34" s="163"/>
-      <c r="AV34" s="163"/>
-      <c r="AW34" s="164"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="149"/>
+      <c r="F34" s="149"/>
+      <c r="G34" s="149"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
+      <c r="K34" s="151"/>
+      <c r="L34" s="152"/>
+      <c r="M34" s="153"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="154"/>
+      <c r="P34" s="154"/>
+      <c r="Q34" s="154"/>
+      <c r="R34" s="155"/>
+      <c r="S34" s="156"/>
+      <c r="T34" s="156"/>
+      <c r="U34" s="156"/>
+      <c r="V34" s="157"/>
+      <c r="W34" s="158"/>
+      <c r="X34" s="158"/>
+      <c r="Y34" s="158"/>
+      <c r="Z34" s="158"/>
+      <c r="AA34" s="158"/>
+      <c r="AB34" s="158"/>
+      <c r="AC34" s="158"/>
+      <c r="AD34" s="158"/>
+      <c r="AE34" s="158"/>
+      <c r="AF34" s="158"/>
+      <c r="AG34" s="158"/>
+      <c r="AH34" s="158"/>
+      <c r="AI34" s="158"/>
+      <c r="AJ34" s="158"/>
+      <c r="AK34" s="158"/>
+      <c r="AL34" s="158"/>
+      <c r="AM34" s="159"/>
+      <c r="AN34" s="143"/>
+      <c r="AO34" s="144"/>
+      <c r="AP34" s="144"/>
+      <c r="AQ34" s="144"/>
+      <c r="AR34" s="145"/>
+      <c r="AS34" s="143"/>
+      <c r="AT34" s="144"/>
+      <c r="AU34" s="144"/>
+      <c r="AV34" s="144"/>
+      <c r="AW34" s="145"/>
     </row>
   </sheetData>
   <mergeCells count="249">
+    <mergeCell ref="B1:AW2"/>
+    <mergeCell ref="B3:D4"/>
+    <mergeCell ref="E3:I4"/>
+    <mergeCell ref="J3:L4"/>
+    <mergeCell ref="M3:R4"/>
+    <mergeCell ref="S3:U4"/>
+    <mergeCell ref="V3:AM4"/>
+    <mergeCell ref="AN3:AR4"/>
+    <mergeCell ref="AS3:AW4"/>
+    <mergeCell ref="AN5:AR5"/>
+    <mergeCell ref="AS5:AW5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="V6:AM6"/>
+    <mergeCell ref="AN6:AR6"/>
+    <mergeCell ref="AS6:AW6"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:I5"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="M5:R5"/>
+    <mergeCell ref="S5:U5"/>
+    <mergeCell ref="V5:AM5"/>
+    <mergeCell ref="AN7:AR7"/>
+    <mergeCell ref="AS7:AW7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:R8"/>
+    <mergeCell ref="S8:U8"/>
+    <mergeCell ref="V8:AM8"/>
+    <mergeCell ref="AN8:AR8"/>
+    <mergeCell ref="AS8:AW8"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:R7"/>
+    <mergeCell ref="S7:U7"/>
+    <mergeCell ref="V7:AM7"/>
+    <mergeCell ref="AN9:AR9"/>
+    <mergeCell ref="AS9:AW9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:R10"/>
+    <mergeCell ref="S10:U10"/>
+    <mergeCell ref="V10:AM10"/>
+    <mergeCell ref="AN10:AR10"/>
+    <mergeCell ref="AS10:AW10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:R9"/>
+    <mergeCell ref="S9:U9"/>
+    <mergeCell ref="V9:AM9"/>
+    <mergeCell ref="AN11:AR11"/>
+    <mergeCell ref="AS11:AW11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:I12"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:R12"/>
+    <mergeCell ref="S12:U12"/>
+    <mergeCell ref="V12:AM12"/>
+    <mergeCell ref="AN12:AR12"/>
+    <mergeCell ref="AS12:AW12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:R11"/>
+    <mergeCell ref="S11:U11"/>
+    <mergeCell ref="V11:AM11"/>
+    <mergeCell ref="AN13:AR13"/>
+    <mergeCell ref="AS13:AW13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:R14"/>
+    <mergeCell ref="S14:U14"/>
+    <mergeCell ref="V14:AM14"/>
+    <mergeCell ref="AN14:AR14"/>
+    <mergeCell ref="AS14:AW14"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:R13"/>
+    <mergeCell ref="S13:U13"/>
+    <mergeCell ref="V13:AM13"/>
+    <mergeCell ref="AN15:AR15"/>
+    <mergeCell ref="AS15:AW15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="S16:U16"/>
+    <mergeCell ref="V16:AM16"/>
+    <mergeCell ref="AN16:AR16"/>
+    <mergeCell ref="AS16:AW16"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="S15:U15"/>
+    <mergeCell ref="V15:AM15"/>
+    <mergeCell ref="AN17:AR17"/>
+    <mergeCell ref="AS17:AW17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:I18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:R18"/>
+    <mergeCell ref="S18:U18"/>
+    <mergeCell ref="V18:AM18"/>
+    <mergeCell ref="AN18:AR18"/>
+    <mergeCell ref="AS18:AW18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:I17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:R17"/>
+    <mergeCell ref="S17:U17"/>
+    <mergeCell ref="V17:AM17"/>
+    <mergeCell ref="AN19:AR19"/>
+    <mergeCell ref="AS19:AW19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:I20"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="S20:U20"/>
+    <mergeCell ref="V20:AM20"/>
+    <mergeCell ref="AN20:AR20"/>
+    <mergeCell ref="AS20:AW20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:I19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:R19"/>
+    <mergeCell ref="S19:U19"/>
+    <mergeCell ref="V19:AM19"/>
+    <mergeCell ref="AN21:AR21"/>
+    <mergeCell ref="AS21:AW21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:R22"/>
+    <mergeCell ref="S22:U22"/>
+    <mergeCell ref="V22:AM22"/>
+    <mergeCell ref="AN22:AR22"/>
+    <mergeCell ref="AS22:AW22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:I21"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="M21:R21"/>
+    <mergeCell ref="S21:U21"/>
+    <mergeCell ref="V21:AM21"/>
+    <mergeCell ref="AN23:AR23"/>
+    <mergeCell ref="AS23:AW23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="V24:AM24"/>
+    <mergeCell ref="AN24:AR24"/>
+    <mergeCell ref="AS24:AW24"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:R23"/>
+    <mergeCell ref="S23:U23"/>
+    <mergeCell ref="V23:AM23"/>
+    <mergeCell ref="AN25:AR25"/>
+    <mergeCell ref="AS25:AW25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:R26"/>
+    <mergeCell ref="S26:U26"/>
+    <mergeCell ref="V26:AM26"/>
+    <mergeCell ref="AN26:AR26"/>
+    <mergeCell ref="AS26:AW26"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:I25"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:R25"/>
+    <mergeCell ref="S25:U25"/>
+    <mergeCell ref="V25:AM25"/>
+    <mergeCell ref="AN27:AR27"/>
+    <mergeCell ref="AS27:AW27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:I28"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:R28"/>
+    <mergeCell ref="S28:U28"/>
+    <mergeCell ref="V28:AM28"/>
+    <mergeCell ref="AN28:AR28"/>
+    <mergeCell ref="AS28:AW28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:I27"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:R27"/>
+    <mergeCell ref="S27:U27"/>
+    <mergeCell ref="V27:AM27"/>
+    <mergeCell ref="AN29:AR29"/>
+    <mergeCell ref="AS29:AW29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:R30"/>
+    <mergeCell ref="S30:U30"/>
+    <mergeCell ref="V30:AM30"/>
+    <mergeCell ref="AN30:AR30"/>
+    <mergeCell ref="AS30:AW30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:I29"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:R29"/>
+    <mergeCell ref="S29:U29"/>
+    <mergeCell ref="V29:AM29"/>
+    <mergeCell ref="AN31:AR31"/>
+    <mergeCell ref="AS31:AW31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:R32"/>
+    <mergeCell ref="S32:U32"/>
+    <mergeCell ref="V32:AM32"/>
+    <mergeCell ref="AN32:AR32"/>
+    <mergeCell ref="AS32:AW32"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:R31"/>
+    <mergeCell ref="S31:U31"/>
+    <mergeCell ref="V31:AM31"/>
     <mergeCell ref="AN33:AR33"/>
     <mergeCell ref="AS33:AW33"/>
     <mergeCell ref="B34:D34"/>
@@ -6404,239 +6797,6 @@
     <mergeCell ref="M33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="V33:AM33"/>
-    <mergeCell ref="AN31:AR31"/>
-    <mergeCell ref="AS31:AW31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:I32"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:R32"/>
-    <mergeCell ref="S32:U32"/>
-    <mergeCell ref="V32:AM32"/>
-    <mergeCell ref="AN32:AR32"/>
-    <mergeCell ref="AS32:AW32"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:I31"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:R31"/>
-    <mergeCell ref="S31:U31"/>
-    <mergeCell ref="V31:AM31"/>
-    <mergeCell ref="AN29:AR29"/>
-    <mergeCell ref="AS29:AW29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:R30"/>
-    <mergeCell ref="S30:U30"/>
-    <mergeCell ref="V30:AM30"/>
-    <mergeCell ref="AN30:AR30"/>
-    <mergeCell ref="AS30:AW30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:I29"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:R29"/>
-    <mergeCell ref="S29:U29"/>
-    <mergeCell ref="V29:AM29"/>
-    <mergeCell ref="AN27:AR27"/>
-    <mergeCell ref="AS27:AW27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:I28"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:R28"/>
-    <mergeCell ref="S28:U28"/>
-    <mergeCell ref="V28:AM28"/>
-    <mergeCell ref="AN28:AR28"/>
-    <mergeCell ref="AS28:AW28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:I27"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:R27"/>
-    <mergeCell ref="S27:U27"/>
-    <mergeCell ref="V27:AM27"/>
-    <mergeCell ref="AN25:AR25"/>
-    <mergeCell ref="AS25:AW25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:R26"/>
-    <mergeCell ref="S26:U26"/>
-    <mergeCell ref="V26:AM26"/>
-    <mergeCell ref="AN26:AR26"/>
-    <mergeCell ref="AS26:AW26"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:I25"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:R25"/>
-    <mergeCell ref="S25:U25"/>
-    <mergeCell ref="V25:AM25"/>
-    <mergeCell ref="AN23:AR23"/>
-    <mergeCell ref="AS23:AW23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="V24:AM24"/>
-    <mergeCell ref="AN24:AR24"/>
-    <mergeCell ref="AS24:AW24"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:R23"/>
-    <mergeCell ref="S23:U23"/>
-    <mergeCell ref="V23:AM23"/>
-    <mergeCell ref="AN21:AR21"/>
-    <mergeCell ref="AS21:AW21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:R22"/>
-    <mergeCell ref="S22:U22"/>
-    <mergeCell ref="V22:AM22"/>
-    <mergeCell ref="AN22:AR22"/>
-    <mergeCell ref="AS22:AW22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:I21"/>
-    <mergeCell ref="J21:L21"/>
-    <mergeCell ref="M21:R21"/>
-    <mergeCell ref="S21:U21"/>
-    <mergeCell ref="V21:AM21"/>
-    <mergeCell ref="AN19:AR19"/>
-    <mergeCell ref="AS19:AW19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:I20"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:R20"/>
-    <mergeCell ref="S20:U20"/>
-    <mergeCell ref="V20:AM20"/>
-    <mergeCell ref="AN20:AR20"/>
-    <mergeCell ref="AS20:AW20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:I19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="S19:U19"/>
-    <mergeCell ref="V19:AM19"/>
-    <mergeCell ref="AN17:AR17"/>
-    <mergeCell ref="AS17:AW17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:I18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:R18"/>
-    <mergeCell ref="S18:U18"/>
-    <mergeCell ref="V18:AM18"/>
-    <mergeCell ref="AN18:AR18"/>
-    <mergeCell ref="AS18:AW18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:I17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:R17"/>
-    <mergeCell ref="S17:U17"/>
-    <mergeCell ref="V17:AM17"/>
-    <mergeCell ref="AN15:AR15"/>
-    <mergeCell ref="AS15:AW15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="S16:U16"/>
-    <mergeCell ref="V16:AM16"/>
-    <mergeCell ref="AN16:AR16"/>
-    <mergeCell ref="AS16:AW16"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="S15:U15"/>
-    <mergeCell ref="V15:AM15"/>
-    <mergeCell ref="AN13:AR13"/>
-    <mergeCell ref="AS13:AW13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:R14"/>
-    <mergeCell ref="S14:U14"/>
-    <mergeCell ref="V14:AM14"/>
-    <mergeCell ref="AN14:AR14"/>
-    <mergeCell ref="AS14:AW14"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:R13"/>
-    <mergeCell ref="S13:U13"/>
-    <mergeCell ref="V13:AM13"/>
-    <mergeCell ref="AN11:AR11"/>
-    <mergeCell ref="AS11:AW11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:I12"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:R12"/>
-    <mergeCell ref="S12:U12"/>
-    <mergeCell ref="V12:AM12"/>
-    <mergeCell ref="AN12:AR12"/>
-    <mergeCell ref="AS12:AW12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:R11"/>
-    <mergeCell ref="S11:U11"/>
-    <mergeCell ref="V11:AM11"/>
-    <mergeCell ref="AN9:AR9"/>
-    <mergeCell ref="AS9:AW9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:R10"/>
-    <mergeCell ref="S10:U10"/>
-    <mergeCell ref="V10:AM10"/>
-    <mergeCell ref="AN10:AR10"/>
-    <mergeCell ref="AS10:AW10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:R9"/>
-    <mergeCell ref="S9:U9"/>
-    <mergeCell ref="V9:AM9"/>
-    <mergeCell ref="AN7:AR7"/>
-    <mergeCell ref="AS7:AW7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:R8"/>
-    <mergeCell ref="S8:U8"/>
-    <mergeCell ref="V8:AM8"/>
-    <mergeCell ref="AN8:AR8"/>
-    <mergeCell ref="AS8:AW8"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:R7"/>
-    <mergeCell ref="S7:U7"/>
-    <mergeCell ref="V7:AM7"/>
-    <mergeCell ref="AN5:AR5"/>
-    <mergeCell ref="AS5:AW5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="V6:AM6"/>
-    <mergeCell ref="AN6:AR6"/>
-    <mergeCell ref="AS6:AW6"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:I5"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="M5:R5"/>
-    <mergeCell ref="S5:U5"/>
-    <mergeCell ref="V5:AM5"/>
-    <mergeCell ref="B1:AW2"/>
-    <mergeCell ref="B3:D4"/>
-    <mergeCell ref="E3:I4"/>
-    <mergeCell ref="J3:L4"/>
-    <mergeCell ref="M3:R4"/>
-    <mergeCell ref="S3:U4"/>
-    <mergeCell ref="V3:AM4"/>
-    <mergeCell ref="AN3:AR4"/>
-    <mergeCell ref="AS3:AW4"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6796,11 +6956,11 @@
       <c r="AL2" s="35"/>
       <c r="AM2" s="35"/>
       <c r="AN2" s="36"/>
-      <c r="AO2" s="174"/>
-      <c r="AP2" s="175"/>
-      <c r="AQ2" s="175"/>
-      <c r="AR2" s="175"/>
-      <c r="AS2" s="176"/>
+      <c r="AO2" s="183"/>
+      <c r="AP2" s="184"/>
+      <c r="AQ2" s="184"/>
+      <c r="AR2" s="184"/>
+      <c r="AS2" s="185"/>
       <c r="AT2" s="34" t="s">
         <v>26</v>
       </c>
@@ -6809,14 +6969,14 @@
       <c r="AW2" s="35"/>
       <c r="AX2" s="35"/>
       <c r="AY2" s="36"/>
-      <c r="AZ2" s="177"/>
-      <c r="BA2" s="178"/>
-      <c r="BB2" s="178"/>
-      <c r="BC2" s="178"/>
-      <c r="BD2" s="178"/>
-      <c r="BE2" s="178"/>
-      <c r="BF2" s="178"/>
-      <c r="BG2" s="179"/>
+      <c r="AZ2" s="186"/>
+      <c r="BA2" s="187"/>
+      <c r="BB2" s="187"/>
+      <c r="BC2" s="187"/>
+      <c r="BD2" s="187"/>
+      <c r="BE2" s="187"/>
+      <c r="BF2" s="187"/>
+      <c r="BG2" s="188"/>
     </row>
     <row r="3" spans="1:59" x14ac:dyDescent="0.15">
       <c r="A3" s="33"/>
@@ -8565,10 +8725,10 @@
     </row>
     <row r="50" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A50" s="29"/>
-      <c r="B50" s="182" t="s">
+      <c r="B50" s="191" t="s">
         <v>105</v>
       </c>
-      <c r="C50" s="183"/>
+      <c r="C50" s="192"/>
       <c r="D50" s="86" t="s">
         <v>104</v>
       </c>
@@ -8651,10 +8811,10 @@
     </row>
     <row r="51" spans="1:66" x14ac:dyDescent="0.15">
       <c r="A51" s="29"/>
-      <c r="B51" s="184">
+      <c r="B51" s="193">
         <v>1</v>
       </c>
-      <c r="C51" s="185"/>
+      <c r="C51" s="194"/>
       <c r="D51" s="121" t="s">
         <v>156</v>
       </c>
@@ -8686,22 +8846,22 @@
       <c r="AB51" s="122"/>
       <c r="AC51" s="122"/>
       <c r="AD51" s="123"/>
-      <c r="AE51" s="180" t="s">
+      <c r="AE51" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AF51" s="181"/>
-      <c r="AG51" s="180" t="s">
+      <c r="AF51" s="190"/>
+      <c r="AG51" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AH51" s="181"/>
-      <c r="AI51" s="180" t="s">
+      <c r="AH51" s="190"/>
+      <c r="AI51" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AJ51" s="181"/>
-      <c r="AK51" s="180" t="s">
+      <c r="AJ51" s="190"/>
+      <c r="AK51" s="189" t="s">
         <v>113</v>
       </c>
-      <c r="AL51" s="181"/>
+      <c r="AL51" s="190"/>
       <c r="AM51" s="124" t="s">
         <v>157</v>
       </c>
@@ -8871,20 +9031,20 @@
       <c r="CA1" s="35"/>
       <c r="CB1" s="35"/>
       <c r="CC1" s="36"/>
-      <c r="CD1" s="188">
+      <c r="CD1" s="197">
         <f>変更履歴!E5</f>
         <v>43707</v>
       </c>
-      <c r="CE1" s="189"/>
-      <c r="CF1" s="189"/>
-      <c r="CG1" s="189"/>
-      <c r="CH1" s="189"/>
-      <c r="CI1" s="189"/>
-      <c r="CJ1" s="189"/>
-      <c r="CK1" s="189"/>
-      <c r="CL1" s="189"/>
-      <c r="CM1" s="189"/>
-      <c r="CN1" s="190"/>
+      <c r="CE1" s="198"/>
+      <c r="CF1" s="198"/>
+      <c r="CG1" s="198"/>
+      <c r="CH1" s="198"/>
+      <c r="CI1" s="198"/>
+      <c r="CJ1" s="198"/>
+      <c r="CK1" s="198"/>
+      <c r="CL1" s="198"/>
+      <c r="CM1" s="198"/>
+      <c r="CN1" s="199"/>
       <c r="CO1" s="34" t="s">
         <v>25</v>
       </c>
@@ -8893,23 +9053,23 @@
       <c r="CR1" s="35"/>
       <c r="CS1" s="35"/>
       <c r="CT1" s="36"/>
-      <c r="CU1" s="177" t="str">
+      <c r="CU1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>陳</v>
       </c>
-      <c r="CV1" s="186"/>
-      <c r="CW1" s="186"/>
-      <c r="CX1" s="186"/>
-      <c r="CY1" s="186"/>
-      <c r="CZ1" s="186"/>
-      <c r="DA1" s="186"/>
-      <c r="DB1" s="186"/>
-      <c r="DC1" s="186"/>
-      <c r="DD1" s="186"/>
-      <c r="DE1" s="186"/>
-      <c r="DF1" s="186"/>
-      <c r="DG1" s="186"/>
-      <c r="DH1" s="187"/>
+      <c r="CV1" s="195"/>
+      <c r="CW1" s="195"/>
+      <c r="CX1" s="195"/>
+      <c r="CY1" s="195"/>
+      <c r="CZ1" s="195"/>
+      <c r="DA1" s="195"/>
+      <c r="DB1" s="195"/>
+      <c r="DC1" s="195"/>
+      <c r="DD1" s="195"/>
+      <c r="DE1" s="195"/>
+      <c r="DF1" s="195"/>
+      <c r="DG1" s="195"/>
+      <c r="DH1" s="196"/>
     </row>
     <row r="2" spans="1:113" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -8964,39 +9124,39 @@
       <c r="AQ2" s="93"/>
       <c r="AR2" s="93"/>
       <c r="AS2" s="94"/>
-      <c r="AT2" s="192" t="str">
+      <c r="AT2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>採番マスタ</v>
       </c>
-      <c r="AU2" s="193"/>
-      <c r="AV2" s="193"/>
-      <c r="AW2" s="193"/>
-      <c r="AX2" s="193"/>
-      <c r="AY2" s="193"/>
-      <c r="AZ2" s="193"/>
-      <c r="BA2" s="193"/>
-      <c r="BB2" s="193"/>
-      <c r="BC2" s="193"/>
-      <c r="BD2" s="193"/>
-      <c r="BE2" s="193"/>
-      <c r="BF2" s="193"/>
-      <c r="BG2" s="193"/>
-      <c r="BH2" s="193"/>
-      <c r="BI2" s="193"/>
-      <c r="BJ2" s="193"/>
-      <c r="BK2" s="193"/>
-      <c r="BL2" s="193"/>
-      <c r="BM2" s="193"/>
-      <c r="BN2" s="193"/>
-      <c r="BO2" s="193"/>
-      <c r="BP2" s="193"/>
-      <c r="BQ2" s="193"/>
-      <c r="BR2" s="193"/>
-      <c r="BS2" s="193"/>
-      <c r="BT2" s="193"/>
-      <c r="BU2" s="193"/>
-      <c r="BV2" s="193"/>
-      <c r="BW2" s="194"/>
+      <c r="AU2" s="202"/>
+      <c r="AV2" s="202"/>
+      <c r="AW2" s="202"/>
+      <c r="AX2" s="202"/>
+      <c r="AY2" s="202"/>
+      <c r="AZ2" s="202"/>
+      <c r="BA2" s="202"/>
+      <c r="BB2" s="202"/>
+      <c r="BC2" s="202"/>
+      <c r="BD2" s="202"/>
+      <c r="BE2" s="202"/>
+      <c r="BF2" s="202"/>
+      <c r="BG2" s="202"/>
+      <c r="BH2" s="202"/>
+      <c r="BI2" s="202"/>
+      <c r="BJ2" s="202"/>
+      <c r="BK2" s="202"/>
+      <c r="BL2" s="202"/>
+      <c r="BM2" s="202"/>
+      <c r="BN2" s="202"/>
+      <c r="BO2" s="202"/>
+      <c r="BP2" s="202"/>
+      <c r="BQ2" s="202"/>
+      <c r="BR2" s="202"/>
+      <c r="BS2" s="202"/>
+      <c r="BT2" s="202"/>
+      <c r="BU2" s="202"/>
+      <c r="BV2" s="202"/>
+      <c r="BW2" s="203"/>
       <c r="BX2" s="34" t="s">
         <v>24</v>
       </c>
@@ -9005,17 +9165,17 @@
       <c r="CA2" s="35"/>
       <c r="CB2" s="35"/>
       <c r="CC2" s="36"/>
-      <c r="CD2" s="191"/>
-      <c r="CE2" s="186"/>
-      <c r="CF2" s="186"/>
-      <c r="CG2" s="186"/>
-      <c r="CH2" s="186"/>
-      <c r="CI2" s="186"/>
-      <c r="CJ2" s="186"/>
-      <c r="CK2" s="186"/>
-      <c r="CL2" s="186"/>
-      <c r="CM2" s="186"/>
-      <c r="CN2" s="187"/>
+      <c r="CD2" s="200"/>
+      <c r="CE2" s="195"/>
+      <c r="CF2" s="195"/>
+      <c r="CG2" s="195"/>
+      <c r="CH2" s="195"/>
+      <c r="CI2" s="195"/>
+      <c r="CJ2" s="195"/>
+      <c r="CK2" s="195"/>
+      <c r="CL2" s="195"/>
+      <c r="CM2" s="195"/>
+      <c r="CN2" s="196"/>
       <c r="CO2" s="34" t="s">
         <v>26</v>
       </c>
@@ -9024,20 +9184,20 @@
       <c r="CR2" s="35"/>
       <c r="CS2" s="35"/>
       <c r="CT2" s="36"/>
-      <c r="CU2" s="177"/>
-      <c r="CV2" s="186"/>
-      <c r="CW2" s="186"/>
-      <c r="CX2" s="186"/>
-      <c r="CY2" s="186"/>
-      <c r="CZ2" s="186"/>
-      <c r="DA2" s="186"/>
-      <c r="DB2" s="186"/>
-      <c r="DC2" s="186"/>
-      <c r="DD2" s="186"/>
-      <c r="DE2" s="186"/>
-      <c r="DF2" s="186"/>
-      <c r="DG2" s="186"/>
-      <c r="DH2" s="187"/>
+      <c r="CU2" s="186"/>
+      <c r="CV2" s="195"/>
+      <c r="CW2" s="195"/>
+      <c r="CX2" s="195"/>
+      <c r="CY2" s="195"/>
+      <c r="CZ2" s="195"/>
+      <c r="DA2" s="195"/>
+      <c r="DB2" s="195"/>
+      <c r="DC2" s="195"/>
+      <c r="DD2" s="195"/>
+      <c r="DE2" s="195"/>
+      <c r="DF2" s="195"/>
+      <c r="DG2" s="195"/>
+      <c r="DH2" s="196"/>
     </row>
     <row r="3" spans="1:113" x14ac:dyDescent="0.25">
       <c r="AU3" s="56"/>
@@ -9240,37 +9400,37 @@
     <row r="6" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
       <c r="B6" s="15"/>
-      <c r="C6" s="136" t="s">
+      <c r="C6" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="136" t="s">
+      <c r="D6" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E6" s="136" t="s">
+      <c r="E6" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="136" t="s">
+      <c r="G6" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="136" t="s">
+      <c r="H6" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="195" t="s">
+      <c r="I6" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="195" t="s">
+      <c r="J6" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="136" t="s">
+      <c r="K6" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="136" t="s">
+      <c r="L6" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M6" s="136" t="s">
+      <c r="M6" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N6" s="72" t="s">
@@ -9278,24 +9438,24 @@
       </c>
       <c r="O6" s="72"/>
       <c r="P6" s="72"/>
-      <c r="Q6" s="195" t="s">
+      <c r="Q6" s="206" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
       <c r="B7" s="15"/>
-      <c r="C7" s="136"/>
-      <c r="D7" s="136"/>
-      <c r="E7" s="136"/>
-      <c r="F7" s="136"/>
-      <c r="G7" s="136"/>
-      <c r="H7" s="136"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="136"/>
-      <c r="L7" s="136"/>
-      <c r="M7" s="136"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="176"/>
+      <c r="G7" s="176"/>
+      <c r="H7" s="176"/>
+      <c r="I7" s="206"/>
+      <c r="J7" s="206"/>
+      <c r="K7" s="176"/>
+      <c r="L7" s="176"/>
+      <c r="M7" s="176"/>
       <c r="N7" s="43" t="s">
         <v>80</v>
       </c>
@@ -9305,7 +9465,7 @@
       <c r="P7" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="195"/>
+      <c r="Q7" s="206"/>
     </row>
     <row r="8" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
@@ -9602,37 +9762,37 @@
     <row r="16" spans="1:18" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
-      <c r="C16" s="136" t="s">
+      <c r="C16" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="136" t="s">
+      <c r="D16" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E16" s="136" t="s">
+      <c r="E16" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F16" s="136" t="s">
+      <c r="F16" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="136" t="s">
+      <c r="G16" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H16" s="136" t="s">
+      <c r="H16" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="196" t="s">
+      <c r="I16" s="204" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="195" t="s">
+      <c r="J16" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K16" s="136" t="s">
+      <c r="K16" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L16" s="136" t="s">
+      <c r="L16" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="136" t="s">
+      <c r="M16" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N16" s="72" t="s">
@@ -9640,24 +9800,24 @@
       </c>
       <c r="O16" s="72"/>
       <c r="P16" s="72"/>
-      <c r="Q16" s="196" t="s">
+      <c r="Q16" s="204" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="15.75" x14ac:dyDescent="0.15">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
-      <c r="C17" s="136"/>
-      <c r="D17" s="136"/>
-      <c r="E17" s="136"/>
-      <c r="F17" s="136"/>
-      <c r="G17" s="136"/>
-      <c r="H17" s="136"/>
-      <c r="I17" s="197"/>
-      <c r="J17" s="195"/>
-      <c r="K17" s="136"/>
-      <c r="L17" s="136"/>
-      <c r="M17" s="136"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="176"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="176"/>
+      <c r="G17" s="176"/>
+      <c r="H17" s="176"/>
+      <c r="I17" s="205"/>
+      <c r="J17" s="206"/>
+      <c r="K17" s="176"/>
+      <c r="L17" s="176"/>
+      <c r="M17" s="176"/>
       <c r="N17" s="43" t="s">
         <v>80</v>
       </c>
@@ -9667,7 +9827,7 @@
       <c r="P17" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Q17" s="197"/>
+      <c r="Q17" s="205"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="15"/>
@@ -9723,37 +9883,37 @@
     <row r="21" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="15"/>
       <c r="B21" s="64"/>
-      <c r="C21" s="136" t="s">
+      <c r="C21" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D21" s="136" t="s">
+      <c r="D21" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="136" t="s">
+      <c r="E21" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F21" s="136" t="s">
+      <c r="F21" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="136" t="s">
+      <c r="G21" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H21" s="136" t="s">
+      <c r="H21" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I21" s="195" t="s">
+      <c r="I21" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="J21" s="195" t="s">
+      <c r="J21" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K21" s="136" t="s">
+      <c r="K21" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="136" t="s">
+      <c r="L21" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M21" s="136" t="s">
+      <c r="M21" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="72" t="s">
@@ -9761,24 +9921,24 @@
       </c>
       <c r="O21" s="72"/>
       <c r="P21" s="72"/>
-      <c r="Q21" s="195" t="s">
+      <c r="Q21" s="206" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="15"/>
       <c r="B22" s="64"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="136"/>
-      <c r="F22" s="136"/>
-      <c r="G22" s="136"/>
-      <c r="H22" s="136"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="136"/>
-      <c r="L22" s="136"/>
-      <c r="M22" s="136"/>
+      <c r="C22" s="176"/>
+      <c r="D22" s="176"/>
+      <c r="E22" s="176"/>
+      <c r="F22" s="176"/>
+      <c r="G22" s="176"/>
+      <c r="H22" s="176"/>
+      <c r="I22" s="206"/>
+      <c r="J22" s="206"/>
+      <c r="K22" s="176"/>
+      <c r="L22" s="176"/>
+      <c r="M22" s="176"/>
       <c r="N22" s="43" t="s">
         <v>80</v>
       </c>
@@ -9788,7 +9948,7 @@
       <c r="P22" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="Q22" s="195"/>
+      <c r="Q22" s="206"/>
     </row>
     <row r="23" spans="1:17" s="51" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="57"/>
@@ -10003,10 +10163,10 @@
     <row r="28" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A28" s="15"/>
       <c r="B28" s="64"/>
-      <c r="C28" s="212">
+      <c r="C28" s="131">
         <v>5</v>
       </c>
-      <c r="D28" s="212" t="s">
+      <c r="D28" s="131" t="s">
         <v>150</v>
       </c>
       <c r="E28" s="16" t="s">
@@ -10050,10 +10210,10 @@
     <row r="29" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A29" s="15"/>
       <c r="B29" s="64"/>
-      <c r="C29" s="212">
+      <c r="C29" s="131">
         <v>6</v>
       </c>
-      <c r="D29" s="212" t="s">
+      <c r="D29" s="131" t="s">
         <v>130</v>
       </c>
       <c r="E29" s="16" t="s">
@@ -10172,37 +10332,37 @@
     <row r="33" spans="1:17" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15"/>
       <c r="B33" s="64"/>
-      <c r="C33" s="136" t="s">
+      <c r="C33" s="176" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="136" t="s">
+      <c r="D33" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="136" t="s">
+      <c r="E33" s="176" t="s">
         <v>37</v>
       </c>
-      <c r="F33" s="136" t="s">
+      <c r="F33" s="176" t="s">
         <v>38</v>
       </c>
-      <c r="G33" s="136" t="s">
+      <c r="G33" s="176" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="136" t="s">
+      <c r="H33" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="I33" s="195" t="s">
+      <c r="I33" s="206" t="s">
         <v>44</v>
       </c>
-      <c r="J33" s="195" t="s">
+      <c r="J33" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="K33" s="136" t="s">
+      <c r="K33" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="L33" s="136" t="s">
+      <c r="L33" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="M33" s="136" t="s">
+      <c r="M33" s="176" t="s">
         <v>33</v>
       </c>
       <c r="N33" s="72" t="s">
@@ -10210,24 +10370,24 @@
       </c>
       <c r="O33" s="72"/>
       <c r="P33" s="72"/>
-      <c r="Q33" s="195" t="s">
+      <c r="Q33" s="206" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A34" s="15"/>
       <c r="B34" s="64"/>
-      <c r="C34" s="136"/>
-      <c r="D34" s="136"/>
-      <c r="E34" s="136"/>
-      <c r="F34" s="136"/>
-      <c r="G34" s="136"/>
-      <c r="H34" s="136"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="136"/>
-      <c r="L34" s="136"/>
-      <c r="M34" s="136"/>
+      <c r="C34" s="176"/>
+      <c r="D34" s="176"/>
+      <c r="E34" s="176"/>
+      <c r="F34" s="176"/>
+      <c r="G34" s="176"/>
+      <c r="H34" s="176"/>
+      <c r="I34" s="206"/>
+      <c r="J34" s="206"/>
+      <c r="K34" s="176"/>
+      <c r="L34" s="176"/>
+      <c r="M34" s="176"/>
       <c r="N34" s="91" t="s">
         <v>80</v>
       </c>
@@ -10237,7 +10397,7 @@
       <c r="P34" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="Q34" s="195"/>
+      <c r="Q34" s="206"/>
     </row>
     <row r="35" spans="1:17" ht="57" x14ac:dyDescent="0.15">
       <c r="A35" s="15"/>
@@ -10340,10 +10500,10 @@
     <row r="37" spans="1:17" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A37" s="15"/>
       <c r="B37" s="64"/>
-      <c r="C37" s="212">
+      <c r="C37" s="131">
         <v>3</v>
       </c>
-      <c r="D37" s="212" t="s">
+      <c r="D37" s="131" t="s">
         <v>131</v>
       </c>
       <c r="E37" s="16" t="s">
@@ -10389,10 +10549,10 @@
     <row r="38" spans="1:17" ht="42.75" x14ac:dyDescent="0.15">
       <c r="A38" s="15"/>
       <c r="B38" s="64"/>
-      <c r="C38" s="212">
+      <c r="C38" s="131">
         <v>4</v>
       </c>
-      <c r="D38" s="212" t="s">
+      <c r="D38" s="131" t="s">
         <v>151</v>
       </c>
       <c r="E38" s="16" t="s">
@@ -10498,6 +10658,38 @@
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="Q33:Q34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="I33:I34"/>
+    <mergeCell ref="J33:J34"/>
+    <mergeCell ref="K33:K34"/>
+    <mergeCell ref="L33:L34"/>
+    <mergeCell ref="M33:M34"/>
+    <mergeCell ref="Q6:Q7"/>
+    <mergeCell ref="Q16:Q17"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="Q21:Q22"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F6:F7"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="J16:J17"/>
     <mergeCell ref="I21:I22"/>
@@ -10514,38 +10706,6 @@
     <mergeCell ref="G16:G17"/>
     <mergeCell ref="H16:H17"/>
     <mergeCell ref="D16:D17"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="Q6:Q7"/>
-    <mergeCell ref="Q16:Q17"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="Q21:Q22"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="Q33:Q34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="I33:I34"/>
-    <mergeCell ref="J33:J34"/>
-    <mergeCell ref="K33:K34"/>
-    <mergeCell ref="L33:L34"/>
-    <mergeCell ref="M33:M34"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.62992125984251968" right="0.62992125984251968" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -10619,14 +10779,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43707</v>
       </c>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="193"/>
-      <c r="AM1" s="194"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -10635,16 +10795,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>陳</v>
       </c>
-      <c r="AU1" s="186"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="186"/>
-      <c r="AX1" s="186"/>
-      <c r="AY1" s="186"/>
-      <c r="AZ1" s="187"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -10672,32 +10832,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="192" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>採番マスタ</v>
       </c>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="194"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="186"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="187"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -10706,13 +10866,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="187"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -11982,570 +12142,570 @@
       <c r="C29" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="D29" s="213"/>
-      <c r="E29" s="213"/>
-      <c r="F29" s="214"/>
+      <c r="D29" s="132"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
       <c r="G29" s="21" t="s">
         <v>233</v>
       </c>
-      <c r="H29" s="213"/>
-      <c r="I29" s="213"/>
-      <c r="J29" s="213"/>
-      <c r="K29" s="214"/>
-      <c r="L29" s="215" t="s">
+      <c r="H29" s="132"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="132"/>
+      <c r="K29" s="133"/>
+      <c r="L29" s="134" t="s">
         <v>234</v>
       </c>
-      <c r="M29" s="213"/>
-      <c r="N29" s="213"/>
-      <c r="O29" s="213"/>
-      <c r="P29" s="213"/>
-      <c r="Q29" s="213"/>
-      <c r="R29" s="213"/>
-      <c r="S29" s="213"/>
-      <c r="T29" s="213"/>
-      <c r="U29" s="213"/>
-      <c r="V29" s="213"/>
-      <c r="W29" s="213"/>
-      <c r="X29" s="213"/>
-      <c r="Y29" s="213"/>
-      <c r="Z29" s="213"/>
-      <c r="AA29" s="213"/>
-      <c r="AB29" s="213"/>
-      <c r="AC29" s="213"/>
-      <c r="AD29" s="213"/>
-      <c r="AE29" s="213"/>
-      <c r="AF29" s="213"/>
-      <c r="AG29" s="213"/>
-      <c r="AH29" s="213"/>
-      <c r="AI29" s="213"/>
-      <c r="AJ29" s="213"/>
-      <c r="AK29" s="213"/>
-      <c r="AL29" s="213"/>
-      <c r="AM29" s="213"/>
-      <c r="AN29" s="213"/>
-      <c r="AO29" s="213"/>
-      <c r="AP29" s="213"/>
-      <c r="AQ29" s="213"/>
-      <c r="AR29" s="213"/>
-      <c r="AS29" s="213"/>
-      <c r="AT29" s="213"/>
-      <c r="AU29" s="213"/>
-      <c r="AV29" s="214"/>
-      <c r="AW29" s="213"/>
+      <c r="M29" s="132"/>
+      <c r="N29" s="132"/>
+      <c r="O29" s="132"/>
+      <c r="P29" s="132"/>
+      <c r="Q29" s="132"/>
+      <c r="R29" s="132"/>
+      <c r="S29" s="132"/>
+      <c r="T29" s="132"/>
+      <c r="U29" s="132"/>
+      <c r="V29" s="132"/>
+      <c r="W29" s="132"/>
+      <c r="X29" s="132"/>
+      <c r="Y29" s="132"/>
+      <c r="Z29" s="132"/>
+      <c r="AA29" s="132"/>
+      <c r="AB29" s="132"/>
+      <c r="AC29" s="132"/>
+      <c r="AD29" s="132"/>
+      <c r="AE29" s="132"/>
+      <c r="AF29" s="132"/>
+      <c r="AG29" s="132"/>
+      <c r="AH29" s="132"/>
+      <c r="AI29" s="132"/>
+      <c r="AJ29" s="132"/>
+      <c r="AK29" s="132"/>
+      <c r="AL29" s="132"/>
+      <c r="AM29" s="132"/>
+      <c r="AN29" s="132"/>
+      <c r="AO29" s="132"/>
+      <c r="AP29" s="132"/>
+      <c r="AQ29" s="132"/>
+      <c r="AR29" s="132"/>
+      <c r="AS29" s="132"/>
+      <c r="AT29" s="132"/>
+      <c r="AU29" s="132"/>
+      <c r="AV29" s="133"/>
+      <c r="AW29" s="132"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="216"/>
-      <c r="C30" s="216"/>
-      <c r="D30" s="213"/>
-      <c r="E30" s="213"/>
-      <c r="F30" s="214"/>
+      <c r="B30" s="135"/>
+      <c r="C30" s="135"/>
+      <c r="D30" s="132"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
       <c r="G30" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="H30" s="213"/>
-      <c r="I30" s="213"/>
-      <c r="J30" s="213"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="213" t="s">
+      <c r="H30" s="132"/>
+      <c r="I30" s="132"/>
+      <c r="J30" s="132"/>
+      <c r="K30" s="133"/>
+      <c r="L30" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="M30" s="213"/>
-      <c r="N30" s="213"/>
-      <c r="O30" s="213"/>
-      <c r="P30" s="213"/>
-      <c r="Q30" s="213"/>
-      <c r="R30" s="213"/>
-      <c r="S30" s="213"/>
-      <c r="T30" s="213"/>
-      <c r="U30" s="213"/>
-      <c r="V30" s="213"/>
-      <c r="W30" s="213"/>
-      <c r="X30" s="213"/>
-      <c r="Y30" s="213"/>
-      <c r="Z30" s="213"/>
-      <c r="AA30" s="213"/>
-      <c r="AB30" s="213"/>
-      <c r="AC30" s="213"/>
-      <c r="AD30" s="213"/>
-      <c r="AE30" s="213"/>
-      <c r="AF30" s="213"/>
-      <c r="AG30" s="213"/>
-      <c r="AH30" s="213"/>
-      <c r="AI30" s="213"/>
-      <c r="AJ30" s="213"/>
-      <c r="AK30" s="213"/>
-      <c r="AL30" s="213"/>
-      <c r="AM30" s="213"/>
-      <c r="AN30" s="213"/>
-      <c r="AO30" s="213"/>
-      <c r="AP30" s="213"/>
-      <c r="AQ30" s="213"/>
-      <c r="AR30" s="213"/>
-      <c r="AS30" s="213"/>
-      <c r="AT30" s="213"/>
-      <c r="AU30" s="213"/>
-      <c r="AV30" s="214"/>
-      <c r="AW30" s="213"/>
+      <c r="M30" s="132"/>
+      <c r="N30" s="132"/>
+      <c r="O30" s="132"/>
+      <c r="P30" s="132"/>
+      <c r="Q30" s="132"/>
+      <c r="R30" s="132"/>
+      <c r="S30" s="132"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+      <c r="V30" s="132"/>
+      <c r="W30" s="132"/>
+      <c r="X30" s="132"/>
+      <c r="Y30" s="132"/>
+      <c r="Z30" s="132"/>
+      <c r="AA30" s="132"/>
+      <c r="AB30" s="132"/>
+      <c r="AC30" s="132"/>
+      <c r="AD30" s="132"/>
+      <c r="AE30" s="132"/>
+      <c r="AF30" s="132"/>
+      <c r="AG30" s="132"/>
+      <c r="AH30" s="132"/>
+      <c r="AI30" s="132"/>
+      <c r="AJ30" s="132"/>
+      <c r="AK30" s="132"/>
+      <c r="AL30" s="132"/>
+      <c r="AM30" s="132"/>
+      <c r="AN30" s="132"/>
+      <c r="AO30" s="132"/>
+      <c r="AP30" s="132"/>
+      <c r="AQ30" s="132"/>
+      <c r="AR30" s="132"/>
+      <c r="AS30" s="132"/>
+      <c r="AT30" s="132"/>
+      <c r="AU30" s="132"/>
+      <c r="AV30" s="133"/>
+      <c r="AW30" s="132"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B31" s="216"/>
-      <c r="C31" s="216"/>
-      <c r="D31" s="213"/>
-      <c r="E31" s="213"/>
-      <c r="F31" s="214"/>
+      <c r="B31" s="135"/>
+      <c r="C31" s="135"/>
+      <c r="D31" s="132"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
       <c r="G31" s="75"/>
-      <c r="H31" s="213"/>
-      <c r="I31" s="213"/>
-      <c r="J31" s="213"/>
-      <c r="K31" s="214"/>
-      <c r="L31" s="213"/>
-      <c r="M31" s="213"/>
-      <c r="N31" s="213"/>
-      <c r="O31" s="213"/>
-      <c r="P31" s="213"/>
-      <c r="Q31" s="213"/>
-      <c r="R31" s="213"/>
-      <c r="S31" s="213"/>
-      <c r="T31" s="213"/>
-      <c r="U31" s="213"/>
-      <c r="V31" s="213"/>
-      <c r="W31" s="213"/>
-      <c r="X31" s="213"/>
-      <c r="Y31" s="213"/>
-      <c r="Z31" s="213"/>
-      <c r="AA31" s="213"/>
-      <c r="AB31" s="213"/>
-      <c r="AC31" s="213"/>
-      <c r="AD31" s="213"/>
-      <c r="AE31" s="213"/>
-      <c r="AF31" s="213"/>
-      <c r="AG31" s="213"/>
-      <c r="AH31" s="213"/>
-      <c r="AI31" s="213"/>
-      <c r="AJ31" s="213"/>
-      <c r="AK31" s="213"/>
-      <c r="AL31" s="213"/>
-      <c r="AM31" s="213"/>
-      <c r="AN31" s="213"/>
-      <c r="AO31" s="213"/>
-      <c r="AP31" s="213"/>
-      <c r="AQ31" s="213"/>
-      <c r="AR31" s="213"/>
-      <c r="AS31" s="213"/>
-      <c r="AT31" s="213"/>
-      <c r="AU31" s="213"/>
-      <c r="AV31" s="214"/>
-      <c r="AW31" s="213"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="132"/>
+      <c r="K31" s="133"/>
+      <c r="L31" s="132"/>
+      <c r="M31" s="132"/>
+      <c r="N31" s="132"/>
+      <c r="O31" s="132"/>
+      <c r="P31" s="132"/>
+      <c r="Q31" s="132"/>
+      <c r="R31" s="132"/>
+      <c r="S31" s="132"/>
+      <c r="T31" s="132"/>
+      <c r="U31" s="132"/>
+      <c r="V31" s="132"/>
+      <c r="W31" s="132"/>
+      <c r="X31" s="132"/>
+      <c r="Y31" s="132"/>
+      <c r="Z31" s="132"/>
+      <c r="AA31" s="132"/>
+      <c r="AB31" s="132"/>
+      <c r="AC31" s="132"/>
+      <c r="AD31" s="132"/>
+      <c r="AE31" s="132"/>
+      <c r="AF31" s="132"/>
+      <c r="AG31" s="132"/>
+      <c r="AH31" s="132"/>
+      <c r="AI31" s="132"/>
+      <c r="AJ31" s="132"/>
+      <c r="AK31" s="132"/>
+      <c r="AL31" s="132"/>
+      <c r="AM31" s="132"/>
+      <c r="AN31" s="132"/>
+      <c r="AO31" s="132"/>
+      <c r="AP31" s="132"/>
+      <c r="AQ31" s="132"/>
+      <c r="AR31" s="132"/>
+      <c r="AS31" s="132"/>
+      <c r="AT31" s="132"/>
+      <c r="AU31" s="132"/>
+      <c r="AV31" s="133"/>
+      <c r="AW31" s="132"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="216"/>
-      <c r="C32" s="216"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="213"/>
-      <c r="F32" s="214"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="132"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
       <c r="G32" s="75"/>
-      <c r="H32" s="213"/>
-      <c r="I32" s="213"/>
-      <c r="J32" s="213"/>
-      <c r="K32" s="214"/>
-      <c r="L32" s="213" t="s">
+      <c r="H32" s="132"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="132"/>
+      <c r="K32" s="133"/>
+      <c r="L32" s="132" t="s">
         <v>237</v>
       </c>
-      <c r="M32" s="213"/>
-      <c r="N32" s="213"/>
-      <c r="O32" s="213"/>
-      <c r="P32" s="213"/>
-      <c r="Q32" s="213"/>
-      <c r="R32" s="213"/>
-      <c r="S32" s="213"/>
-      <c r="T32" s="213"/>
-      <c r="U32" s="213"/>
-      <c r="V32" s="213"/>
-      <c r="W32" s="213"/>
-      <c r="X32" s="213"/>
-      <c r="Y32" s="213"/>
-      <c r="Z32" s="213"/>
-      <c r="AA32" s="213"/>
-      <c r="AB32" s="213"/>
-      <c r="AC32" s="213"/>
-      <c r="AD32" s="213"/>
-      <c r="AE32" s="213"/>
-      <c r="AF32" s="213"/>
-      <c r="AG32" s="213"/>
-      <c r="AH32" s="213"/>
-      <c r="AI32" s="213"/>
-      <c r="AJ32" s="213"/>
-      <c r="AK32" s="213"/>
-      <c r="AL32" s="213"/>
-      <c r="AM32" s="213"/>
-      <c r="AN32" s="213"/>
-      <c r="AO32" s="213"/>
-      <c r="AP32" s="213"/>
-      <c r="AQ32" s="213"/>
-      <c r="AR32" s="213"/>
-      <c r="AS32" s="213"/>
-      <c r="AT32" s="213"/>
-      <c r="AU32" s="213"/>
-      <c r="AV32" s="214"/>
-      <c r="AW32" s="213"/>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="132"/>
+      <c r="P32" s="132"/>
+      <c r="Q32" s="132"/>
+      <c r="R32" s="132"/>
+      <c r="S32" s="132"/>
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+      <c r="V32" s="132"/>
+      <c r="W32" s="132"/>
+      <c r="X32" s="132"/>
+      <c r="Y32" s="132"/>
+      <c r="Z32" s="132"/>
+      <c r="AA32" s="132"/>
+      <c r="AB32" s="132"/>
+      <c r="AC32" s="132"/>
+      <c r="AD32" s="132"/>
+      <c r="AE32" s="132"/>
+      <c r="AF32" s="132"/>
+      <c r="AG32" s="132"/>
+      <c r="AH32" s="132"/>
+      <c r="AI32" s="132"/>
+      <c r="AJ32" s="132"/>
+      <c r="AK32" s="132"/>
+      <c r="AL32" s="132"/>
+      <c r="AM32" s="132"/>
+      <c r="AN32" s="132"/>
+      <c r="AO32" s="132"/>
+      <c r="AP32" s="132"/>
+      <c r="AQ32" s="132"/>
+      <c r="AR32" s="132"/>
+      <c r="AS32" s="132"/>
+      <c r="AT32" s="132"/>
+      <c r="AU32" s="132"/>
+      <c r="AV32" s="133"/>
+      <c r="AW32" s="132"/>
     </row>
     <row r="33" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="216"/>
-      <c r="C33" s="216"/>
-      <c r="D33" s="213"/>
-      <c r="E33" s="213"/>
-      <c r="F33" s="214"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="135"/>
+      <c r="D33" s="132"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
       <c r="G33" s="75"/>
-      <c r="H33" s="213"/>
-      <c r="I33" s="213"/>
-      <c r="J33" s="213"/>
-      <c r="K33" s="214"/>
-      <c r="L33" s="213" t="s">
+      <c r="H33" s="132"/>
+      <c r="I33" s="132"/>
+      <c r="J33" s="132"/>
+      <c r="K33" s="133"/>
+      <c r="L33" s="132" t="s">
         <v>238</v>
       </c>
-      <c r="M33" s="213"/>
-      <c r="N33" s="213"/>
-      <c r="O33" s="213"/>
-      <c r="P33" s="213"/>
-      <c r="Q33" s="213"/>
-      <c r="R33" s="213"/>
-      <c r="S33" s="213"/>
-      <c r="T33" s="213"/>
-      <c r="U33" s="213"/>
-      <c r="V33" s="213"/>
-      <c r="W33" s="213"/>
-      <c r="X33" s="213"/>
-      <c r="Y33" s="213"/>
-      <c r="Z33" s="213"/>
-      <c r="AA33" s="213"/>
-      <c r="AB33" s="213"/>
-      <c r="AC33" s="213"/>
-      <c r="AD33" s="213"/>
-      <c r="AE33" s="213"/>
-      <c r="AF33" s="213"/>
-      <c r="AG33" s="213"/>
-      <c r="AH33" s="213"/>
-      <c r="AI33" s="213"/>
-      <c r="AJ33" s="213"/>
-      <c r="AK33" s="213"/>
-      <c r="AL33" s="213"/>
-      <c r="AM33" s="213"/>
-      <c r="AN33" s="213"/>
-      <c r="AO33" s="213"/>
-      <c r="AP33" s="213"/>
-      <c r="AQ33" s="213"/>
-      <c r="AR33" s="213"/>
-      <c r="AS33" s="213"/>
-      <c r="AT33" s="213"/>
-      <c r="AU33" s="213"/>
-      <c r="AV33" s="214"/>
-      <c r="AW33" s="213"/>
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="132"/>
+      <c r="P33" s="132"/>
+      <c r="Q33" s="132"/>
+      <c r="R33" s="132"/>
+      <c r="S33" s="132"/>
+      <c r="T33" s="132"/>
+      <c r="U33" s="132"/>
+      <c r="V33" s="132"/>
+      <c r="W33" s="132"/>
+      <c r="X33" s="132"/>
+      <c r="Y33" s="132"/>
+      <c r="Z33" s="132"/>
+      <c r="AA33" s="132"/>
+      <c r="AB33" s="132"/>
+      <c r="AC33" s="132"/>
+      <c r="AD33" s="132"/>
+      <c r="AE33" s="132"/>
+      <c r="AF33" s="132"/>
+      <c r="AG33" s="132"/>
+      <c r="AH33" s="132"/>
+      <c r="AI33" s="132"/>
+      <c r="AJ33" s="132"/>
+      <c r="AK33" s="132"/>
+      <c r="AL33" s="132"/>
+      <c r="AM33" s="132"/>
+      <c r="AN33" s="132"/>
+      <c r="AO33" s="132"/>
+      <c r="AP33" s="132"/>
+      <c r="AQ33" s="132"/>
+      <c r="AR33" s="132"/>
+      <c r="AS33" s="132"/>
+      <c r="AT33" s="132"/>
+      <c r="AU33" s="132"/>
+      <c r="AV33" s="133"/>
+      <c r="AW33" s="132"/>
     </row>
     <row r="34" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="216"/>
-      <c r="C34" s="216"/>
-      <c r="D34" s="213"/>
-      <c r="E34" s="213"/>
-      <c r="F34" s="214"/>
+      <c r="B34" s="135"/>
+      <c r="C34" s="135"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="133"/>
       <c r="G34" s="75"/>
-      <c r="H34" s="213"/>
-      <c r="I34" s="213"/>
-      <c r="J34" s="213"/>
-      <c r="K34" s="214"/>
-      <c r="L34" s="213"/>
-      <c r="M34" s="213"/>
-      <c r="N34" s="213"/>
-      <c r="O34" s="213"/>
-      <c r="P34" s="213"/>
-      <c r="Q34" s="213"/>
-      <c r="R34" s="213"/>
-      <c r="S34" s="213"/>
-      <c r="T34" s="213"/>
-      <c r="U34" s="213"/>
-      <c r="V34" s="213"/>
-      <c r="W34" s="213"/>
-      <c r="X34" s="213"/>
-      <c r="Y34" s="213"/>
-      <c r="Z34" s="213"/>
-      <c r="AA34" s="213"/>
-      <c r="AB34" s="213"/>
-      <c r="AC34" s="213"/>
-      <c r="AD34" s="213"/>
-      <c r="AE34" s="213"/>
-      <c r="AF34" s="213"/>
-      <c r="AG34" s="213"/>
-      <c r="AH34" s="213"/>
-      <c r="AI34" s="213"/>
-      <c r="AJ34" s="213"/>
-      <c r="AK34" s="213"/>
-      <c r="AL34" s="213"/>
-      <c r="AM34" s="213"/>
-      <c r="AN34" s="213"/>
-      <c r="AO34" s="213"/>
-      <c r="AP34" s="213"/>
-      <c r="AQ34" s="213"/>
-      <c r="AR34" s="213"/>
-      <c r="AS34" s="213"/>
-      <c r="AT34" s="213"/>
-      <c r="AU34" s="213"/>
-      <c r="AV34" s="214"/>
-      <c r="AW34" s="213"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
+      <c r="K34" s="133"/>
+      <c r="L34" s="132"/>
+      <c r="M34" s="132"/>
+      <c r="N34" s="132"/>
+      <c r="O34" s="132"/>
+      <c r="P34" s="132"/>
+      <c r="Q34" s="132"/>
+      <c r="R34" s="132"/>
+      <c r="S34" s="132"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+      <c r="V34" s="132"/>
+      <c r="W34" s="132"/>
+      <c r="X34" s="132"/>
+      <c r="Y34" s="132"/>
+      <c r="Z34" s="132"/>
+      <c r="AA34" s="132"/>
+      <c r="AB34" s="132"/>
+      <c r="AC34" s="132"/>
+      <c r="AD34" s="132"/>
+      <c r="AE34" s="132"/>
+      <c r="AF34" s="132"/>
+      <c r="AG34" s="132"/>
+      <c r="AH34" s="132"/>
+      <c r="AI34" s="132"/>
+      <c r="AJ34" s="132"/>
+      <c r="AK34" s="132"/>
+      <c r="AL34" s="132"/>
+      <c r="AM34" s="132"/>
+      <c r="AN34" s="132"/>
+      <c r="AO34" s="132"/>
+      <c r="AP34" s="132"/>
+      <c r="AQ34" s="132"/>
+      <c r="AR34" s="132"/>
+      <c r="AS34" s="132"/>
+      <c r="AT34" s="132"/>
+      <c r="AU34" s="132"/>
+      <c r="AV34" s="133"/>
+      <c r="AW34" s="132"/>
     </row>
     <row r="35" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="216"/>
-      <c r="C35" s="216"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="213"/>
-      <c r="F35" s="214"/>
+      <c r="B35" s="135"/>
+      <c r="C35" s="135"/>
+      <c r="D35" s="132"/>
+      <c r="E35" s="132"/>
+      <c r="F35" s="133"/>
       <c r="G35" s="75"/>
-      <c r="H35" s="213"/>
-      <c r="I35" s="213"/>
-      <c r="J35" s="213"/>
-      <c r="K35" s="214"/>
-      <c r="L35" s="213" t="s">
+      <c r="H35" s="132"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="132"/>
+      <c r="K35" s="133"/>
+      <c r="L35" s="132" t="s">
         <v>239</v>
       </c>
-      <c r="M35" s="213"/>
-      <c r="N35" s="213"/>
-      <c r="O35" s="213"/>
-      <c r="P35" s="213"/>
-      <c r="Q35" s="213"/>
-      <c r="R35" s="213"/>
-      <c r="S35" s="213"/>
-      <c r="T35" s="213"/>
-      <c r="U35" s="213"/>
-      <c r="V35" s="213"/>
-      <c r="W35" s="213"/>
-      <c r="X35" s="213"/>
-      <c r="Y35" s="213"/>
-      <c r="Z35" s="213"/>
-      <c r="AA35" s="213"/>
-      <c r="AB35" s="213"/>
-      <c r="AC35" s="213"/>
-      <c r="AD35" s="213"/>
-      <c r="AE35" s="213"/>
-      <c r="AF35" s="213"/>
-      <c r="AG35" s="213"/>
-      <c r="AH35" s="213"/>
-      <c r="AI35" s="213"/>
-      <c r="AJ35" s="213"/>
-      <c r="AK35" s="213"/>
-      <c r="AL35" s="213"/>
-      <c r="AM35" s="213"/>
-      <c r="AN35" s="213"/>
-      <c r="AO35" s="213"/>
-      <c r="AP35" s="213"/>
-      <c r="AQ35" s="213"/>
-      <c r="AR35" s="213"/>
-      <c r="AS35" s="213"/>
-      <c r="AT35" s="213"/>
-      <c r="AU35" s="213"/>
-      <c r="AV35" s="214"/>
-      <c r="AW35" s="213"/>
+      <c r="M35" s="132"/>
+      <c r="N35" s="132"/>
+      <c r="O35" s="132"/>
+      <c r="P35" s="132"/>
+      <c r="Q35" s="132"/>
+      <c r="R35" s="132"/>
+      <c r="S35" s="132"/>
+      <c r="T35" s="132"/>
+      <c r="U35" s="132"/>
+      <c r="V35" s="132"/>
+      <c r="W35" s="132"/>
+      <c r="X35" s="132"/>
+      <c r="Y35" s="132"/>
+      <c r="Z35" s="132"/>
+      <c r="AA35" s="132"/>
+      <c r="AB35" s="132"/>
+      <c r="AC35" s="132"/>
+      <c r="AD35" s="132"/>
+      <c r="AE35" s="132"/>
+      <c r="AF35" s="132"/>
+      <c r="AG35" s="132"/>
+      <c r="AH35" s="132"/>
+      <c r="AI35" s="132"/>
+      <c r="AJ35" s="132"/>
+      <c r="AK35" s="132"/>
+      <c r="AL35" s="132"/>
+      <c r="AM35" s="132"/>
+      <c r="AN35" s="132"/>
+      <c r="AO35" s="132"/>
+      <c r="AP35" s="132"/>
+      <c r="AQ35" s="132"/>
+      <c r="AR35" s="132"/>
+      <c r="AS35" s="132"/>
+      <c r="AT35" s="132"/>
+      <c r="AU35" s="132"/>
+      <c r="AV35" s="133"/>
+      <c r="AW35" s="132"/>
     </row>
     <row r="36" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="216"/>
-      <c r="C36" s="216"/>
-      <c r="D36" s="213"/>
-      <c r="E36" s="213"/>
-      <c r="F36" s="214"/>
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="133"/>
       <c r="G36" s="75"/>
-      <c r="H36" s="213"/>
-      <c r="I36" s="213"/>
-      <c r="J36" s="213"/>
-      <c r="K36" s="214"/>
-      <c r="L36" s="213" t="s">
+      <c r="H36" s="132"/>
+      <c r="I36" s="132"/>
+      <c r="J36" s="132"/>
+      <c r="K36" s="133"/>
+      <c r="L36" s="132" t="s">
         <v>236</v>
       </c>
-      <c r="M36" s="213"/>
-      <c r="N36" s="213"/>
-      <c r="O36" s="213"/>
-      <c r="P36" s="213"/>
-      <c r="Q36" s="213"/>
-      <c r="R36" s="213"/>
-      <c r="S36" s="213"/>
-      <c r="T36" s="213"/>
-      <c r="U36" s="213"/>
-      <c r="V36" s="213"/>
-      <c r="W36" s="213"/>
-      <c r="X36" s="213"/>
-      <c r="Y36" s="213"/>
-      <c r="Z36" s="213"/>
-      <c r="AA36" s="213"/>
-      <c r="AB36" s="213"/>
-      <c r="AC36" s="213"/>
-      <c r="AD36" s="213"/>
-      <c r="AE36" s="213"/>
-      <c r="AF36" s="213"/>
-      <c r="AG36" s="213"/>
-      <c r="AH36" s="213"/>
-      <c r="AI36" s="213"/>
-      <c r="AJ36" s="213"/>
-      <c r="AK36" s="213"/>
-      <c r="AL36" s="213"/>
-      <c r="AM36" s="213"/>
-      <c r="AN36" s="213"/>
-      <c r="AO36" s="213"/>
-      <c r="AP36" s="213"/>
-      <c r="AQ36" s="213"/>
-      <c r="AR36" s="213"/>
-      <c r="AS36" s="213"/>
-      <c r="AT36" s="213"/>
-      <c r="AU36" s="213"/>
-      <c r="AV36" s="214"/>
-      <c r="AW36" s="213"/>
+      <c r="M36" s="132"/>
+      <c r="N36" s="132"/>
+      <c r="O36" s="132"/>
+      <c r="P36" s="132"/>
+      <c r="Q36" s="132"/>
+      <c r="R36" s="132"/>
+      <c r="S36" s="132"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="132"/>
+      <c r="V36" s="132"/>
+      <c r="W36" s="132"/>
+      <c r="X36" s="132"/>
+      <c r="Y36" s="132"/>
+      <c r="Z36" s="132"/>
+      <c r="AA36" s="132"/>
+      <c r="AB36" s="132"/>
+      <c r="AC36" s="132"/>
+      <c r="AD36" s="132"/>
+      <c r="AE36" s="132"/>
+      <c r="AF36" s="132"/>
+      <c r="AG36" s="132"/>
+      <c r="AH36" s="132"/>
+      <c r="AI36" s="132"/>
+      <c r="AJ36" s="132"/>
+      <c r="AK36" s="132"/>
+      <c r="AL36" s="132"/>
+      <c r="AM36" s="132"/>
+      <c r="AN36" s="132"/>
+      <c r="AO36" s="132"/>
+      <c r="AP36" s="132"/>
+      <c r="AQ36" s="132"/>
+      <c r="AR36" s="132"/>
+      <c r="AS36" s="132"/>
+      <c r="AT36" s="132"/>
+      <c r="AU36" s="132"/>
+      <c r="AV36" s="133"/>
+      <c r="AW36" s="132"/>
     </row>
     <row r="37" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="216"/>
-      <c r="C37" s="216"/>
-      <c r="D37" s="213"/>
-      <c r="E37" s="213"/>
-      <c r="F37" s="214"/>
+      <c r="B37" s="135"/>
+      <c r="C37" s="135"/>
+      <c r="D37" s="132"/>
+      <c r="E37" s="132"/>
+      <c r="F37" s="133"/>
       <c r="G37" s="75"/>
-      <c r="H37" s="213"/>
-      <c r="I37" s="213"/>
-      <c r="J37" s="213"/>
-      <c r="K37" s="214"/>
-      <c r="L37" s="213"/>
-      <c r="M37" s="213"/>
-      <c r="N37" s="213"/>
-      <c r="O37" s="213"/>
-      <c r="P37" s="213"/>
-      <c r="Q37" s="213"/>
-      <c r="R37" s="213"/>
-      <c r="S37" s="213"/>
-      <c r="T37" s="213"/>
-      <c r="U37" s="213"/>
-      <c r="V37" s="213"/>
-      <c r="W37" s="213"/>
-      <c r="X37" s="213"/>
-      <c r="Y37" s="213"/>
-      <c r="Z37" s="213"/>
-      <c r="AA37" s="213"/>
-      <c r="AB37" s="213"/>
-      <c r="AC37" s="213"/>
-      <c r="AD37" s="213"/>
-      <c r="AE37" s="213"/>
-      <c r="AF37" s="213"/>
-      <c r="AG37" s="213"/>
-      <c r="AH37" s="213"/>
-      <c r="AI37" s="213"/>
-      <c r="AJ37" s="213"/>
-      <c r="AK37" s="213"/>
-      <c r="AL37" s="213"/>
-      <c r="AM37" s="213"/>
-      <c r="AN37" s="213"/>
-      <c r="AO37" s="213"/>
-      <c r="AP37" s="213"/>
-      <c r="AQ37" s="213"/>
-      <c r="AR37" s="213"/>
-      <c r="AS37" s="213"/>
-      <c r="AT37" s="213"/>
-      <c r="AU37" s="213"/>
-      <c r="AV37" s="214"/>
-      <c r="AW37" s="213"/>
+      <c r="H37" s="132"/>
+      <c r="I37" s="132"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="132"/>
+      <c r="M37" s="132"/>
+      <c r="N37" s="132"/>
+      <c r="O37" s="132"/>
+      <c r="P37" s="132"/>
+      <c r="Q37" s="132"/>
+      <c r="R37" s="132"/>
+      <c r="S37" s="132"/>
+      <c r="T37" s="132"/>
+      <c r="U37" s="132"/>
+      <c r="V37" s="132"/>
+      <c r="W37" s="132"/>
+      <c r="X37" s="132"/>
+      <c r="Y37" s="132"/>
+      <c r="Z37" s="132"/>
+      <c r="AA37" s="132"/>
+      <c r="AB37" s="132"/>
+      <c r="AC37" s="132"/>
+      <c r="AD37" s="132"/>
+      <c r="AE37" s="132"/>
+      <c r="AF37" s="132"/>
+      <c r="AG37" s="132"/>
+      <c r="AH37" s="132"/>
+      <c r="AI37" s="132"/>
+      <c r="AJ37" s="132"/>
+      <c r="AK37" s="132"/>
+      <c r="AL37" s="132"/>
+      <c r="AM37" s="132"/>
+      <c r="AN37" s="132"/>
+      <c r="AO37" s="132"/>
+      <c r="AP37" s="132"/>
+      <c r="AQ37" s="132"/>
+      <c r="AR37" s="132"/>
+      <c r="AS37" s="132"/>
+      <c r="AT37" s="132"/>
+      <c r="AU37" s="132"/>
+      <c r="AV37" s="133"/>
+      <c r="AW37" s="132"/>
     </row>
     <row r="38" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="216"/>
-      <c r="C38" s="216"/>
-      <c r="D38" s="213"/>
-      <c r="E38" s="213"/>
-      <c r="F38" s="214"/>
+      <c r="B38" s="135"/>
+      <c r="C38" s="135"/>
+      <c r="D38" s="132"/>
+      <c r="E38" s="132"/>
+      <c r="F38" s="133"/>
       <c r="G38" s="75"/>
-      <c r="H38" s="213"/>
-      <c r="I38" s="213"/>
-      <c r="J38" s="213"/>
-      <c r="K38" s="214"/>
-      <c r="L38" s="213" t="s">
+      <c r="H38" s="132"/>
+      <c r="I38" s="132"/>
+      <c r="J38" s="132"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="132" t="s">
         <v>240</v>
       </c>
-      <c r="M38" s="213"/>
-      <c r="N38" s="213"/>
-      <c r="O38" s="213"/>
-      <c r="P38" s="213"/>
-      <c r="Q38" s="213"/>
-      <c r="R38" s="213"/>
-      <c r="S38" s="213"/>
-      <c r="T38" s="213"/>
-      <c r="U38" s="213"/>
-      <c r="V38" s="213"/>
-      <c r="W38" s="213"/>
-      <c r="X38" s="213"/>
-      <c r="Y38" s="213"/>
-      <c r="Z38" s="213"/>
-      <c r="AA38" s="213"/>
-      <c r="AB38" s="213"/>
-      <c r="AC38" s="213"/>
-      <c r="AD38" s="213"/>
-      <c r="AE38" s="213"/>
-      <c r="AF38" s="213"/>
-      <c r="AG38" s="213"/>
-      <c r="AH38" s="213"/>
-      <c r="AI38" s="213"/>
-      <c r="AJ38" s="213"/>
-      <c r="AK38" s="213"/>
-      <c r="AL38" s="213"/>
-      <c r="AM38" s="213"/>
-      <c r="AN38" s="213"/>
-      <c r="AO38" s="213"/>
-      <c r="AP38" s="213"/>
-      <c r="AQ38" s="213"/>
-      <c r="AR38" s="213"/>
-      <c r="AS38" s="213"/>
-      <c r="AT38" s="213"/>
-      <c r="AU38" s="213"/>
-      <c r="AV38" s="214"/>
-      <c r="AW38" s="213"/>
+      <c r="M38" s="132"/>
+      <c r="N38" s="132"/>
+      <c r="O38" s="132"/>
+      <c r="P38" s="132"/>
+      <c r="Q38" s="132"/>
+      <c r="R38" s="132"/>
+      <c r="S38" s="132"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+      <c r="V38" s="132"/>
+      <c r="W38" s="132"/>
+      <c r="X38" s="132"/>
+      <c r="Y38" s="132"/>
+      <c r="Z38" s="132"/>
+      <c r="AA38" s="132"/>
+      <c r="AB38" s="132"/>
+      <c r="AC38" s="132"/>
+      <c r="AD38" s="132"/>
+      <c r="AE38" s="132"/>
+      <c r="AF38" s="132"/>
+      <c r="AG38" s="132"/>
+      <c r="AH38" s="132"/>
+      <c r="AI38" s="132"/>
+      <c r="AJ38" s="132"/>
+      <c r="AK38" s="132"/>
+      <c r="AL38" s="132"/>
+      <c r="AM38" s="132"/>
+      <c r="AN38" s="132"/>
+      <c r="AO38" s="132"/>
+      <c r="AP38" s="132"/>
+      <c r="AQ38" s="132"/>
+      <c r="AR38" s="132"/>
+      <c r="AS38" s="132"/>
+      <c r="AT38" s="132"/>
+      <c r="AU38" s="132"/>
+      <c r="AV38" s="133"/>
+      <c r="AW38" s="132"/>
     </row>
     <row r="39" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B39" s="217"/>
-      <c r="C39" s="217"/>
-      <c r="D39" s="218"/>
-      <c r="E39" s="218"/>
-      <c r="F39" s="219"/>
-      <c r="G39" s="217"/>
-      <c r="H39" s="218"/>
-      <c r="I39" s="218"/>
-      <c r="J39" s="218"/>
-      <c r="K39" s="219"/>
-      <c r="L39" s="218"/>
-      <c r="M39" s="218"/>
-      <c r="N39" s="218"/>
-      <c r="O39" s="218"/>
-      <c r="P39" s="218"/>
-      <c r="Q39" s="218"/>
-      <c r="R39" s="218"/>
-      <c r="S39" s="218"/>
-      <c r="T39" s="218"/>
-      <c r="U39" s="218"/>
-      <c r="V39" s="218"/>
-      <c r="W39" s="218"/>
-      <c r="X39" s="218"/>
-      <c r="Y39" s="218"/>
-      <c r="Z39" s="218"/>
-      <c r="AA39" s="218"/>
-      <c r="AB39" s="218"/>
-      <c r="AC39" s="218"/>
-      <c r="AD39" s="218"/>
-      <c r="AE39" s="218"/>
-      <c r="AF39" s="218"/>
-      <c r="AG39" s="218"/>
-      <c r="AH39" s="218"/>
-      <c r="AI39" s="218"/>
-      <c r="AJ39" s="218"/>
-      <c r="AK39" s="218"/>
-      <c r="AL39" s="218"/>
-      <c r="AM39" s="218"/>
-      <c r="AN39" s="218"/>
-      <c r="AO39" s="218"/>
-      <c r="AP39" s="218"/>
-      <c r="AQ39" s="218"/>
-      <c r="AR39" s="218"/>
-      <c r="AS39" s="218"/>
-      <c r="AT39" s="218"/>
-      <c r="AU39" s="218"/>
-      <c r="AV39" s="219"/>
-      <c r="AW39" s="213"/>
+      <c r="B39" s="136"/>
+      <c r="C39" s="136"/>
+      <c r="D39" s="137"/>
+      <c r="E39" s="137"/>
+      <c r="F39" s="138"/>
+      <c r="G39" s="136"/>
+      <c r="H39" s="137"/>
+      <c r="I39" s="137"/>
+      <c r="J39" s="137"/>
+      <c r="K39" s="138"/>
+      <c r="L39" s="137"/>
+      <c r="M39" s="137"/>
+      <c r="N39" s="137"/>
+      <c r="O39" s="137"/>
+      <c r="P39" s="137"/>
+      <c r="Q39" s="137"/>
+      <c r="R39" s="137"/>
+      <c r="S39" s="137"/>
+      <c r="T39" s="137"/>
+      <c r="U39" s="137"/>
+      <c r="V39" s="137"/>
+      <c r="W39" s="137"/>
+      <c r="X39" s="137"/>
+      <c r="Y39" s="137"/>
+      <c r="Z39" s="137"/>
+      <c r="AA39" s="137"/>
+      <c r="AB39" s="137"/>
+      <c r="AC39" s="137"/>
+      <c r="AD39" s="137"/>
+      <c r="AE39" s="137"/>
+      <c r="AF39" s="137"/>
+      <c r="AG39" s="137"/>
+      <c r="AH39" s="137"/>
+      <c r="AI39" s="137"/>
+      <c r="AJ39" s="137"/>
+      <c r="AK39" s="137"/>
+      <c r="AL39" s="137"/>
+      <c r="AM39" s="137"/>
+      <c r="AN39" s="137"/>
+      <c r="AO39" s="137"/>
+      <c r="AP39" s="137"/>
+      <c r="AQ39" s="137"/>
+      <c r="AR39" s="137"/>
+      <c r="AS39" s="137"/>
+      <c r="AT39" s="137"/>
+      <c r="AU39" s="137"/>
+      <c r="AV39" s="138"/>
+      <c r="AW39" s="132"/>
     </row>
     <row r="40" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B40" s="21">
@@ -12554,570 +12714,570 @@
       <c r="C40" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="D40" s="213"/>
-      <c r="E40" s="213"/>
-      <c r="F40" s="214"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="132"/>
+      <c r="F40" s="133"/>
       <c r="G40" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="H40" s="213"/>
-      <c r="I40" s="213"/>
-      <c r="J40" s="213"/>
-      <c r="K40" s="214"/>
-      <c r="L40" s="215" t="s">
+      <c r="H40" s="132"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="132"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="M40" s="213"/>
-      <c r="N40" s="213"/>
-      <c r="O40" s="213"/>
-      <c r="P40" s="213"/>
-      <c r="Q40" s="213"/>
-      <c r="R40" s="213"/>
-      <c r="S40" s="213"/>
-      <c r="T40" s="213"/>
-      <c r="U40" s="213"/>
-      <c r="V40" s="213"/>
-      <c r="W40" s="213"/>
-      <c r="X40" s="213"/>
-      <c r="Y40" s="213"/>
-      <c r="Z40" s="213"/>
-      <c r="AA40" s="213"/>
-      <c r="AB40" s="213"/>
-      <c r="AC40" s="213"/>
-      <c r="AD40" s="213"/>
-      <c r="AE40" s="213"/>
-      <c r="AF40" s="213"/>
-      <c r="AG40" s="213"/>
-      <c r="AH40" s="213"/>
-      <c r="AI40" s="213"/>
-      <c r="AJ40" s="213"/>
-      <c r="AK40" s="213"/>
-      <c r="AL40" s="213"/>
-      <c r="AM40" s="213"/>
-      <c r="AN40" s="213"/>
-      <c r="AO40" s="213"/>
-      <c r="AP40" s="213"/>
-      <c r="AQ40" s="213"/>
-      <c r="AR40" s="213"/>
-      <c r="AS40" s="213"/>
-      <c r="AT40" s="213"/>
-      <c r="AU40" s="213"/>
-      <c r="AV40" s="214"/>
-      <c r="AW40" s="213"/>
+      <c r="M40" s="132"/>
+      <c r="N40" s="132"/>
+      <c r="O40" s="132"/>
+      <c r="P40" s="132"/>
+      <c r="Q40" s="132"/>
+      <c r="R40" s="132"/>
+      <c r="S40" s="132"/>
+      <c r="T40" s="132"/>
+      <c r="U40" s="132"/>
+      <c r="V40" s="132"/>
+      <c r="W40" s="132"/>
+      <c r="X40" s="132"/>
+      <c r="Y40" s="132"/>
+      <c r="Z40" s="132"/>
+      <c r="AA40" s="132"/>
+      <c r="AB40" s="132"/>
+      <c r="AC40" s="132"/>
+      <c r="AD40" s="132"/>
+      <c r="AE40" s="132"/>
+      <c r="AF40" s="132"/>
+      <c r="AG40" s="132"/>
+      <c r="AH40" s="132"/>
+      <c r="AI40" s="132"/>
+      <c r="AJ40" s="132"/>
+      <c r="AK40" s="132"/>
+      <c r="AL40" s="132"/>
+      <c r="AM40" s="132"/>
+      <c r="AN40" s="132"/>
+      <c r="AO40" s="132"/>
+      <c r="AP40" s="132"/>
+      <c r="AQ40" s="132"/>
+      <c r="AR40" s="132"/>
+      <c r="AS40" s="132"/>
+      <c r="AT40" s="132"/>
+      <c r="AU40" s="132"/>
+      <c r="AV40" s="133"/>
+      <c r="AW40" s="132"/>
     </row>
     <row r="41" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B41" s="75"/>
       <c r="C41" s="75"/>
-      <c r="D41" s="213"/>
-      <c r="E41" s="213"/>
-      <c r="F41" s="214"/>
+      <c r="D41" s="132"/>
+      <c r="E41" s="132"/>
+      <c r="F41" s="133"/>
       <c r="G41" s="75" t="s">
         <v>243</v>
       </c>
-      <c r="H41" s="213"/>
-      <c r="I41" s="213"/>
-      <c r="J41" s="213"/>
-      <c r="K41" s="214"/>
-      <c r="L41" s="220" t="s">
+      <c r="H41" s="132"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="139" t="s">
         <v>244</v>
       </c>
-      <c r="M41" s="213"/>
-      <c r="N41" s="213"/>
-      <c r="O41" s="213"/>
-      <c r="P41" s="213"/>
-      <c r="Q41" s="213"/>
-      <c r="R41" s="213"/>
-      <c r="S41" s="213"/>
-      <c r="T41" s="213"/>
-      <c r="U41" s="213"/>
-      <c r="V41" s="213"/>
-      <c r="W41" s="213"/>
-      <c r="X41" s="213"/>
-      <c r="Y41" s="213"/>
-      <c r="Z41" s="213"/>
-      <c r="AA41" s="213"/>
-      <c r="AB41" s="213"/>
-      <c r="AC41" s="213"/>
-      <c r="AD41" s="213"/>
-      <c r="AE41" s="213"/>
-      <c r="AF41" s="213"/>
-      <c r="AG41" s="213"/>
-      <c r="AH41" s="213"/>
-      <c r="AI41" s="213"/>
-      <c r="AJ41" s="213"/>
-      <c r="AK41" s="213"/>
-      <c r="AL41" s="213"/>
-      <c r="AM41" s="213"/>
-      <c r="AN41" s="213"/>
-      <c r="AO41" s="213"/>
-      <c r="AP41" s="213"/>
-      <c r="AQ41" s="213"/>
-      <c r="AR41" s="213"/>
-      <c r="AS41" s="213"/>
-      <c r="AT41" s="213"/>
-      <c r="AU41" s="213"/>
-      <c r="AV41" s="214"/>
-      <c r="AW41" s="213"/>
+      <c r="M41" s="132"/>
+      <c r="N41" s="132"/>
+      <c r="O41" s="132"/>
+      <c r="P41" s="132"/>
+      <c r="Q41" s="132"/>
+      <c r="R41" s="132"/>
+      <c r="S41" s="132"/>
+      <c r="T41" s="132"/>
+      <c r="U41" s="132"/>
+      <c r="V41" s="132"/>
+      <c r="W41" s="132"/>
+      <c r="X41" s="132"/>
+      <c r="Y41" s="132"/>
+      <c r="Z41" s="132"/>
+      <c r="AA41" s="132"/>
+      <c r="AB41" s="132"/>
+      <c r="AC41" s="132"/>
+      <c r="AD41" s="132"/>
+      <c r="AE41" s="132"/>
+      <c r="AF41" s="132"/>
+      <c r="AG41" s="132"/>
+      <c r="AH41" s="132"/>
+      <c r="AI41" s="132"/>
+      <c r="AJ41" s="132"/>
+      <c r="AK41" s="132"/>
+      <c r="AL41" s="132"/>
+      <c r="AM41" s="132"/>
+      <c r="AN41" s="132"/>
+      <c r="AO41" s="132"/>
+      <c r="AP41" s="132"/>
+      <c r="AQ41" s="132"/>
+      <c r="AR41" s="132"/>
+      <c r="AS41" s="132"/>
+      <c r="AT41" s="132"/>
+      <c r="AU41" s="132"/>
+      <c r="AV41" s="133"/>
+      <c r="AW41" s="132"/>
     </row>
     <row r="42" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B42" s="75"/>
       <c r="C42" s="75"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="213"/>
-      <c r="F42" s="214"/>
+      <c r="D42" s="132"/>
+      <c r="E42" s="132"/>
+      <c r="F42" s="133"/>
       <c r="G42" s="75"/>
-      <c r="H42" s="213"/>
-      <c r="I42" s="213"/>
-      <c r="J42" s="213"/>
-      <c r="K42" s="214"/>
-      <c r="L42" s="220"/>
-      <c r="M42" s="213"/>
-      <c r="N42" s="213"/>
-      <c r="O42" s="213"/>
-      <c r="P42" s="213"/>
-      <c r="Q42" s="213"/>
-      <c r="R42" s="213"/>
-      <c r="S42" s="213"/>
-      <c r="T42" s="213"/>
-      <c r="U42" s="213"/>
-      <c r="V42" s="213"/>
-      <c r="W42" s="213"/>
-      <c r="X42" s="213"/>
-      <c r="Y42" s="213"/>
-      <c r="Z42" s="213"/>
-      <c r="AA42" s="213"/>
-      <c r="AB42" s="213"/>
-      <c r="AC42" s="213"/>
-      <c r="AD42" s="213"/>
-      <c r="AE42" s="213"/>
-      <c r="AF42" s="213"/>
-      <c r="AG42" s="213"/>
-      <c r="AH42" s="213"/>
-      <c r="AI42" s="213"/>
-      <c r="AJ42" s="213"/>
-      <c r="AK42" s="213"/>
-      <c r="AL42" s="213"/>
-      <c r="AM42" s="213"/>
-      <c r="AN42" s="213"/>
-      <c r="AO42" s="213"/>
-      <c r="AP42" s="213"/>
-      <c r="AQ42" s="213"/>
-      <c r="AR42" s="213"/>
-      <c r="AS42" s="213"/>
-      <c r="AT42" s="213"/>
-      <c r="AU42" s="213"/>
-      <c r="AV42" s="214"/>
-      <c r="AW42" s="213"/>
+      <c r="H42" s="132"/>
+      <c r="I42" s="132"/>
+      <c r="J42" s="132"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="139"/>
+      <c r="M42" s="132"/>
+      <c r="N42" s="132"/>
+      <c r="O42" s="132"/>
+      <c r="P42" s="132"/>
+      <c r="Q42" s="132"/>
+      <c r="R42" s="132"/>
+      <c r="S42" s="132"/>
+      <c r="T42" s="132"/>
+      <c r="U42" s="132"/>
+      <c r="V42" s="132"/>
+      <c r="W42" s="132"/>
+      <c r="X42" s="132"/>
+      <c r="Y42" s="132"/>
+      <c r="Z42" s="132"/>
+      <c r="AA42" s="132"/>
+      <c r="AB42" s="132"/>
+      <c r="AC42" s="132"/>
+      <c r="AD42" s="132"/>
+      <c r="AE42" s="132"/>
+      <c r="AF42" s="132"/>
+      <c r="AG42" s="132"/>
+      <c r="AH42" s="132"/>
+      <c r="AI42" s="132"/>
+      <c r="AJ42" s="132"/>
+      <c r="AK42" s="132"/>
+      <c r="AL42" s="132"/>
+      <c r="AM42" s="132"/>
+      <c r="AN42" s="132"/>
+      <c r="AO42" s="132"/>
+      <c r="AP42" s="132"/>
+      <c r="AQ42" s="132"/>
+      <c r="AR42" s="132"/>
+      <c r="AS42" s="132"/>
+      <c r="AT42" s="132"/>
+      <c r="AU42" s="132"/>
+      <c r="AV42" s="133"/>
+      <c r="AW42" s="132"/>
     </row>
     <row r="43" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B43" s="75"/>
       <c r="C43" s="75"/>
-      <c r="D43" s="213"/>
-      <c r="E43" s="213"/>
-      <c r="F43" s="214"/>
+      <c r="D43" s="132"/>
+      <c r="E43" s="132"/>
+      <c r="F43" s="133"/>
       <c r="G43" s="75"/>
-      <c r="H43" s="213"/>
-      <c r="I43" s="213"/>
-      <c r="J43" s="213"/>
-      <c r="K43" s="214"/>
-      <c r="L43" s="220" t="s">
+      <c r="H43" s="132"/>
+      <c r="I43" s="132"/>
+      <c r="J43" s="132"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="139" t="s">
         <v>234</v>
       </c>
-      <c r="M43" s="213"/>
-      <c r="N43" s="213"/>
-      <c r="O43" s="213"/>
-      <c r="P43" s="213"/>
-      <c r="Q43" s="213"/>
-      <c r="R43" s="213"/>
-      <c r="S43" s="213"/>
-      <c r="T43" s="213"/>
-      <c r="U43" s="213"/>
-      <c r="V43" s="213"/>
-      <c r="W43" s="213"/>
-      <c r="X43" s="213"/>
-      <c r="Y43" s="213"/>
-      <c r="Z43" s="213"/>
-      <c r="AA43" s="213"/>
-      <c r="AB43" s="213"/>
-      <c r="AC43" s="213"/>
-      <c r="AD43" s="213"/>
-      <c r="AE43" s="213"/>
-      <c r="AF43" s="213"/>
-      <c r="AG43" s="213"/>
-      <c r="AH43" s="213"/>
-      <c r="AI43" s="213"/>
-      <c r="AJ43" s="213"/>
-      <c r="AK43" s="213"/>
-      <c r="AL43" s="213"/>
-      <c r="AM43" s="213"/>
-      <c r="AN43" s="213"/>
-      <c r="AO43" s="213"/>
-      <c r="AP43" s="213"/>
-      <c r="AQ43" s="213"/>
-      <c r="AR43" s="213"/>
-      <c r="AS43" s="213"/>
-      <c r="AT43" s="213"/>
-      <c r="AU43" s="213"/>
-      <c r="AV43" s="214"/>
-      <c r="AW43" s="213"/>
+      <c r="M43" s="132"/>
+      <c r="N43" s="132"/>
+      <c r="O43" s="132"/>
+      <c r="P43" s="132"/>
+      <c r="Q43" s="132"/>
+      <c r="R43" s="132"/>
+      <c r="S43" s="132"/>
+      <c r="T43" s="132"/>
+      <c r="U43" s="132"/>
+      <c r="V43" s="132"/>
+      <c r="W43" s="132"/>
+      <c r="X43" s="132"/>
+      <c r="Y43" s="132"/>
+      <c r="Z43" s="132"/>
+      <c r="AA43" s="132"/>
+      <c r="AB43" s="132"/>
+      <c r="AC43" s="132"/>
+      <c r="AD43" s="132"/>
+      <c r="AE43" s="132"/>
+      <c r="AF43" s="132"/>
+      <c r="AG43" s="132"/>
+      <c r="AH43" s="132"/>
+      <c r="AI43" s="132"/>
+      <c r="AJ43" s="132"/>
+      <c r="AK43" s="132"/>
+      <c r="AL43" s="132"/>
+      <c r="AM43" s="132"/>
+      <c r="AN43" s="132"/>
+      <c r="AO43" s="132"/>
+      <c r="AP43" s="132"/>
+      <c r="AQ43" s="132"/>
+      <c r="AR43" s="132"/>
+      <c r="AS43" s="132"/>
+      <c r="AT43" s="132"/>
+      <c r="AU43" s="132"/>
+      <c r="AV43" s="133"/>
+      <c r="AW43" s="132"/>
     </row>
     <row r="44" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B44" s="216"/>
-      <c r="C44" s="216"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="213"/>
-      <c r="F44" s="214"/>
+      <c r="B44" s="135"/>
+      <c r="C44" s="135"/>
+      <c r="D44" s="132"/>
+      <c r="E44" s="132"/>
+      <c r="F44" s="133"/>
       <c r="G44" s="75"/>
-      <c r="H44" s="213"/>
-      <c r="I44" s="213"/>
-      <c r="J44" s="213"/>
-      <c r="K44" s="214"/>
-      <c r="L44" s="220" t="s">
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+      <c r="J44" s="132"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="M44" s="213"/>
-      <c r="N44" s="213"/>
-      <c r="O44" s="213"/>
-      <c r="P44" s="213"/>
-      <c r="Q44" s="213"/>
-      <c r="R44" s="213"/>
-      <c r="S44" s="213"/>
-      <c r="T44" s="213"/>
-      <c r="U44" s="213"/>
-      <c r="V44" s="213"/>
-      <c r="W44" s="213"/>
-      <c r="X44" s="213"/>
-      <c r="Y44" s="213"/>
-      <c r="Z44" s="213"/>
-      <c r="AA44" s="213"/>
-      <c r="AB44" s="213"/>
-      <c r="AC44" s="213"/>
-      <c r="AD44" s="213"/>
-      <c r="AE44" s="213"/>
-      <c r="AF44" s="213"/>
-      <c r="AG44" s="213"/>
-      <c r="AH44" s="213"/>
-      <c r="AI44" s="213"/>
-      <c r="AJ44" s="213"/>
-      <c r="AK44" s="213"/>
-      <c r="AL44" s="213"/>
-      <c r="AM44" s="213"/>
-      <c r="AN44" s="213"/>
-      <c r="AO44" s="213"/>
-      <c r="AP44" s="213"/>
-      <c r="AQ44" s="213"/>
-      <c r="AR44" s="213"/>
-      <c r="AS44" s="213"/>
-      <c r="AT44" s="213"/>
-      <c r="AU44" s="213"/>
-      <c r="AV44" s="214"/>
-      <c r="AW44" s="213"/>
+      <c r="M44" s="132"/>
+      <c r="N44" s="132"/>
+      <c r="O44" s="132"/>
+      <c r="P44" s="132"/>
+      <c r="Q44" s="132"/>
+      <c r="R44" s="132"/>
+      <c r="S44" s="132"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="132"/>
+      <c r="V44" s="132"/>
+      <c r="W44" s="132"/>
+      <c r="X44" s="132"/>
+      <c r="Y44" s="132"/>
+      <c r="Z44" s="132"/>
+      <c r="AA44" s="132"/>
+      <c r="AB44" s="132"/>
+      <c r="AC44" s="132"/>
+      <c r="AD44" s="132"/>
+      <c r="AE44" s="132"/>
+      <c r="AF44" s="132"/>
+      <c r="AG44" s="132"/>
+      <c r="AH44" s="132"/>
+      <c r="AI44" s="132"/>
+      <c r="AJ44" s="132"/>
+      <c r="AK44" s="132"/>
+      <c r="AL44" s="132"/>
+      <c r="AM44" s="132"/>
+      <c r="AN44" s="132"/>
+      <c r="AO44" s="132"/>
+      <c r="AP44" s="132"/>
+      <c r="AQ44" s="132"/>
+      <c r="AR44" s="132"/>
+      <c r="AS44" s="132"/>
+      <c r="AT44" s="132"/>
+      <c r="AU44" s="132"/>
+      <c r="AV44" s="133"/>
+      <c r="AW44" s="132"/>
     </row>
     <row r="45" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B45" s="216"/>
-      <c r="C45" s="216"/>
-      <c r="D45" s="213"/>
-      <c r="E45" s="213"/>
-      <c r="F45" s="214"/>
+      <c r="B45" s="135"/>
+      <c r="C45" s="135"/>
+      <c r="D45" s="132"/>
+      <c r="E45" s="132"/>
+      <c r="F45" s="133"/>
       <c r="G45" s="75"/>
-      <c r="H45" s="213"/>
-      <c r="I45" s="213"/>
-      <c r="J45" s="213"/>
-      <c r="K45" s="214"/>
-      <c r="L45" s="220"/>
-      <c r="M45" s="213"/>
-      <c r="N45" s="213"/>
-      <c r="O45" s="213"/>
-      <c r="P45" s="213"/>
-      <c r="Q45" s="213"/>
-      <c r="R45" s="213"/>
-      <c r="S45" s="213"/>
-      <c r="T45" s="213"/>
-      <c r="U45" s="213"/>
-      <c r="V45" s="213"/>
-      <c r="W45" s="213"/>
-      <c r="X45" s="213"/>
-      <c r="Y45" s="213"/>
-      <c r="Z45" s="213"/>
-      <c r="AA45" s="213"/>
-      <c r="AB45" s="213"/>
-      <c r="AC45" s="213"/>
-      <c r="AD45" s="213"/>
-      <c r="AE45" s="213"/>
-      <c r="AF45" s="213"/>
-      <c r="AG45" s="213"/>
-      <c r="AH45" s="213"/>
-      <c r="AI45" s="213"/>
-      <c r="AJ45" s="213"/>
-      <c r="AK45" s="213"/>
-      <c r="AL45" s="213"/>
-      <c r="AM45" s="213"/>
-      <c r="AN45" s="213"/>
-      <c r="AO45" s="213"/>
-      <c r="AP45" s="213"/>
-      <c r="AQ45" s="213"/>
-      <c r="AR45" s="213"/>
-      <c r="AS45" s="213"/>
-      <c r="AT45" s="213"/>
-      <c r="AU45" s="213"/>
-      <c r="AV45" s="214"/>
-      <c r="AW45" s="213"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+      <c r="J45" s="132"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="139"/>
+      <c r="M45" s="132"/>
+      <c r="N45" s="132"/>
+      <c r="O45" s="132"/>
+      <c r="P45" s="132"/>
+      <c r="Q45" s="132"/>
+      <c r="R45" s="132"/>
+      <c r="S45" s="132"/>
+      <c r="T45" s="132"/>
+      <c r="U45" s="132"/>
+      <c r="V45" s="132"/>
+      <c r="W45" s="132"/>
+      <c r="X45" s="132"/>
+      <c r="Y45" s="132"/>
+      <c r="Z45" s="132"/>
+      <c r="AA45" s="132"/>
+      <c r="AB45" s="132"/>
+      <c r="AC45" s="132"/>
+      <c r="AD45" s="132"/>
+      <c r="AE45" s="132"/>
+      <c r="AF45" s="132"/>
+      <c r="AG45" s="132"/>
+      <c r="AH45" s="132"/>
+      <c r="AI45" s="132"/>
+      <c r="AJ45" s="132"/>
+      <c r="AK45" s="132"/>
+      <c r="AL45" s="132"/>
+      <c r="AM45" s="132"/>
+      <c r="AN45" s="132"/>
+      <c r="AO45" s="132"/>
+      <c r="AP45" s="132"/>
+      <c r="AQ45" s="132"/>
+      <c r="AR45" s="132"/>
+      <c r="AS45" s="132"/>
+      <c r="AT45" s="132"/>
+      <c r="AU45" s="132"/>
+      <c r="AV45" s="133"/>
+      <c r="AW45" s="132"/>
     </row>
     <row r="46" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B46" s="216"/>
-      <c r="C46" s="216"/>
-      <c r="D46" s="213"/>
-      <c r="E46" s="213"/>
-      <c r="F46" s="214"/>
+      <c r="B46" s="135"/>
+      <c r="C46" s="135"/>
+      <c r="D46" s="132"/>
+      <c r="E46" s="132"/>
+      <c r="F46" s="133"/>
       <c r="G46" s="75"/>
-      <c r="H46" s="213"/>
-      <c r="I46" s="213"/>
-      <c r="J46" s="213"/>
-      <c r="K46" s="214"/>
-      <c r="L46" s="220" t="s">
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+      <c r="J46" s="132"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="M46" s="213"/>
-      <c r="N46" s="213"/>
-      <c r="O46" s="213"/>
-      <c r="P46" s="213"/>
-      <c r="Q46" s="213"/>
-      <c r="R46" s="213"/>
-      <c r="S46" s="213"/>
-      <c r="T46" s="213"/>
-      <c r="U46" s="213"/>
-      <c r="V46" s="213"/>
-      <c r="W46" s="213"/>
-      <c r="X46" s="213"/>
-      <c r="Y46" s="213"/>
-      <c r="Z46" s="213"/>
-      <c r="AA46" s="213"/>
-      <c r="AB46" s="213"/>
-      <c r="AC46" s="213"/>
-      <c r="AD46" s="213"/>
-      <c r="AE46" s="213"/>
-      <c r="AF46" s="213"/>
-      <c r="AG46" s="213"/>
-      <c r="AH46" s="213"/>
-      <c r="AI46" s="213"/>
-      <c r="AJ46" s="213"/>
-      <c r="AK46" s="213"/>
-      <c r="AL46" s="213"/>
-      <c r="AM46" s="213"/>
-      <c r="AN46" s="213"/>
-      <c r="AO46" s="213"/>
-      <c r="AP46" s="213"/>
-      <c r="AQ46" s="213"/>
-      <c r="AR46" s="213"/>
-      <c r="AS46" s="213"/>
-      <c r="AT46" s="213"/>
-      <c r="AU46" s="213"/>
-      <c r="AV46" s="214"/>
-      <c r="AW46" s="213"/>
+      <c r="M46" s="132"/>
+      <c r="N46" s="132"/>
+      <c r="O46" s="132"/>
+      <c r="P46" s="132"/>
+      <c r="Q46" s="132"/>
+      <c r="R46" s="132"/>
+      <c r="S46" s="132"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
+      <c r="V46" s="132"/>
+      <c r="W46" s="132"/>
+      <c r="X46" s="132"/>
+      <c r="Y46" s="132"/>
+      <c r="Z46" s="132"/>
+      <c r="AA46" s="132"/>
+      <c r="AB46" s="132"/>
+      <c r="AC46" s="132"/>
+      <c r="AD46" s="132"/>
+      <c r="AE46" s="132"/>
+      <c r="AF46" s="132"/>
+      <c r="AG46" s="132"/>
+      <c r="AH46" s="132"/>
+      <c r="AI46" s="132"/>
+      <c r="AJ46" s="132"/>
+      <c r="AK46" s="132"/>
+      <c r="AL46" s="132"/>
+      <c r="AM46" s="132"/>
+      <c r="AN46" s="132"/>
+      <c r="AO46" s="132"/>
+      <c r="AP46" s="132"/>
+      <c r="AQ46" s="132"/>
+      <c r="AR46" s="132"/>
+      <c r="AS46" s="132"/>
+      <c r="AT46" s="132"/>
+      <c r="AU46" s="132"/>
+      <c r="AV46" s="133"/>
+      <c r="AW46" s="132"/>
     </row>
     <row r="47" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B47" s="216"/>
-      <c r="C47" s="216"/>
-      <c r="D47" s="213"/>
-      <c r="E47" s="213"/>
-      <c r="F47" s="214"/>
+      <c r="B47" s="135"/>
+      <c r="C47" s="135"/>
+      <c r="D47" s="132"/>
+      <c r="E47" s="132"/>
+      <c r="F47" s="133"/>
       <c r="G47" s="75"/>
-      <c r="H47" s="213"/>
-      <c r="I47" s="213"/>
-      <c r="J47" s="213"/>
-      <c r="K47" s="214"/>
-      <c r="L47" s="213" t="s">
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+      <c r="J47" s="132"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="132" t="s">
         <v>245</v>
       </c>
-      <c r="M47" s="213"/>
-      <c r="N47" s="213"/>
-      <c r="O47" s="213"/>
-      <c r="P47" s="213"/>
-      <c r="Q47" s="213"/>
-      <c r="R47" s="213"/>
-      <c r="S47" s="213"/>
-      <c r="T47" s="213"/>
-      <c r="U47" s="213"/>
-      <c r="V47" s="213"/>
-      <c r="W47" s="213"/>
-      <c r="X47" s="213"/>
-      <c r="Y47" s="213"/>
-      <c r="Z47" s="213"/>
-      <c r="AA47" s="213"/>
-      <c r="AB47" s="213"/>
-      <c r="AC47" s="213"/>
-      <c r="AD47" s="213"/>
-      <c r="AE47" s="213"/>
-      <c r="AF47" s="213"/>
-      <c r="AG47" s="213"/>
-      <c r="AH47" s="213"/>
-      <c r="AI47" s="213"/>
-      <c r="AJ47" s="213"/>
-      <c r="AK47" s="213"/>
-      <c r="AL47" s="213"/>
-      <c r="AM47" s="213"/>
-      <c r="AN47" s="213"/>
-      <c r="AO47" s="213"/>
-      <c r="AP47" s="213"/>
-      <c r="AQ47" s="213"/>
-      <c r="AR47" s="213"/>
-      <c r="AS47" s="213"/>
-      <c r="AT47" s="213"/>
-      <c r="AU47" s="213"/>
-      <c r="AV47" s="214"/>
-      <c r="AW47" s="213"/>
+      <c r="M47" s="132"/>
+      <c r="N47" s="132"/>
+      <c r="O47" s="132"/>
+      <c r="P47" s="132"/>
+      <c r="Q47" s="132"/>
+      <c r="R47" s="132"/>
+      <c r="S47" s="132"/>
+      <c r="T47" s="132"/>
+      <c r="U47" s="132"/>
+      <c r="V47" s="132"/>
+      <c r="W47" s="132"/>
+      <c r="X47" s="132"/>
+      <c r="Y47" s="132"/>
+      <c r="Z47" s="132"/>
+      <c r="AA47" s="132"/>
+      <c r="AB47" s="132"/>
+      <c r="AC47" s="132"/>
+      <c r="AD47" s="132"/>
+      <c r="AE47" s="132"/>
+      <c r="AF47" s="132"/>
+      <c r="AG47" s="132"/>
+      <c r="AH47" s="132"/>
+      <c r="AI47" s="132"/>
+      <c r="AJ47" s="132"/>
+      <c r="AK47" s="132"/>
+      <c r="AL47" s="132"/>
+      <c r="AM47" s="132"/>
+      <c r="AN47" s="132"/>
+      <c r="AO47" s="132"/>
+      <c r="AP47" s="132"/>
+      <c r="AQ47" s="132"/>
+      <c r="AR47" s="132"/>
+      <c r="AS47" s="132"/>
+      <c r="AT47" s="132"/>
+      <c r="AU47" s="132"/>
+      <c r="AV47" s="133"/>
+      <c r="AW47" s="132"/>
     </row>
     <row r="48" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B48" s="216"/>
-      <c r="C48" s="216"/>
-      <c r="D48" s="213"/>
-      <c r="E48" s="213"/>
-      <c r="F48" s="214"/>
+      <c r="B48" s="135"/>
+      <c r="C48" s="135"/>
+      <c r="D48" s="132"/>
+      <c r="E48" s="132"/>
+      <c r="F48" s="133"/>
       <c r="G48" s="75"/>
-      <c r="H48" s="213"/>
-      <c r="I48" s="213"/>
-      <c r="J48" s="213"/>
-      <c r="K48" s="214"/>
-      <c r="L48" s="213"/>
-      <c r="M48" s="213"/>
-      <c r="N48" s="213"/>
-      <c r="O48" s="213"/>
-      <c r="P48" s="213"/>
-      <c r="Q48" s="213"/>
-      <c r="R48" s="213"/>
-      <c r="S48" s="213"/>
-      <c r="T48" s="213"/>
-      <c r="U48" s="213"/>
-      <c r="V48" s="213"/>
-      <c r="W48" s="213"/>
-      <c r="X48" s="213"/>
-      <c r="Y48" s="213"/>
-      <c r="Z48" s="213"/>
-      <c r="AA48" s="213"/>
-      <c r="AB48" s="213"/>
-      <c r="AC48" s="213"/>
-      <c r="AD48" s="213"/>
-      <c r="AE48" s="213"/>
-      <c r="AF48" s="213"/>
-      <c r="AG48" s="213"/>
-      <c r="AH48" s="213"/>
-      <c r="AI48" s="213"/>
-      <c r="AJ48" s="213"/>
-      <c r="AK48" s="213"/>
-      <c r="AL48" s="213"/>
-      <c r="AM48" s="213"/>
-      <c r="AN48" s="213"/>
-      <c r="AO48" s="213"/>
-      <c r="AP48" s="213"/>
-      <c r="AQ48" s="213"/>
-      <c r="AR48" s="213"/>
-      <c r="AS48" s="213"/>
-      <c r="AT48" s="213"/>
-      <c r="AU48" s="213"/>
-      <c r="AV48" s="214"/>
-      <c r="AW48" s="213"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+      <c r="J48" s="132"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="132"/>
+      <c r="M48" s="132"/>
+      <c r="N48" s="132"/>
+      <c r="O48" s="132"/>
+      <c r="P48" s="132"/>
+      <c r="Q48" s="132"/>
+      <c r="R48" s="132"/>
+      <c r="S48" s="132"/>
+      <c r="T48" s="132"/>
+      <c r="U48" s="132"/>
+      <c r="V48" s="132"/>
+      <c r="W48" s="132"/>
+      <c r="X48" s="132"/>
+      <c r="Y48" s="132"/>
+      <c r="Z48" s="132"/>
+      <c r="AA48" s="132"/>
+      <c r="AB48" s="132"/>
+      <c r="AC48" s="132"/>
+      <c r="AD48" s="132"/>
+      <c r="AE48" s="132"/>
+      <c r="AF48" s="132"/>
+      <c r="AG48" s="132"/>
+      <c r="AH48" s="132"/>
+      <c r="AI48" s="132"/>
+      <c r="AJ48" s="132"/>
+      <c r="AK48" s="132"/>
+      <c r="AL48" s="132"/>
+      <c r="AM48" s="132"/>
+      <c r="AN48" s="132"/>
+      <c r="AO48" s="132"/>
+      <c r="AP48" s="132"/>
+      <c r="AQ48" s="132"/>
+      <c r="AR48" s="132"/>
+      <c r="AS48" s="132"/>
+      <c r="AT48" s="132"/>
+      <c r="AU48" s="132"/>
+      <c r="AV48" s="133"/>
+      <c r="AW48" s="132"/>
     </row>
     <row r="49" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B49" s="216"/>
-      <c r="C49" s="216"/>
-      <c r="D49" s="213"/>
-      <c r="E49" s="213"/>
-      <c r="F49" s="214"/>
+      <c r="B49" s="135"/>
+      <c r="C49" s="135"/>
+      <c r="D49" s="132"/>
+      <c r="E49" s="132"/>
+      <c r="F49" s="133"/>
       <c r="G49" s="75"/>
-      <c r="H49" s="213"/>
-      <c r="I49" s="213"/>
-      <c r="J49" s="213"/>
-      <c r="K49" s="214"/>
-      <c r="L49" s="213" t="s">
+      <c r="H49" s="132"/>
+      <c r="I49" s="132"/>
+      <c r="J49" s="132"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="132" t="s">
         <v>246</v>
       </c>
-      <c r="M49" s="213"/>
-      <c r="N49" s="213"/>
-      <c r="O49" s="213"/>
-      <c r="P49" s="213"/>
-      <c r="Q49" s="213"/>
-      <c r="R49" s="213"/>
-      <c r="S49" s="213"/>
-      <c r="T49" s="213"/>
-      <c r="U49" s="213"/>
-      <c r="V49" s="213"/>
-      <c r="W49" s="213"/>
-      <c r="X49" s="213"/>
-      <c r="Y49" s="213"/>
-      <c r="Z49" s="213"/>
-      <c r="AA49" s="213"/>
-      <c r="AB49" s="213"/>
-      <c r="AC49" s="213"/>
-      <c r="AD49" s="213"/>
-      <c r="AE49" s="213"/>
-      <c r="AF49" s="213"/>
-      <c r="AG49" s="213"/>
-      <c r="AH49" s="213"/>
-      <c r="AI49" s="213"/>
-      <c r="AJ49" s="213"/>
-      <c r="AK49" s="213"/>
-      <c r="AL49" s="213"/>
-      <c r="AM49" s="213"/>
-      <c r="AN49" s="213"/>
-      <c r="AO49" s="213"/>
-      <c r="AP49" s="213"/>
-      <c r="AQ49" s="213"/>
-      <c r="AR49" s="213"/>
-      <c r="AS49" s="213"/>
-      <c r="AT49" s="213"/>
-      <c r="AU49" s="213"/>
-      <c r="AV49" s="214"/>
-      <c r="AW49" s="213"/>
+      <c r="M49" s="132"/>
+      <c r="N49" s="132"/>
+      <c r="O49" s="132"/>
+      <c r="P49" s="132"/>
+      <c r="Q49" s="132"/>
+      <c r="R49" s="132"/>
+      <c r="S49" s="132"/>
+      <c r="T49" s="132"/>
+      <c r="U49" s="132"/>
+      <c r="V49" s="132"/>
+      <c r="W49" s="132"/>
+      <c r="X49" s="132"/>
+      <c r="Y49" s="132"/>
+      <c r="Z49" s="132"/>
+      <c r="AA49" s="132"/>
+      <c r="AB49" s="132"/>
+      <c r="AC49" s="132"/>
+      <c r="AD49" s="132"/>
+      <c r="AE49" s="132"/>
+      <c r="AF49" s="132"/>
+      <c r="AG49" s="132"/>
+      <c r="AH49" s="132"/>
+      <c r="AI49" s="132"/>
+      <c r="AJ49" s="132"/>
+      <c r="AK49" s="132"/>
+      <c r="AL49" s="132"/>
+      <c r="AM49" s="132"/>
+      <c r="AN49" s="132"/>
+      <c r="AO49" s="132"/>
+      <c r="AP49" s="132"/>
+      <c r="AQ49" s="132"/>
+      <c r="AR49" s="132"/>
+      <c r="AS49" s="132"/>
+      <c r="AT49" s="132"/>
+      <c r="AU49" s="132"/>
+      <c r="AV49" s="133"/>
+      <c r="AW49" s="132"/>
     </row>
     <row r="50" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B50" s="217"/>
-      <c r="C50" s="217"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="218"/>
-      <c r="F50" s="219"/>
-      <c r="G50" s="217"/>
-      <c r="H50" s="218"/>
-      <c r="I50" s="218"/>
-      <c r="J50" s="218"/>
-      <c r="K50" s="219"/>
-      <c r="L50" s="218"/>
-      <c r="M50" s="218"/>
-      <c r="N50" s="218"/>
-      <c r="O50" s="218"/>
-      <c r="P50" s="218"/>
-      <c r="Q50" s="218"/>
-      <c r="R50" s="218"/>
-      <c r="S50" s="218"/>
-      <c r="T50" s="218"/>
-      <c r="U50" s="218"/>
-      <c r="V50" s="218"/>
-      <c r="W50" s="218"/>
-      <c r="X50" s="218"/>
-      <c r="Y50" s="218"/>
-      <c r="Z50" s="218"/>
-      <c r="AA50" s="218"/>
-      <c r="AB50" s="218"/>
-      <c r="AC50" s="218"/>
-      <c r="AD50" s="218"/>
-      <c r="AE50" s="218"/>
-      <c r="AF50" s="218"/>
-      <c r="AG50" s="218"/>
-      <c r="AH50" s="218"/>
-      <c r="AI50" s="218"/>
-      <c r="AJ50" s="218"/>
-      <c r="AK50" s="218"/>
-      <c r="AL50" s="218"/>
-      <c r="AM50" s="218"/>
-      <c r="AN50" s="218"/>
-      <c r="AO50" s="218"/>
-      <c r="AP50" s="218"/>
-      <c r="AQ50" s="218"/>
-      <c r="AR50" s="218"/>
-      <c r="AS50" s="218"/>
-      <c r="AT50" s="218"/>
-      <c r="AU50" s="218"/>
-      <c r="AV50" s="219"/>
-      <c r="AW50" s="213"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="137"/>
+      <c r="E50" s="137"/>
+      <c r="F50" s="138"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="137"/>
+      <c r="I50" s="137"/>
+      <c r="J50" s="137"/>
+      <c r="K50" s="138"/>
+      <c r="L50" s="137"/>
+      <c r="M50" s="137"/>
+      <c r="N50" s="137"/>
+      <c r="O50" s="137"/>
+      <c r="P50" s="137"/>
+      <c r="Q50" s="137"/>
+      <c r="R50" s="137"/>
+      <c r="S50" s="137"/>
+      <c r="T50" s="137"/>
+      <c r="U50" s="137"/>
+      <c r="V50" s="137"/>
+      <c r="W50" s="137"/>
+      <c r="X50" s="137"/>
+      <c r="Y50" s="137"/>
+      <c r="Z50" s="137"/>
+      <c r="AA50" s="137"/>
+      <c r="AB50" s="137"/>
+      <c r="AC50" s="137"/>
+      <c r="AD50" s="137"/>
+      <c r="AE50" s="137"/>
+      <c r="AF50" s="137"/>
+      <c r="AG50" s="137"/>
+      <c r="AH50" s="137"/>
+      <c r="AI50" s="137"/>
+      <c r="AJ50" s="137"/>
+      <c r="AK50" s="137"/>
+      <c r="AL50" s="137"/>
+      <c r="AM50" s="137"/>
+      <c r="AN50" s="137"/>
+      <c r="AO50" s="137"/>
+      <c r="AP50" s="137"/>
+      <c r="AQ50" s="137"/>
+      <c r="AR50" s="137"/>
+      <c r="AS50" s="137"/>
+      <c r="AT50" s="137"/>
+      <c r="AU50" s="137"/>
+      <c r="AV50" s="138"/>
+      <c r="AW50" s="132"/>
     </row>
     <row r="51" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B51" s="21">
@@ -13126,416 +13286,416 @@
       <c r="C51" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="D51" s="213"/>
-      <c r="E51" s="213"/>
-      <c r="F51" s="214"/>
+      <c r="D51" s="132"/>
+      <c r="E51" s="132"/>
+      <c r="F51" s="133"/>
       <c r="G51" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="H51" s="213"/>
-      <c r="I51" s="213"/>
-      <c r="J51" s="213"/>
-      <c r="K51" s="214"/>
-      <c r="L51" s="215" t="s">
+      <c r="H51" s="132"/>
+      <c r="I51" s="132"/>
+      <c r="J51" s="132"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="134" t="s">
         <v>242</v>
       </c>
-      <c r="M51" s="213"/>
-      <c r="N51" s="213"/>
-      <c r="O51" s="213"/>
-      <c r="P51" s="213"/>
-      <c r="Q51" s="213"/>
-      <c r="R51" s="213"/>
-      <c r="S51" s="213"/>
-      <c r="T51" s="213"/>
-      <c r="U51" s="213"/>
-      <c r="V51" s="213"/>
-      <c r="W51" s="213"/>
-      <c r="X51" s="213"/>
-      <c r="Y51" s="213"/>
-      <c r="Z51" s="213"/>
-      <c r="AA51" s="213"/>
-      <c r="AB51" s="213"/>
-      <c r="AC51" s="213"/>
-      <c r="AD51" s="213"/>
-      <c r="AE51" s="213"/>
-      <c r="AF51" s="213"/>
-      <c r="AG51" s="213"/>
-      <c r="AH51" s="213"/>
-      <c r="AI51" s="213"/>
-      <c r="AJ51" s="213"/>
-      <c r="AK51" s="213"/>
-      <c r="AL51" s="213"/>
-      <c r="AM51" s="213"/>
-      <c r="AN51" s="213"/>
-      <c r="AO51" s="213"/>
-      <c r="AP51" s="213"/>
-      <c r="AQ51" s="213"/>
-      <c r="AR51" s="213"/>
-      <c r="AS51" s="213"/>
-      <c r="AT51" s="213"/>
-      <c r="AU51" s="213"/>
-      <c r="AV51" s="214"/>
-      <c r="AW51" s="213"/>
+      <c r="M51" s="132"/>
+      <c r="N51" s="132"/>
+      <c r="O51" s="132"/>
+      <c r="P51" s="132"/>
+      <c r="Q51" s="132"/>
+      <c r="R51" s="132"/>
+      <c r="S51" s="132"/>
+      <c r="T51" s="132"/>
+      <c r="U51" s="132"/>
+      <c r="V51" s="132"/>
+      <c r="W51" s="132"/>
+      <c r="X51" s="132"/>
+      <c r="Y51" s="132"/>
+      <c r="Z51" s="132"/>
+      <c r="AA51" s="132"/>
+      <c r="AB51" s="132"/>
+      <c r="AC51" s="132"/>
+      <c r="AD51" s="132"/>
+      <c r="AE51" s="132"/>
+      <c r="AF51" s="132"/>
+      <c r="AG51" s="132"/>
+      <c r="AH51" s="132"/>
+      <c r="AI51" s="132"/>
+      <c r="AJ51" s="132"/>
+      <c r="AK51" s="132"/>
+      <c r="AL51" s="132"/>
+      <c r="AM51" s="132"/>
+      <c r="AN51" s="132"/>
+      <c r="AO51" s="132"/>
+      <c r="AP51" s="132"/>
+      <c r="AQ51" s="132"/>
+      <c r="AR51" s="132"/>
+      <c r="AS51" s="132"/>
+      <c r="AT51" s="132"/>
+      <c r="AU51" s="132"/>
+      <c r="AV51" s="133"/>
+      <c r="AW51" s="132"/>
     </row>
     <row r="52" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B52" s="216"/>
-      <c r="C52" s="216"/>
-      <c r="D52" s="213"/>
-      <c r="E52" s="213"/>
-      <c r="F52" s="214"/>
+      <c r="B52" s="135"/>
+      <c r="C52" s="135"/>
+      <c r="D52" s="132"/>
+      <c r="E52" s="132"/>
+      <c r="F52" s="133"/>
       <c r="G52" s="75" t="s">
         <v>235</v>
       </c>
-      <c r="H52" s="213"/>
-      <c r="I52" s="213"/>
-      <c r="J52" s="213"/>
-      <c r="K52" s="214"/>
-      <c r="L52" s="220" t="s">
+      <c r="H52" s="132"/>
+      <c r="I52" s="132"/>
+      <c r="J52" s="132"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="139" t="s">
         <v>248</v>
       </c>
-      <c r="M52" s="213"/>
-      <c r="N52" s="213"/>
-      <c r="O52" s="213"/>
-      <c r="P52" s="213"/>
-      <c r="Q52" s="213"/>
-      <c r="R52" s="213"/>
-      <c r="S52" s="213"/>
-      <c r="T52" s="213"/>
-      <c r="U52" s="213"/>
-      <c r="V52" s="213"/>
-      <c r="W52" s="213"/>
-      <c r="X52" s="213"/>
-      <c r="Y52" s="213"/>
-      <c r="Z52" s="213"/>
-      <c r="AA52" s="213"/>
-      <c r="AB52" s="213"/>
-      <c r="AC52" s="213"/>
-      <c r="AD52" s="213"/>
-      <c r="AE52" s="213"/>
-      <c r="AF52" s="213"/>
-      <c r="AG52" s="213"/>
-      <c r="AH52" s="213"/>
-      <c r="AI52" s="213"/>
-      <c r="AJ52" s="213"/>
-      <c r="AK52" s="213"/>
-      <c r="AL52" s="213"/>
-      <c r="AM52" s="213"/>
-      <c r="AN52" s="213"/>
-      <c r="AO52" s="213"/>
-      <c r="AP52" s="213"/>
-      <c r="AQ52" s="213"/>
-      <c r="AR52" s="213"/>
-      <c r="AS52" s="213"/>
-      <c r="AT52" s="213"/>
-      <c r="AU52" s="213"/>
-      <c r="AV52" s="214"/>
-      <c r="AW52" s="213"/>
+      <c r="M52" s="132"/>
+      <c r="N52" s="132"/>
+      <c r="O52" s="132"/>
+      <c r="P52" s="132"/>
+      <c r="Q52" s="132"/>
+      <c r="R52" s="132"/>
+      <c r="S52" s="132"/>
+      <c r="T52" s="132"/>
+      <c r="U52" s="132"/>
+      <c r="V52" s="132"/>
+      <c r="W52" s="132"/>
+      <c r="X52" s="132"/>
+      <c r="Y52" s="132"/>
+      <c r="Z52" s="132"/>
+      <c r="AA52" s="132"/>
+      <c r="AB52" s="132"/>
+      <c r="AC52" s="132"/>
+      <c r="AD52" s="132"/>
+      <c r="AE52" s="132"/>
+      <c r="AF52" s="132"/>
+      <c r="AG52" s="132"/>
+      <c r="AH52" s="132"/>
+      <c r="AI52" s="132"/>
+      <c r="AJ52" s="132"/>
+      <c r="AK52" s="132"/>
+      <c r="AL52" s="132"/>
+      <c r="AM52" s="132"/>
+      <c r="AN52" s="132"/>
+      <c r="AO52" s="132"/>
+      <c r="AP52" s="132"/>
+      <c r="AQ52" s="132"/>
+      <c r="AR52" s="132"/>
+      <c r="AS52" s="132"/>
+      <c r="AT52" s="132"/>
+      <c r="AU52" s="132"/>
+      <c r="AV52" s="133"/>
+      <c r="AW52" s="132"/>
     </row>
     <row r="53" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B53" s="216"/>
-      <c r="C53" s="216"/>
-      <c r="D53" s="213"/>
-      <c r="E53" s="213"/>
-      <c r="F53" s="214"/>
+      <c r="B53" s="135"/>
+      <c r="C53" s="135"/>
+      <c r="D53" s="132"/>
+      <c r="E53" s="132"/>
+      <c r="F53" s="133"/>
       <c r="G53" s="75"/>
-      <c r="H53" s="213"/>
-      <c r="I53" s="213"/>
-      <c r="J53" s="213"/>
-      <c r="K53" s="214"/>
-      <c r="L53" s="213"/>
-      <c r="M53" s="213"/>
-      <c r="N53" s="213"/>
-      <c r="O53" s="213"/>
-      <c r="P53" s="213"/>
-      <c r="Q53" s="213"/>
-      <c r="R53" s="213"/>
-      <c r="S53" s="213"/>
-      <c r="T53" s="213"/>
-      <c r="U53" s="213"/>
-      <c r="V53" s="213"/>
-      <c r="W53" s="213"/>
-      <c r="X53" s="213"/>
-      <c r="Y53" s="213"/>
-      <c r="Z53" s="213"/>
-      <c r="AA53" s="213"/>
-      <c r="AB53" s="213"/>
-      <c r="AC53" s="213"/>
-      <c r="AD53" s="213"/>
-      <c r="AE53" s="213"/>
-      <c r="AF53" s="213"/>
-      <c r="AG53" s="213"/>
-      <c r="AH53" s="213"/>
-      <c r="AI53" s="213"/>
-      <c r="AJ53" s="213"/>
-      <c r="AK53" s="213"/>
-      <c r="AL53" s="213"/>
-      <c r="AM53" s="213"/>
-      <c r="AN53" s="213"/>
-      <c r="AO53" s="213"/>
-      <c r="AP53" s="213"/>
-      <c r="AQ53" s="213"/>
-      <c r="AR53" s="213"/>
-      <c r="AS53" s="213"/>
-      <c r="AT53" s="213"/>
-      <c r="AU53" s="213"/>
-      <c r="AV53" s="214"/>
-      <c r="AW53" s="213"/>
+      <c r="H53" s="132"/>
+      <c r="I53" s="132"/>
+      <c r="J53" s="132"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="132"/>
+      <c r="M53" s="132"/>
+      <c r="N53" s="132"/>
+      <c r="O53" s="132"/>
+      <c r="P53" s="132"/>
+      <c r="Q53" s="132"/>
+      <c r="R53" s="132"/>
+      <c r="S53" s="132"/>
+      <c r="T53" s="132"/>
+      <c r="U53" s="132"/>
+      <c r="V53" s="132"/>
+      <c r="W53" s="132"/>
+      <c r="X53" s="132"/>
+      <c r="Y53" s="132"/>
+      <c r="Z53" s="132"/>
+      <c r="AA53" s="132"/>
+      <c r="AB53" s="132"/>
+      <c r="AC53" s="132"/>
+      <c r="AD53" s="132"/>
+      <c r="AE53" s="132"/>
+      <c r="AF53" s="132"/>
+      <c r="AG53" s="132"/>
+      <c r="AH53" s="132"/>
+      <c r="AI53" s="132"/>
+      <c r="AJ53" s="132"/>
+      <c r="AK53" s="132"/>
+      <c r="AL53" s="132"/>
+      <c r="AM53" s="132"/>
+      <c r="AN53" s="132"/>
+      <c r="AO53" s="132"/>
+      <c r="AP53" s="132"/>
+      <c r="AQ53" s="132"/>
+      <c r="AR53" s="132"/>
+      <c r="AS53" s="132"/>
+      <c r="AT53" s="132"/>
+      <c r="AU53" s="132"/>
+      <c r="AV53" s="133"/>
+      <c r="AW53" s="132"/>
     </row>
     <row r="54" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B54" s="216"/>
-      <c r="C54" s="216"/>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="214"/>
+      <c r="B54" s="135"/>
+      <c r="C54" s="135"/>
+      <c r="D54" s="132"/>
+      <c r="E54" s="132"/>
+      <c r="F54" s="133"/>
       <c r="G54" s="75"/>
-      <c r="H54" s="213"/>
-      <c r="I54" s="213"/>
-      <c r="J54" s="213"/>
-      <c r="K54" s="214"/>
-      <c r="L54" s="220" t="s">
+      <c r="H54" s="132"/>
+      <c r="I54" s="132"/>
+      <c r="J54" s="132"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="139" t="s">
         <v>237</v>
       </c>
-      <c r="M54" s="213"/>
-      <c r="N54" s="213"/>
-      <c r="O54" s="213"/>
-      <c r="P54" s="213"/>
-      <c r="Q54" s="213"/>
-      <c r="R54" s="213"/>
-      <c r="S54" s="213"/>
-      <c r="T54" s="213"/>
-      <c r="U54" s="213"/>
-      <c r="V54" s="213"/>
-      <c r="W54" s="213"/>
-      <c r="X54" s="213"/>
-      <c r="Y54" s="213"/>
-      <c r="Z54" s="213"/>
-      <c r="AA54" s="213"/>
-      <c r="AB54" s="213"/>
-      <c r="AC54" s="213"/>
-      <c r="AD54" s="213"/>
-      <c r="AE54" s="213"/>
-      <c r="AF54" s="213"/>
-      <c r="AG54" s="213"/>
-      <c r="AH54" s="213"/>
-      <c r="AI54" s="213"/>
-      <c r="AJ54" s="213"/>
-      <c r="AK54" s="213"/>
-      <c r="AL54" s="213"/>
-      <c r="AM54" s="213"/>
-      <c r="AN54" s="213"/>
-      <c r="AO54" s="213"/>
-      <c r="AP54" s="213"/>
-      <c r="AQ54" s="213"/>
-      <c r="AR54" s="213"/>
-      <c r="AS54" s="213"/>
-      <c r="AT54" s="213"/>
-      <c r="AU54" s="213"/>
-      <c r="AV54" s="214"/>
-      <c r="AW54" s="213"/>
+      <c r="M54" s="132"/>
+      <c r="N54" s="132"/>
+      <c r="O54" s="132"/>
+      <c r="P54" s="132"/>
+      <c r="Q54" s="132"/>
+      <c r="R54" s="132"/>
+      <c r="S54" s="132"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="132"/>
+      <c r="V54" s="132"/>
+      <c r="W54" s="132"/>
+      <c r="X54" s="132"/>
+      <c r="Y54" s="132"/>
+      <c r="Z54" s="132"/>
+      <c r="AA54" s="132"/>
+      <c r="AB54" s="132"/>
+      <c r="AC54" s="132"/>
+      <c r="AD54" s="132"/>
+      <c r="AE54" s="132"/>
+      <c r="AF54" s="132"/>
+      <c r="AG54" s="132"/>
+      <c r="AH54" s="132"/>
+      <c r="AI54" s="132"/>
+      <c r="AJ54" s="132"/>
+      <c r="AK54" s="132"/>
+      <c r="AL54" s="132"/>
+      <c r="AM54" s="132"/>
+      <c r="AN54" s="132"/>
+      <c r="AO54" s="132"/>
+      <c r="AP54" s="132"/>
+      <c r="AQ54" s="132"/>
+      <c r="AR54" s="132"/>
+      <c r="AS54" s="132"/>
+      <c r="AT54" s="132"/>
+      <c r="AU54" s="132"/>
+      <c r="AV54" s="133"/>
+      <c r="AW54" s="132"/>
     </row>
     <row r="55" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B55" s="216"/>
-      <c r="C55" s="216"/>
-      <c r="D55" s="213"/>
-      <c r="E55" s="213"/>
-      <c r="F55" s="214"/>
+      <c r="B55" s="135"/>
+      <c r="C55" s="135"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="133"/>
       <c r="G55" s="75"/>
-      <c r="H55" s="213"/>
-      <c r="I55" s="213"/>
-      <c r="J55" s="213"/>
-      <c r="K55" s="214"/>
-      <c r="L55" s="213" t="s">
+      <c r="H55" s="132"/>
+      <c r="I55" s="132"/>
+      <c r="J55" s="132"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="132" t="s">
         <v>249</v>
       </c>
-      <c r="M55" s="213"/>
-      <c r="N55" s="213"/>
-      <c r="O55" s="213"/>
-      <c r="P55" s="213"/>
-      <c r="Q55" s="213"/>
-      <c r="R55" s="213"/>
-      <c r="S55" s="213"/>
-      <c r="T55" s="213"/>
-      <c r="U55" s="213"/>
-      <c r="V55" s="213"/>
-      <c r="W55" s="213"/>
-      <c r="X55" s="213"/>
-      <c r="Y55" s="213"/>
-      <c r="Z55" s="213"/>
-      <c r="AA55" s="213"/>
-      <c r="AB55" s="213"/>
-      <c r="AC55" s="213"/>
-      <c r="AD55" s="213"/>
-      <c r="AE55" s="213"/>
-      <c r="AF55" s="213"/>
-      <c r="AG55" s="213"/>
-      <c r="AH55" s="213"/>
-      <c r="AI55" s="213"/>
-      <c r="AJ55" s="213"/>
-      <c r="AK55" s="213"/>
-      <c r="AL55" s="213"/>
-      <c r="AM55" s="213"/>
-      <c r="AN55" s="213"/>
-      <c r="AO55" s="213"/>
-      <c r="AP55" s="213"/>
-      <c r="AQ55" s="213"/>
-      <c r="AR55" s="213"/>
-      <c r="AS55" s="213"/>
-      <c r="AT55" s="213"/>
-      <c r="AU55" s="213"/>
-      <c r="AV55" s="214"/>
-      <c r="AW55" s="213"/>
+      <c r="M55" s="132"/>
+      <c r="N55" s="132"/>
+      <c r="O55" s="132"/>
+      <c r="P55" s="132"/>
+      <c r="Q55" s="132"/>
+      <c r="R55" s="132"/>
+      <c r="S55" s="132"/>
+      <c r="T55" s="132"/>
+      <c r="U55" s="132"/>
+      <c r="V55" s="132"/>
+      <c r="W55" s="132"/>
+      <c r="X55" s="132"/>
+      <c r="Y55" s="132"/>
+      <c r="Z55" s="132"/>
+      <c r="AA55" s="132"/>
+      <c r="AB55" s="132"/>
+      <c r="AC55" s="132"/>
+      <c r="AD55" s="132"/>
+      <c r="AE55" s="132"/>
+      <c r="AF55" s="132"/>
+      <c r="AG55" s="132"/>
+      <c r="AH55" s="132"/>
+      <c r="AI55" s="132"/>
+      <c r="AJ55" s="132"/>
+      <c r="AK55" s="132"/>
+      <c r="AL55" s="132"/>
+      <c r="AM55" s="132"/>
+      <c r="AN55" s="132"/>
+      <c r="AO55" s="132"/>
+      <c r="AP55" s="132"/>
+      <c r="AQ55" s="132"/>
+      <c r="AR55" s="132"/>
+      <c r="AS55" s="132"/>
+      <c r="AT55" s="132"/>
+      <c r="AU55" s="132"/>
+      <c r="AV55" s="133"/>
+      <c r="AW55" s="132"/>
     </row>
     <row r="56" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B56" s="216"/>
-      <c r="C56" s="216"/>
-      <c r="D56" s="213"/>
-      <c r="E56" s="213"/>
-      <c r="F56" s="214"/>
+      <c r="B56" s="135"/>
+      <c r="C56" s="135"/>
+      <c r="D56" s="132"/>
+      <c r="E56" s="132"/>
+      <c r="F56" s="133"/>
       <c r="G56" s="75"/>
-      <c r="H56" s="213"/>
-      <c r="I56" s="213"/>
-      <c r="J56" s="213"/>
-      <c r="K56" s="214"/>
-      <c r="L56" s="213"/>
-      <c r="M56" s="213"/>
-      <c r="N56" s="213"/>
-      <c r="O56" s="213"/>
-      <c r="P56" s="213"/>
-      <c r="Q56" s="213"/>
-      <c r="R56" s="213"/>
-      <c r="S56" s="213"/>
-      <c r="T56" s="213"/>
-      <c r="U56" s="213"/>
-      <c r="V56" s="213"/>
-      <c r="W56" s="213"/>
-      <c r="X56" s="213"/>
-      <c r="Y56" s="213"/>
-      <c r="Z56" s="213"/>
-      <c r="AA56" s="213"/>
-      <c r="AB56" s="213"/>
-      <c r="AC56" s="213"/>
-      <c r="AD56" s="213"/>
-      <c r="AE56" s="213"/>
-      <c r="AF56" s="213"/>
-      <c r="AG56" s="213"/>
-      <c r="AH56" s="213"/>
-      <c r="AI56" s="213"/>
-      <c r="AJ56" s="213"/>
-      <c r="AK56" s="213"/>
-      <c r="AL56" s="213"/>
-      <c r="AM56" s="213"/>
-      <c r="AN56" s="213"/>
-      <c r="AO56" s="213"/>
-      <c r="AP56" s="213"/>
-      <c r="AQ56" s="213"/>
-      <c r="AR56" s="213"/>
-      <c r="AS56" s="213"/>
-      <c r="AT56" s="213"/>
-      <c r="AU56" s="213"/>
-      <c r="AV56" s="214"/>
-      <c r="AW56" s="213"/>
+      <c r="H56" s="132"/>
+      <c r="I56" s="132"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="133"/>
+      <c r="L56" s="132"/>
+      <c r="M56" s="132"/>
+      <c r="N56" s="132"/>
+      <c r="O56" s="132"/>
+      <c r="P56" s="132"/>
+      <c r="Q56" s="132"/>
+      <c r="R56" s="132"/>
+      <c r="S56" s="132"/>
+      <c r="T56" s="132"/>
+      <c r="U56" s="132"/>
+      <c r="V56" s="132"/>
+      <c r="W56" s="132"/>
+      <c r="X56" s="132"/>
+      <c r="Y56" s="132"/>
+      <c r="Z56" s="132"/>
+      <c r="AA56" s="132"/>
+      <c r="AB56" s="132"/>
+      <c r="AC56" s="132"/>
+      <c r="AD56" s="132"/>
+      <c r="AE56" s="132"/>
+      <c r="AF56" s="132"/>
+      <c r="AG56" s="132"/>
+      <c r="AH56" s="132"/>
+      <c r="AI56" s="132"/>
+      <c r="AJ56" s="132"/>
+      <c r="AK56" s="132"/>
+      <c r="AL56" s="132"/>
+      <c r="AM56" s="132"/>
+      <c r="AN56" s="132"/>
+      <c r="AO56" s="132"/>
+      <c r="AP56" s="132"/>
+      <c r="AQ56" s="132"/>
+      <c r="AR56" s="132"/>
+      <c r="AS56" s="132"/>
+      <c r="AT56" s="132"/>
+      <c r="AU56" s="132"/>
+      <c r="AV56" s="133"/>
+      <c r="AW56" s="132"/>
     </row>
     <row r="57" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B57" s="216"/>
-      <c r="C57" s="216"/>
-      <c r="D57" s="213"/>
-      <c r="E57" s="213"/>
-      <c r="F57" s="214"/>
+      <c r="B57" s="135"/>
+      <c r="C57" s="135"/>
+      <c r="D57" s="132"/>
+      <c r="E57" s="132"/>
+      <c r="F57" s="133"/>
       <c r="G57" s="75"/>
-      <c r="H57" s="213"/>
-      <c r="I57" s="213"/>
-      <c r="J57" s="213"/>
-      <c r="K57" s="214"/>
-      <c r="L57" s="213" t="s">
+      <c r="H57" s="132"/>
+      <c r="I57" s="132"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="133"/>
+      <c r="L57" s="132" t="s">
         <v>250</v>
       </c>
-      <c r="M57" s="213"/>
-      <c r="N57" s="213"/>
-      <c r="O57" s="213"/>
-      <c r="P57" s="213"/>
-      <c r="Q57" s="213"/>
-      <c r="R57" s="213"/>
-      <c r="S57" s="213"/>
-      <c r="T57" s="213"/>
-      <c r="U57" s="213"/>
-      <c r="V57" s="213"/>
-      <c r="W57" s="213"/>
-      <c r="X57" s="213"/>
-      <c r="Y57" s="213"/>
-      <c r="Z57" s="213"/>
-      <c r="AA57" s="213"/>
-      <c r="AB57" s="213"/>
-      <c r="AC57" s="213"/>
-      <c r="AD57" s="213"/>
-      <c r="AE57" s="213"/>
-      <c r="AF57" s="213"/>
-      <c r="AG57" s="213"/>
-      <c r="AH57" s="213"/>
-      <c r="AI57" s="213"/>
-      <c r="AJ57" s="213"/>
-      <c r="AK57" s="213"/>
-      <c r="AL57" s="213"/>
-      <c r="AM57" s="213"/>
-      <c r="AN57" s="213"/>
-      <c r="AO57" s="213"/>
-      <c r="AP57" s="213"/>
-      <c r="AQ57" s="213"/>
-      <c r="AR57" s="213"/>
-      <c r="AS57" s="213"/>
-      <c r="AT57" s="213"/>
-      <c r="AU57" s="213"/>
-      <c r="AV57" s="214"/>
-      <c r="AW57" s="213"/>
+      <c r="M57" s="132"/>
+      <c r="N57" s="132"/>
+      <c r="O57" s="132"/>
+      <c r="P57" s="132"/>
+      <c r="Q57" s="132"/>
+      <c r="R57" s="132"/>
+      <c r="S57" s="132"/>
+      <c r="T57" s="132"/>
+      <c r="U57" s="132"/>
+      <c r="V57" s="132"/>
+      <c r="W57" s="132"/>
+      <c r="X57" s="132"/>
+      <c r="Y57" s="132"/>
+      <c r="Z57" s="132"/>
+      <c r="AA57" s="132"/>
+      <c r="AB57" s="132"/>
+      <c r="AC57" s="132"/>
+      <c r="AD57" s="132"/>
+      <c r="AE57" s="132"/>
+      <c r="AF57" s="132"/>
+      <c r="AG57" s="132"/>
+      <c r="AH57" s="132"/>
+      <c r="AI57" s="132"/>
+      <c r="AJ57" s="132"/>
+      <c r="AK57" s="132"/>
+      <c r="AL57" s="132"/>
+      <c r="AM57" s="132"/>
+      <c r="AN57" s="132"/>
+      <c r="AO57" s="132"/>
+      <c r="AP57" s="132"/>
+      <c r="AQ57" s="132"/>
+      <c r="AR57" s="132"/>
+      <c r="AS57" s="132"/>
+      <c r="AT57" s="132"/>
+      <c r="AU57" s="132"/>
+      <c r="AV57" s="133"/>
+      <c r="AW57" s="132"/>
     </row>
     <row r="58" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B58" s="216"/>
-      <c r="C58" s="216"/>
-      <c r="D58" s="213"/>
-      <c r="E58" s="213"/>
-      <c r="F58" s="214"/>
-      <c r="G58" s="216"/>
-      <c r="H58" s="213"/>
-      <c r="I58" s="213"/>
-      <c r="J58" s="213"/>
-      <c r="K58" s="214"/>
-      <c r="L58" s="213"/>
-      <c r="M58" s="213"/>
-      <c r="N58" s="213"/>
-      <c r="O58" s="213"/>
-      <c r="P58" s="213"/>
-      <c r="Q58" s="213"/>
-      <c r="R58" s="213"/>
-      <c r="S58" s="213"/>
-      <c r="T58" s="213"/>
-      <c r="U58" s="213"/>
-      <c r="V58" s="213"/>
-      <c r="W58" s="213"/>
-      <c r="X58" s="213"/>
-      <c r="Y58" s="213"/>
-      <c r="Z58" s="213"/>
-      <c r="AA58" s="213"/>
-      <c r="AB58" s="213"/>
-      <c r="AC58" s="213"/>
-      <c r="AD58" s="213"/>
-      <c r="AE58" s="213"/>
-      <c r="AF58" s="213"/>
-      <c r="AG58" s="213"/>
-      <c r="AH58" s="213"/>
-      <c r="AI58" s="213"/>
-      <c r="AJ58" s="213"/>
-      <c r="AK58" s="213"/>
-      <c r="AL58" s="213"/>
-      <c r="AM58" s="213"/>
-      <c r="AN58" s="213"/>
-      <c r="AO58" s="213"/>
-      <c r="AP58" s="213"/>
-      <c r="AQ58" s="213"/>
-      <c r="AR58" s="213"/>
-      <c r="AS58" s="213"/>
-      <c r="AT58" s="213"/>
-      <c r="AU58" s="213"/>
-      <c r="AV58" s="214"/>
-      <c r="AW58" s="213"/>
+      <c r="B58" s="135"/>
+      <c r="C58" s="135"/>
+      <c r="D58" s="132"/>
+      <c r="E58" s="132"/>
+      <c r="F58" s="133"/>
+      <c r="G58" s="135"/>
+      <c r="H58" s="132"/>
+      <c r="I58" s="132"/>
+      <c r="J58" s="132"/>
+      <c r="K58" s="133"/>
+      <c r="L58" s="132"/>
+      <c r="M58" s="132"/>
+      <c r="N58" s="132"/>
+      <c r="O58" s="132"/>
+      <c r="P58" s="132"/>
+      <c r="Q58" s="132"/>
+      <c r="R58" s="132"/>
+      <c r="S58" s="132"/>
+      <c r="T58" s="132"/>
+      <c r="U58" s="132"/>
+      <c r="V58" s="132"/>
+      <c r="W58" s="132"/>
+      <c r="X58" s="132"/>
+      <c r="Y58" s="132"/>
+      <c r="Z58" s="132"/>
+      <c r="AA58" s="132"/>
+      <c r="AB58" s="132"/>
+      <c r="AC58" s="132"/>
+      <c r="AD58" s="132"/>
+      <c r="AE58" s="132"/>
+      <c r="AF58" s="132"/>
+      <c r="AG58" s="132"/>
+      <c r="AH58" s="132"/>
+      <c r="AI58" s="132"/>
+      <c r="AJ58" s="132"/>
+      <c r="AK58" s="132"/>
+      <c r="AL58" s="132"/>
+      <c r="AM58" s="132"/>
+      <c r="AN58" s="132"/>
+      <c r="AO58" s="132"/>
+      <c r="AP58" s="132"/>
+      <c r="AQ58" s="132"/>
+      <c r="AR58" s="132"/>
+      <c r="AS58" s="132"/>
+      <c r="AT58" s="132"/>
+      <c r="AU58" s="132"/>
+      <c r="AV58" s="133"/>
+      <c r="AW58" s="132"/>
     </row>
     <row r="59" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B59" s="21">
@@ -21118,14 +21278,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43707</v>
       </c>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="193"/>
-      <c r="AM1" s="194"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -21134,16 +21294,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>陳</v>
       </c>
-      <c r="AU1" s="186"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="186"/>
-      <c r="AX1" s="186"/>
-      <c r="AY1" s="186"/>
-      <c r="AZ1" s="187"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -21171,32 +21331,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="192" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>採番マスタ</v>
       </c>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="194"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="186"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="187"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -21205,13 +21365,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="187"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -21440,7 +21600,7 @@
       <c r="AW6" s="20"/>
     </row>
     <row r="7" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B7" s="198">
+      <c r="B7" s="213">
         <v>1</v>
       </c>
       <c r="C7" s="21" t="s">
@@ -21494,7 +21654,7 @@
       <c r="AW7" s="23"/>
     </row>
     <row r="8" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B8" s="199"/>
+      <c r="B8" s="214"/>
       <c r="C8" s="25"/>
       <c r="D8" s="26"/>
       <c r="E8" s="26"/>
@@ -21544,7 +21704,7 @@
       <c r="AW8" s="27"/>
     </row>
     <row r="9" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B9" s="198">
+      <c r="B9" s="213">
         <v>2</v>
       </c>
       <c r="C9" s="78" t="s">
@@ -21602,7 +21762,7 @@
       <c r="AW9" s="23"/>
     </row>
     <row r="10" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B10" s="199"/>
+      <c r="B10" s="214"/>
       <c r="C10" s="81"/>
       <c r="D10" s="82"/>
       <c r="E10" s="82"/>
@@ -21652,7 +21812,7 @@
       <c r="AW10" s="27"/>
     </row>
     <row r="11" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B11" s="198">
+      <c r="B11" s="213">
         <v>3</v>
       </c>
       <c r="C11" s="21" t="s">
@@ -21714,7 +21874,7 @@
       <c r="AW11" s="23"/>
     </row>
     <row r="12" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B12" s="199"/>
+      <c r="B12" s="214"/>
       <c r="C12" s="75"/>
       <c r="I12" s="76"/>
       <c r="J12" s="25"/>
@@ -21759,7 +21919,7 @@
       <c r="AW12" s="27"/>
     </row>
     <row r="13" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B13" s="198">
+      <c r="B13" s="213">
         <v>4</v>
       </c>
       <c r="C13" s="75"/>
@@ -21814,7 +21974,7 @@
       <c r="AW13" s="23"/>
     </row>
     <row r="14" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B14" s="199"/>
+      <c r="B14" s="214"/>
       <c r="C14" s="75"/>
       <c r="I14" s="76"/>
       <c r="J14" s="25"/>
@@ -21859,7 +22019,7 @@
       <c r="AW14" s="27"/>
     </row>
     <row r="15" spans="1:52" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="198">
+      <c r="B15" s="213">
         <v>5</v>
       </c>
       <c r="C15" s="75"/>
@@ -21912,7 +22072,7 @@
       <c r="AW15" s="23"/>
     </row>
     <row r="16" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B16" s="199"/>
+      <c r="B16" s="214"/>
       <c r="C16" s="75"/>
       <c r="I16" s="76"/>
       <c r="J16" s="25"/>
@@ -21957,7 +22117,7 @@
       <c r="AW16" s="27"/>
     </row>
     <row r="17" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B17" s="198">
+      <c r="B17" s="213">
         <v>6</v>
       </c>
       <c r="C17" s="75"/>
@@ -21976,18 +22136,18 @@
       </c>
       <c r="R17" s="22"/>
       <c r="S17" s="23"/>
-      <c r="T17" s="200" t="s">
+      <c r="T17" s="215" t="s">
         <v>224</v>
       </c>
-      <c r="U17" s="201"/>
-      <c r="V17" s="201"/>
-      <c r="W17" s="201"/>
-      <c r="X17" s="201"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="201"/>
-      <c r="AA17" s="201"/>
-      <c r="AB17" s="201"/>
-      <c r="AC17" s="202"/>
+      <c r="U17" s="216"/>
+      <c r="V17" s="216"/>
+      <c r="W17" s="216"/>
+      <c r="X17" s="216"/>
+      <c r="Y17" s="216"/>
+      <c r="Z17" s="216"/>
+      <c r="AA17" s="216"/>
+      <c r="AB17" s="216"/>
+      <c r="AC17" s="217"/>
       <c r="AD17" s="127" t="s">
         <v>141</v>
       </c>
@@ -22012,7 +22172,7 @@
       <c r="AW17" s="23"/>
     </row>
     <row r="18" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B18" s="199"/>
+      <c r="B18" s="214"/>
       <c r="C18" s="75"/>
       <c r="I18" s="76"/>
       <c r="J18" s="25"/>
@@ -22025,16 +22185,16 @@
       <c r="Q18" s="25"/>
       <c r="R18" s="26"/>
       <c r="S18" s="27"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="204"/>
-      <c r="V18" s="204"/>
-      <c r="W18" s="204"/>
-      <c r="X18" s="204"/>
-      <c r="Y18" s="204"/>
-      <c r="Z18" s="204"/>
-      <c r="AA18" s="204"/>
-      <c r="AB18" s="204"/>
-      <c r="AC18" s="205"/>
+      <c r="T18" s="218"/>
+      <c r="U18" s="219"/>
+      <c r="V18" s="219"/>
+      <c r="W18" s="219"/>
+      <c r="X18" s="219"/>
+      <c r="Y18" s="219"/>
+      <c r="Z18" s="219"/>
+      <c r="AA18" s="219"/>
+      <c r="AB18" s="219"/>
+      <c r="AC18" s="220"/>
       <c r="AD18" s="129"/>
       <c r="AE18" s="130"/>
       <c r="AF18" s="130"/>
@@ -22057,7 +22217,7 @@
       <c r="AW18" s="27"/>
     </row>
     <row r="19" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B19" s="198">
+      <c r="B19" s="213">
         <v>7</v>
       </c>
       <c r="C19" s="21" t="s">
@@ -22119,7 +22279,7 @@
       <c r="AW19" s="23"/>
     </row>
     <row r="20" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B20" s="199"/>
+      <c r="B20" s="214"/>
       <c r="C20" s="75"/>
       <c r="I20" s="76"/>
       <c r="J20" s="25"/>
@@ -22164,7 +22324,7 @@
       <c r="AW20" s="27"/>
     </row>
     <row r="21" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B21" s="198">
+      <c r="B21" s="213">
         <v>8</v>
       </c>
       <c r="C21" s="75"/>
@@ -22219,7 +22379,7 @@
       <c r="AW21" s="23"/>
     </row>
     <row r="22" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B22" s="199"/>
+      <c r="B22" s="214"/>
       <c r="C22" s="75"/>
       <c r="I22" s="76"/>
       <c r="J22" s="25"/>
@@ -22264,7 +22424,7 @@
       <c r="AW22" s="27"/>
     </row>
     <row r="23" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B23" s="198">
+      <c r="B23" s="213">
         <v>9</v>
       </c>
       <c r="C23" s="75"/>
@@ -22283,18 +22443,18 @@
       </c>
       <c r="R23" s="22"/>
       <c r="S23" s="23"/>
-      <c r="T23" s="200" t="s">
+      <c r="T23" s="215" t="s">
         <v>135</v>
       </c>
-      <c r="U23" s="201"/>
-      <c r="V23" s="201"/>
-      <c r="W23" s="201"/>
-      <c r="X23" s="201"/>
-      <c r="Y23" s="201"/>
-      <c r="Z23" s="201"/>
-      <c r="AA23" s="201"/>
-      <c r="AB23" s="201"/>
-      <c r="AC23" s="202"/>
+      <c r="U23" s="216"/>
+      <c r="V23" s="216"/>
+      <c r="W23" s="216"/>
+      <c r="X23" s="216"/>
+      <c r="Y23" s="216"/>
+      <c r="Z23" s="216"/>
+      <c r="AA23" s="216"/>
+      <c r="AB23" s="216"/>
+      <c r="AC23" s="217"/>
       <c r="AD23" s="127" t="s">
         <v>137</v>
       </c>
@@ -22319,7 +22479,7 @@
       <c r="AW23" s="23"/>
     </row>
     <row r="24" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B24" s="199"/>
+      <c r="B24" s="214"/>
       <c r="C24" s="75"/>
       <c r="I24" s="76"/>
       <c r="J24" s="25"/>
@@ -22332,16 +22492,16 @@
       <c r="Q24" s="25"/>
       <c r="R24" s="26"/>
       <c r="S24" s="27"/>
-      <c r="T24" s="203"/>
-      <c r="U24" s="204"/>
-      <c r="V24" s="204"/>
-      <c r="W24" s="204"/>
-      <c r="X24" s="204"/>
-      <c r="Y24" s="204"/>
-      <c r="Z24" s="204"/>
-      <c r="AA24" s="204"/>
-      <c r="AB24" s="204"/>
-      <c r="AC24" s="205"/>
+      <c r="T24" s="218"/>
+      <c r="U24" s="219"/>
+      <c r="V24" s="219"/>
+      <c r="W24" s="219"/>
+      <c r="X24" s="219"/>
+      <c r="Y24" s="219"/>
+      <c r="Z24" s="219"/>
+      <c r="AA24" s="219"/>
+      <c r="AB24" s="219"/>
+      <c r="AC24" s="220"/>
       <c r="AD24" s="129"/>
       <c r="AE24" s="130"/>
       <c r="AF24" s="130"/>
@@ -22364,7 +22524,7 @@
       <c r="AW24" s="27"/>
     </row>
     <row r="25" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="198">
+      <c r="B25" s="213">
         <v>10</v>
       </c>
       <c r="C25" s="75"/>
@@ -22417,7 +22577,7 @@
       <c r="AW25" s="23"/>
     </row>
     <row r="26" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B26" s="199"/>
+      <c r="B26" s="214"/>
       <c r="C26" s="75"/>
       <c r="I26" s="76"/>
       <c r="J26" s="25"/>
@@ -22462,7 +22622,7 @@
       <c r="AW26" s="27"/>
     </row>
     <row r="27" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B27" s="198">
+      <c r="B27" s="213">
         <v>11</v>
       </c>
       <c r="C27" s="75"/>
@@ -22481,18 +22641,18 @@
       </c>
       <c r="R27" s="22"/>
       <c r="S27" s="23"/>
-      <c r="T27" s="200" t="s">
+      <c r="T27" s="215" t="s">
         <v>225</v>
       </c>
-      <c r="U27" s="201"/>
-      <c r="V27" s="201"/>
-      <c r="W27" s="201"/>
-      <c r="X27" s="201"/>
-      <c r="Y27" s="201"/>
-      <c r="Z27" s="201"/>
-      <c r="AA27" s="201"/>
-      <c r="AB27" s="201"/>
-      <c r="AC27" s="202"/>
+      <c r="U27" s="216"/>
+      <c r="V27" s="216"/>
+      <c r="W27" s="216"/>
+      <c r="X27" s="216"/>
+      <c r="Y27" s="216"/>
+      <c r="Z27" s="216"/>
+      <c r="AA27" s="216"/>
+      <c r="AB27" s="216"/>
+      <c r="AC27" s="217"/>
       <c r="AD27" s="127" t="s">
         <v>139</v>
       </c>
@@ -22517,7 +22677,7 @@
       <c r="AW27" s="23"/>
     </row>
     <row r="28" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B28" s="199"/>
+      <c r="B28" s="214"/>
       <c r="C28" s="75"/>
       <c r="I28" s="76"/>
       <c r="J28" s="25"/>
@@ -22530,16 +22690,16 @@
       <c r="Q28" s="25"/>
       <c r="R28" s="26"/>
       <c r="S28" s="27"/>
-      <c r="T28" s="203"/>
-      <c r="U28" s="204"/>
-      <c r="V28" s="204"/>
-      <c r="W28" s="204"/>
-      <c r="X28" s="204"/>
-      <c r="Y28" s="204"/>
-      <c r="Z28" s="204"/>
-      <c r="AA28" s="204"/>
-      <c r="AB28" s="204"/>
-      <c r="AC28" s="205"/>
+      <c r="T28" s="218"/>
+      <c r="U28" s="219"/>
+      <c r="V28" s="219"/>
+      <c r="W28" s="219"/>
+      <c r="X28" s="219"/>
+      <c r="Y28" s="219"/>
+      <c r="Z28" s="219"/>
+      <c r="AA28" s="219"/>
+      <c r="AB28" s="219"/>
+      <c r="AC28" s="220"/>
       <c r="AD28" s="129"/>
       <c r="AE28" s="130"/>
       <c r="AF28" s="130"/>
@@ -22562,7 +22722,7 @@
       <c r="AW28" s="27"/>
     </row>
     <row r="29" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B29" s="198">
+      <c r="B29" s="213">
         <v>12</v>
       </c>
       <c r="C29" s="21" t="s">
@@ -22588,18 +22748,18 @@
       </c>
       <c r="R29" s="22"/>
       <c r="S29" s="23"/>
-      <c r="T29" s="200" t="s">
+      <c r="T29" s="215" t="s">
         <v>219</v>
       </c>
-      <c r="U29" s="201"/>
-      <c r="V29" s="201"/>
-      <c r="W29" s="201"/>
-      <c r="X29" s="201"/>
-      <c r="Y29" s="201"/>
-      <c r="Z29" s="201"/>
-      <c r="AA29" s="201"/>
-      <c r="AB29" s="201"/>
-      <c r="AC29" s="202"/>
+      <c r="U29" s="216"/>
+      <c r="V29" s="216"/>
+      <c r="W29" s="216"/>
+      <c r="X29" s="216"/>
+      <c r="Y29" s="216"/>
+      <c r="Z29" s="216"/>
+      <c r="AA29" s="216"/>
+      <c r="AB29" s="216"/>
+      <c r="AC29" s="217"/>
       <c r="AD29" s="127" t="s">
         <v>142</v>
       </c>
@@ -22624,7 +22784,7 @@
       <c r="AW29" s="23"/>
     </row>
     <row r="30" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B30" s="199"/>
+      <c r="B30" s="214"/>
       <c r="C30" s="75"/>
       <c r="I30" s="76"/>
       <c r="J30" s="25"/>
@@ -22637,16 +22797,16 @@
       <c r="Q30" s="25"/>
       <c r="R30" s="26"/>
       <c r="S30" s="27"/>
-      <c r="T30" s="203"/>
-      <c r="U30" s="204"/>
-      <c r="V30" s="204"/>
-      <c r="W30" s="204"/>
-      <c r="X30" s="204"/>
-      <c r="Y30" s="204"/>
-      <c r="Z30" s="204"/>
-      <c r="AA30" s="204"/>
-      <c r="AB30" s="204"/>
-      <c r="AC30" s="205"/>
+      <c r="T30" s="218"/>
+      <c r="U30" s="219"/>
+      <c r="V30" s="219"/>
+      <c r="W30" s="219"/>
+      <c r="X30" s="219"/>
+      <c r="Y30" s="219"/>
+      <c r="Z30" s="219"/>
+      <c r="AA30" s="219"/>
+      <c r="AB30" s="219"/>
+      <c r="AC30" s="220"/>
       <c r="AD30" s="129"/>
       <c r="AE30" s="130"/>
       <c r="AF30" s="130"/>
@@ -22669,7 +22829,7 @@
       <c r="AW30" s="27"/>
     </row>
     <row r="31" spans="2:49" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="198">
+      <c r="B31" s="213">
         <v>13</v>
       </c>
       <c r="C31" s="75"/>
@@ -22722,7 +22882,7 @@
       <c r="AW31" s="23"/>
     </row>
     <row r="32" spans="2:49" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B32" s="199"/>
+      <c r="B32" s="214"/>
       <c r="C32" s="25"/>
       <c r="D32" s="26"/>
       <c r="E32" s="26"/>
@@ -22772,7 +22932,7 @@
       <c r="AW32" s="27"/>
     </row>
     <row r="33" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B33" s="198">
+      <c r="B33" s="213">
         <v>14</v>
       </c>
       <c r="C33" s="78" t="s">
@@ -22830,7 +22990,7 @@
       <c r="AW33" s="80"/>
     </row>
     <row r="34" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B34" s="199"/>
+      <c r="B34" s="214"/>
       <c r="C34" s="81"/>
       <c r="D34" s="82"/>
       <c r="E34" s="82"/>
@@ -22880,7 +23040,7 @@
       <c r="AW34" s="83"/>
     </row>
     <row r="35" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B35" s="198">
+      <c r="B35" s="213">
         <v>15</v>
       </c>
       <c r="C35" s="78" t="s">
@@ -22904,18 +23064,18 @@
       </c>
       <c r="R35" s="79"/>
       <c r="S35" s="80"/>
-      <c r="T35" s="206" t="s">
+      <c r="T35" s="207" t="s">
         <v>227</v>
       </c>
-      <c r="U35" s="207"/>
-      <c r="V35" s="207"/>
-      <c r="W35" s="207"/>
-      <c r="X35" s="207"/>
-      <c r="Y35" s="207"/>
-      <c r="Z35" s="207"/>
-      <c r="AA35" s="207"/>
-      <c r="AB35" s="207"/>
-      <c r="AC35" s="208"/>
+      <c r="U35" s="208"/>
+      <c r="V35" s="208"/>
+      <c r="W35" s="208"/>
+      <c r="X35" s="208"/>
+      <c r="Y35" s="208"/>
+      <c r="Z35" s="208"/>
+      <c r="AA35" s="208"/>
+      <c r="AB35" s="208"/>
+      <c r="AC35" s="209"/>
       <c r="AD35" s="78" t="s">
         <v>146</v>
       </c>
@@ -22940,7 +23100,7 @@
       <c r="AW35" s="80"/>
     </row>
     <row r="36" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B36" s="199"/>
+      <c r="B36" s="214"/>
       <c r="C36" s="107"/>
       <c r="D36" s="108"/>
       <c r="E36" s="108"/>
@@ -22958,16 +23118,16 @@
       <c r="Q36" s="81"/>
       <c r="R36" s="82"/>
       <c r="S36" s="83"/>
-      <c r="T36" s="209"/>
-      <c r="U36" s="210"/>
-      <c r="V36" s="210"/>
-      <c r="W36" s="210"/>
-      <c r="X36" s="210"/>
-      <c r="Y36" s="210"/>
-      <c r="Z36" s="210"/>
-      <c r="AA36" s="210"/>
-      <c r="AB36" s="210"/>
-      <c r="AC36" s="211"/>
+      <c r="T36" s="210"/>
+      <c r="U36" s="211"/>
+      <c r="V36" s="211"/>
+      <c r="W36" s="211"/>
+      <c r="X36" s="211"/>
+      <c r="Y36" s="211"/>
+      <c r="Z36" s="211"/>
+      <c r="AA36" s="211"/>
+      <c r="AB36" s="211"/>
+      <c r="AC36" s="212"/>
       <c r="AD36" s="81"/>
       <c r="AE36" s="82"/>
       <c r="AF36" s="82"/>
@@ -22990,7 +23150,7 @@
       <c r="AW36" s="83"/>
     </row>
     <row r="37" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B37" s="198">
+      <c r="B37" s="213">
         <v>16</v>
       </c>
       <c r="C37" s="107"/>
@@ -23046,7 +23206,7 @@
       <c r="AW37" s="80"/>
     </row>
     <row r="38" spans="1:52" s="17" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
-      <c r="B38" s="199"/>
+      <c r="B38" s="214"/>
       <c r="C38" s="81"/>
       <c r="D38" s="82"/>
       <c r="E38" s="82"/>
@@ -26985,16 +27145,6 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="T35:AC36"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="T23:AC24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="T27:AC28"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
@@ -27011,6 +27161,16 @@
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="T29:AC30"/>
     <mergeCell ref="B31:B32"/>
+    <mergeCell ref="T35:AC36"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="T23:AC24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="T27:AC28"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.78740157480314965" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.39370078740157483" footer="0.19685039370078741"/>
@@ -27084,14 +27244,14 @@
       <c r="AF1" s="35"/>
       <c r="AG1" s="35"/>
       <c r="AH1" s="36"/>
-      <c r="AI1" s="174">
+      <c r="AI1" s="183">
         <f>変更履歴!E5</f>
         <v>43707</v>
       </c>
-      <c r="AJ1" s="193"/>
-      <c r="AK1" s="193"/>
-      <c r="AL1" s="193"/>
-      <c r="AM1" s="194"/>
+      <c r="AJ1" s="202"/>
+      <c r="AK1" s="202"/>
+      <c r="AL1" s="202"/>
+      <c r="AM1" s="203"/>
       <c r="AN1" s="34" t="s">
         <v>25</v>
       </c>
@@ -27100,16 +27260,16 @@
       <c r="AQ1" s="35"/>
       <c r="AR1" s="35"/>
       <c r="AS1" s="36"/>
-      <c r="AT1" s="177" t="str">
+      <c r="AT1" s="186" t="str">
         <f>変更履歴!AN5</f>
         <v>陳</v>
       </c>
-      <c r="AU1" s="186"/>
-      <c r="AV1" s="186"/>
-      <c r="AW1" s="186"/>
-      <c r="AX1" s="186"/>
-      <c r="AY1" s="186"/>
-      <c r="AZ1" s="187"/>
+      <c r="AU1" s="195"/>
+      <c r="AV1" s="195"/>
+      <c r="AW1" s="195"/>
+      <c r="AX1" s="195"/>
+      <c r="AY1" s="195"/>
+      <c r="AZ1" s="196"/>
     </row>
     <row r="2" spans="1:52" s="54" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
@@ -27137,32 +27297,32 @@
       <c r="P2" s="38"/>
       <c r="Q2" s="38"/>
       <c r="R2" s="39"/>
-      <c r="S2" s="192" t="str">
+      <c r="S2" s="201" t="str">
         <f>'１．機能概要'!W2</f>
         <v>採番マスタ</v>
       </c>
-      <c r="T2" s="193"/>
-      <c r="U2" s="193"/>
-      <c r="V2" s="193"/>
-      <c r="W2" s="193"/>
-      <c r="X2" s="193"/>
-      <c r="Y2" s="193"/>
-      <c r="Z2" s="193"/>
-      <c r="AA2" s="193"/>
-      <c r="AB2" s="193"/>
-      <c r="AC2" s="193"/>
-      <c r="AD2" s="194"/>
+      <c r="T2" s="202"/>
+      <c r="U2" s="202"/>
+      <c r="V2" s="202"/>
+      <c r="W2" s="202"/>
+      <c r="X2" s="202"/>
+      <c r="Y2" s="202"/>
+      <c r="Z2" s="202"/>
+      <c r="AA2" s="202"/>
+      <c r="AB2" s="202"/>
+      <c r="AC2" s="202"/>
+      <c r="AD2" s="203"/>
       <c r="AE2" s="34" t="s">
         <v>24</v>
       </c>
       <c r="AF2" s="35"/>
       <c r="AG2" s="35"/>
       <c r="AH2" s="36"/>
-      <c r="AI2" s="191"/>
-      <c r="AJ2" s="186"/>
-      <c r="AK2" s="186"/>
-      <c r="AL2" s="186"/>
-      <c r="AM2" s="187"/>
+      <c r="AI2" s="200"/>
+      <c r="AJ2" s="195"/>
+      <c r="AK2" s="195"/>
+      <c r="AL2" s="195"/>
+      <c r="AM2" s="196"/>
       <c r="AN2" s="34" t="s">
         <v>26</v>
       </c>
@@ -27171,13 +27331,13 @@
       <c r="AQ2" s="35"/>
       <c r="AR2" s="35"/>
       <c r="AS2" s="36"/>
-      <c r="AT2" s="177"/>
-      <c r="AU2" s="186"/>
-      <c r="AV2" s="186"/>
-      <c r="AW2" s="186"/>
-      <c r="AX2" s="186"/>
-      <c r="AY2" s="186"/>
-      <c r="AZ2" s="187"/>
+      <c r="AT2" s="186"/>
+      <c r="AU2" s="195"/>
+      <c r="AV2" s="195"/>
+      <c r="AW2" s="195"/>
+      <c r="AX2" s="195"/>
+      <c r="AY2" s="195"/>
+      <c r="AZ2" s="196"/>
     </row>
     <row r="3" spans="1:52" x14ac:dyDescent="0.15">
       <c r="A3" s="63"/>
@@ -38176,12 +38336,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101005B3AFDF1A27EF4448B30400A700269C9" ma:contentTypeVersion="7" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="af1e50296a73b747a155d4c5a148cd8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="72c70d25-b9e8-475b-ae7b-39931ca24b85" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7c374c4e1cfeff0cf58497e8c642c22" ns2:_="">
     <xsd:import namespace="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
@@ -38339,6 +38493,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -38349,22 +38509,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1F39FE47-ED8B-411A-AD54-8C8E5636C88B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -38382,6 +38526,22 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7B96F246-76A3-4A27-8547-17CD1E715E86}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="72c70d25-b9e8-475b-ae7b-39931ca24b85"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7CA02E59-26EF-42FD-ADE3-8B1F7DDCD7B9}">
   <ds:schemaRefs>
